--- a/AAII_Financials/Quarterly/BVXV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BVXV_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -819,25 +819,25 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>4700</v>
+        <v>4600</v>
       </c>
       <c r="E12" s="3">
-        <v>4400</v>
+        <v>4300</v>
       </c>
       <c r="F12" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="G12" s="3">
-        <v>7800</v>
+        <v>7600</v>
       </c>
       <c r="H12" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="I12" s="3">
-        <v>8500</v>
+        <v>8300</v>
       </c>
       <c r="J12" s="3">
-        <v>3400</v>
+        <v>3300</v>
       </c>
       <c r="K12" s="3">
         <v>4000</v>
@@ -945,25 +945,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>5500</v>
+        <v>5400</v>
       </c>
       <c r="E17" s="3">
-        <v>5700</v>
+        <v>5600</v>
       </c>
       <c r="F17" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="G17" s="3">
-        <v>8200</v>
+        <v>8000</v>
       </c>
       <c r="H17" s="3">
         <v>1700</v>
       </c>
       <c r="I17" s="3">
-        <v>8900</v>
+        <v>8700</v>
       </c>
       <c r="J17" s="3">
-        <v>3700</v>
+        <v>3600</v>
       </c>
       <c r="K17" s="3">
         <v>4300</v>
@@ -977,22 +977,22 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>-5700</v>
+        <v>-5600</v>
       </c>
       <c r="F18" s="3">
-        <v>-2100</v>
+        <v>-2000</v>
       </c>
       <c r="G18" s="3">
-        <v>-8200</v>
+        <v>-8000</v>
       </c>
       <c r="H18" s="3">
         <v>-1700</v>
       </c>
       <c r="I18" s="3">
-        <v>-8900</v>
+        <v>-8700</v>
       </c>
       <c r="J18" s="3">
-        <v>-3700</v>
+        <v>-3600</v>
       </c>
       <c r="K18" s="3">
         <v>-4300</v>
@@ -1019,13 +1019,13 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
-        <v>-8100</v>
+        <v>-7900</v>
       </c>
       <c r="F20" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="G20" s="3">
-        <v>-5200</v>
+        <v>-5100</v>
       </c>
       <c r="H20" s="3">
         <v>1000</v>
@@ -1034,7 +1034,7 @@
         <v>1500</v>
       </c>
       <c r="J20" s="3">
-        <v>-500</v>
+        <v>-400</v>
       </c>
       <c r="K20" s="3">
         <v>700</v>
@@ -1054,16 +1054,16 @@
         <v>4</v>
       </c>
       <c r="G21" s="3">
-        <v>-13400</v>
+        <v>-13000</v>
       </c>
       <c r="H21" s="3">
         <v>-700</v>
       </c>
       <c r="I21" s="3">
-        <v>-7400</v>
+        <v>-7200</v>
       </c>
       <c r="J21" s="3">
-        <v>-4100</v>
+        <v>-4000</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>4</v>
@@ -1103,25 +1103,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-5600</v>
+        <v>-5500</v>
       </c>
       <c r="E23" s="3">
-        <v>-13800</v>
+        <v>-13500</v>
       </c>
       <c r="F23" s="3">
         <v>200</v>
       </c>
       <c r="G23" s="3">
-        <v>-13400</v>
+        <v>-13000</v>
       </c>
       <c r="H23" s="3">
-        <v>-700</v>
+        <v>-600</v>
       </c>
       <c r="I23" s="3">
-        <v>-7400</v>
+        <v>-7300</v>
       </c>
       <c r="J23" s="3">
-        <v>-4100</v>
+        <v>-4000</v>
       </c>
       <c r="K23" s="3">
         <v>-3600</v>
@@ -1190,25 +1190,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-5600</v>
+        <v>-5500</v>
       </c>
       <c r="E26" s="3">
-        <v>-13800</v>
+        <v>-13500</v>
       </c>
       <c r="F26" s="3">
         <v>200</v>
       </c>
       <c r="G26" s="3">
-        <v>-13400</v>
+        <v>-13000</v>
       </c>
       <c r="H26" s="3">
-        <v>-700</v>
+        <v>-600</v>
       </c>
       <c r="I26" s="3">
-        <v>-7400</v>
+        <v>-7300</v>
       </c>
       <c r="J26" s="3">
-        <v>-4100</v>
+        <v>-4000</v>
       </c>
       <c r="K26" s="3">
         <v>-3600</v>
@@ -1219,25 +1219,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-5600</v>
+        <v>-5500</v>
       </c>
       <c r="E27" s="3">
-        <v>-13800</v>
+        <v>-13500</v>
       </c>
       <c r="F27" s="3">
         <v>200</v>
       </c>
       <c r="G27" s="3">
-        <v>-13400</v>
+        <v>-13000</v>
       </c>
       <c r="H27" s="3">
-        <v>-700</v>
+        <v>-600</v>
       </c>
       <c r="I27" s="3">
-        <v>-7400</v>
+        <v>-7300</v>
       </c>
       <c r="J27" s="3">
-        <v>-4100</v>
+        <v>-4000</v>
       </c>
       <c r="K27" s="3">
         <v>-3600</v>
@@ -1367,13 +1367,13 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
-        <v>8100</v>
+        <v>7900</v>
       </c>
       <c r="F32" s="3">
-        <v>-2300</v>
+        <v>-2200</v>
       </c>
       <c r="G32" s="3">
-        <v>5200</v>
+        <v>5100</v>
       </c>
       <c r="H32" s="3">
         <v>-1000</v>
@@ -1382,7 +1382,7 @@
         <v>-1500</v>
       </c>
       <c r="J32" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K32" s="3">
         <v>-700</v>
@@ -1393,25 +1393,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-5600</v>
+        <v>-5500</v>
       </c>
       <c r="E33" s="3">
-        <v>-13800</v>
+        <v>-13500</v>
       </c>
       <c r="F33" s="3">
         <v>200</v>
       </c>
       <c r="G33" s="3">
-        <v>-13400</v>
+        <v>-13000</v>
       </c>
       <c r="H33" s="3">
-        <v>-700</v>
+        <v>-600</v>
       </c>
       <c r="I33" s="3">
-        <v>-7400</v>
+        <v>-7300</v>
       </c>
       <c r="J33" s="3">
-        <v>-4100</v>
+        <v>-4000</v>
       </c>
       <c r="K33" s="3">
         <v>-3600</v>
@@ -1451,25 +1451,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-5600</v>
+        <v>-5500</v>
       </c>
       <c r="E35" s="3">
-        <v>-13800</v>
+        <v>-13500</v>
       </c>
       <c r="F35" s="3">
         <v>200</v>
       </c>
       <c r="G35" s="3">
-        <v>-13400</v>
+        <v>-13000</v>
       </c>
       <c r="H35" s="3">
-        <v>-700</v>
+        <v>-600</v>
       </c>
       <c r="I35" s="3">
-        <v>-7400</v>
+        <v>-7300</v>
       </c>
       <c r="J35" s="3">
-        <v>-4100</v>
+        <v>-4000</v>
       </c>
       <c r="K35" s="3">
         <v>-3600</v>
@@ -1540,25 +1540,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>22000</v>
+        <v>21400</v>
       </c>
       <c r="E41" s="3">
-        <v>9900</v>
+        <v>9700</v>
       </c>
       <c r="F41" s="3">
-        <v>16800</v>
+        <v>16400</v>
       </c>
       <c r="G41" s="3">
-        <v>22100</v>
+        <v>21600</v>
       </c>
       <c r="H41" s="3">
-        <v>15500</v>
+        <v>15100</v>
       </c>
       <c r="I41" s="3">
-        <v>10800</v>
+        <v>10600</v>
       </c>
       <c r="J41" s="3">
-        <v>16200</v>
+        <v>15900</v>
       </c>
       <c r="K41" s="3">
         <v>20800</v>
@@ -1598,7 +1598,7 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="E43" s="3">
         <v>400</v>
@@ -1616,7 +1616,7 @@
         <v>1200</v>
       </c>
       <c r="J43" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="K43" s="3">
         <v>1100</v>
@@ -1685,25 +1685,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>22500</v>
+        <v>22000</v>
       </c>
       <c r="E46" s="3">
-        <v>10300</v>
+        <v>10000</v>
       </c>
       <c r="F46" s="3">
-        <v>17300</v>
+        <v>16900</v>
       </c>
       <c r="G46" s="3">
-        <v>22400</v>
+        <v>21900</v>
       </c>
       <c r="H46" s="3">
-        <v>16300</v>
+        <v>15900</v>
       </c>
       <c r="I46" s="3">
-        <v>12000</v>
+        <v>11700</v>
       </c>
       <c r="J46" s="3">
-        <v>17100</v>
+        <v>16700</v>
       </c>
       <c r="K46" s="3">
         <v>22000</v>
@@ -1743,25 +1743,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>12200</v>
+        <v>11900</v>
       </c>
       <c r="E48" s="3">
-        <v>11700</v>
+        <v>11400</v>
       </c>
       <c r="F48" s="3">
-        <v>11500</v>
+        <v>11200</v>
       </c>
       <c r="G48" s="3">
-        <v>8200</v>
+        <v>8100</v>
       </c>
       <c r="H48" s="3">
-        <v>7100</v>
+        <v>6900</v>
       </c>
       <c r="I48" s="3">
-        <v>5500</v>
+        <v>5400</v>
       </c>
       <c r="J48" s="3">
-        <v>3700</v>
+        <v>3600</v>
       </c>
       <c r="K48" s="3">
         <v>1600</v>
@@ -1917,25 +1917,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>34800</v>
+        <v>34000</v>
       </c>
       <c r="E54" s="3">
-        <v>22100</v>
+        <v>21600</v>
       </c>
       <c r="F54" s="3">
-        <v>29000</v>
+        <v>28300</v>
       </c>
       <c r="G54" s="3">
-        <v>30900</v>
+        <v>30200</v>
       </c>
       <c r="H54" s="3">
-        <v>23600</v>
+        <v>23000</v>
       </c>
       <c r="I54" s="3">
-        <v>17800</v>
+        <v>17300</v>
       </c>
       <c r="J54" s="3">
-        <v>21000</v>
+        <v>20500</v>
       </c>
       <c r="K54" s="3">
         <v>23800</v>
@@ -1978,10 +1978,10 @@
         <v>2700</v>
       </c>
       <c r="F57" s="3">
-        <v>4800</v>
+        <v>4700</v>
       </c>
       <c r="G57" s="3">
-        <v>6400</v>
+        <v>6200</v>
       </c>
       <c r="H57" s="3">
         <v>800</v>
@@ -1990,7 +1990,7 @@
         <v>600</v>
       </c>
       <c r="J57" s="3">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="K57" s="3">
         <v>2000</v>
@@ -2065,10 +2065,10 @@
         <v>2900</v>
       </c>
       <c r="F60" s="3">
-        <v>5000</v>
+        <v>4900</v>
       </c>
       <c r="G60" s="3">
-        <v>6400</v>
+        <v>6200</v>
       </c>
       <c r="H60" s="3">
         <v>800</v>
@@ -2077,7 +2077,7 @@
         <v>600</v>
       </c>
       <c r="J60" s="3">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="K60" s="3">
         <v>2000</v>
@@ -2088,22 +2088,22 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>33600</v>
+        <v>32800</v>
       </c>
       <c r="E61" s="3">
-        <v>32400</v>
+        <v>31600</v>
       </c>
       <c r="F61" s="3">
-        <v>25900</v>
+        <v>25300</v>
       </c>
       <c r="G61" s="3">
-        <v>27500</v>
+        <v>26900</v>
       </c>
       <c r="H61" s="3">
-        <v>12500</v>
+        <v>12200</v>
       </c>
       <c r="I61" s="3">
-        <v>6000</v>
+        <v>5900</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -2117,25 +2117,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>6300</v>
+        <v>6100</v>
       </c>
       <c r="E62" s="3">
-        <v>8000</v>
+        <v>7800</v>
       </c>
       <c r="F62" s="3">
-        <v>7000</v>
+        <v>6800</v>
       </c>
       <c r="G62" s="3">
+        <v>6000</v>
+      </c>
+      <c r="H62" s="3">
+        <v>5900</v>
+      </c>
+      <c r="I62" s="3">
         <v>6100</v>
       </c>
-      <c r="H62" s="3">
-        <v>6100</v>
-      </c>
-      <c r="I62" s="3">
-        <v>6200</v>
-      </c>
       <c r="J62" s="3">
-        <v>6000</v>
+        <v>5900</v>
       </c>
       <c r="K62" s="3">
         <v>5400</v>
@@ -2233,25 +2233,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>40800</v>
+        <v>39800</v>
       </c>
       <c r="E66" s="3">
-        <v>43300</v>
+        <v>42300</v>
       </c>
       <c r="F66" s="3">
-        <v>37900</v>
+        <v>37000</v>
       </c>
       <c r="G66" s="3">
-        <v>40000</v>
+        <v>39100</v>
       </c>
       <c r="H66" s="3">
-        <v>19300</v>
+        <v>18900</v>
       </c>
       <c r="I66" s="3">
-        <v>12900</v>
+        <v>12600</v>
       </c>
       <c r="J66" s="3">
-        <v>8700</v>
+        <v>8500</v>
       </c>
       <c r="K66" s="3">
         <v>7400</v>
@@ -2391,25 +2391,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-80900</v>
+        <v>-79000</v>
       </c>
       <c r="E72" s="3">
-        <v>-75300</v>
+        <v>-73500</v>
       </c>
       <c r="F72" s="3">
-        <v>-61500</v>
+        <v>-60000</v>
       </c>
       <c r="G72" s="3">
-        <v>-61600</v>
+        <v>-60200</v>
       </c>
       <c r="H72" s="3">
-        <v>-48300</v>
+        <v>-47100</v>
       </c>
       <c r="I72" s="3">
-        <v>-47600</v>
+        <v>-46500</v>
       </c>
       <c r="J72" s="3">
-        <v>-40200</v>
+        <v>-39200</v>
       </c>
       <c r="K72" s="3">
         <v>-36000</v>
@@ -2507,25 +2507,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-6000</v>
+        <v>-5800</v>
       </c>
       <c r="E76" s="3">
-        <v>-21200</v>
+        <v>-20700</v>
       </c>
       <c r="F76" s="3">
+        <v>-8700</v>
+      </c>
+      <c r="G76" s="3">
         <v>-8900</v>
       </c>
-      <c r="G76" s="3">
-        <v>-9100</v>
-      </c>
       <c r="H76" s="3">
-        <v>4200</v>
+        <v>4100</v>
       </c>
       <c r="I76" s="3">
-        <v>4900</v>
+        <v>4800</v>
       </c>
       <c r="J76" s="3">
-        <v>12300</v>
+        <v>12000</v>
       </c>
       <c r="K76" s="3">
         <v>16400</v>
@@ -2599,25 +2599,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-5600</v>
+        <v>-5500</v>
       </c>
       <c r="E81" s="3">
-        <v>-13800</v>
+        <v>-13500</v>
       </c>
       <c r="F81" s="3">
         <v>200</v>
       </c>
       <c r="G81" s="3">
-        <v>-13400</v>
+        <v>-13000</v>
       </c>
       <c r="H81" s="3">
-        <v>-700</v>
+        <v>-600</v>
       </c>
       <c r="I81" s="3">
-        <v>-7400</v>
+        <v>-7300</v>
       </c>
       <c r="J81" s="3">
-        <v>-4100</v>
+        <v>-4000</v>
       </c>
       <c r="K81" s="3">
         <v>-3600</v>
@@ -2830,7 +2830,7 @@
         <v>-900</v>
       </c>
       <c r="I89" s="3">
-        <v>-11300</v>
+        <v>-11000</v>
       </c>
       <c r="J89" s="3">
         <v>-2600</v>
@@ -2875,7 +2875,7 @@
         <v>-1900</v>
       </c>
       <c r="J91" s="3">
-        <v>-2100</v>
+        <v>-2000</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>4</v>
@@ -2962,7 +2962,7 @@
         <v>-1900</v>
       </c>
       <c r="J94" s="3">
-        <v>-2100</v>
+        <v>-2000</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>4</v>
@@ -3111,13 +3111,13 @@
         <v>4</v>
       </c>
       <c r="G100" s="3">
-        <v>9800</v>
+        <v>9600</v>
       </c>
       <c r="H100" s="3">
-        <v>7400</v>
+        <v>7200</v>
       </c>
       <c r="I100" s="3">
-        <v>7400</v>
+        <v>7200</v>
       </c>
       <c r="J100" s="3">
         <v>0</v>
@@ -3149,7 +3149,7 @@
         <v>400</v>
       </c>
       <c r="J101" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>4</v>
@@ -3169,16 +3169,16 @@
         <v>4</v>
       </c>
       <c r="G102" s="3">
-        <v>6700</v>
+        <v>6500</v>
       </c>
       <c r="H102" s="3">
-        <v>4600</v>
+        <v>4500</v>
       </c>
       <c r="I102" s="3">
-        <v>-5400</v>
+        <v>-5300</v>
       </c>
       <c r="J102" s="3">
-        <v>-4600</v>
+        <v>-4500</v>
       </c>
       <c r="K102" s="3" t="s">
         <v>4</v>

--- a/AAII_Financials/Quarterly/BVXV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BVXV_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="92">
   <si>
     <t>BVXV</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,56 +665,67 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -742,8 +753,17 @@
       <c r="K8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -771,8 +791,17 @@
       <c r="K9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -800,8 +829,17 @@
       <c r="K10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -813,37 +851,49 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>4600</v>
+        <v>3500</v>
       </c>
       <c r="E12" s="3">
-        <v>4300</v>
+        <v>5600</v>
       </c>
       <c r="F12" s="3">
-        <v>1600</v>
+        <v>9300</v>
       </c>
       <c r="G12" s="3">
-        <v>7600</v>
+        <v>4700</v>
       </c>
       <c r="H12" s="3">
+        <v>4500</v>
+      </c>
+      <c r="I12" s="3">
+        <v>1700</v>
+      </c>
+      <c r="J12" s="3">
+        <v>7800</v>
+      </c>
+      <c r="K12" s="3">
         <v>1200</v>
       </c>
-      <c r="I12" s="3">
+      <c r="L12" s="3">
         <v>8300</v>
       </c>
-      <c r="J12" s="3">
+      <c r="M12" s="3">
         <v>3300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="N12" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -871,8 +921,17 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -900,8 +959,17 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -929,8 +997,17 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -939,37 +1016,49 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>5400</v>
+        <v>4700</v>
       </c>
       <c r="E17" s="3">
+        <v>5900</v>
+      </c>
+      <c r="F17" s="3">
+        <v>9600</v>
+      </c>
+      <c r="G17" s="3">
         <v>5600</v>
       </c>
-      <c r="F17" s="3">
-        <v>2000</v>
-      </c>
-      <c r="G17" s="3">
-        <v>8000</v>
-      </c>
       <c r="H17" s="3">
+        <v>5800</v>
+      </c>
+      <c r="I17" s="3">
+        <v>2100</v>
+      </c>
+      <c r="J17" s="3">
+        <v>8200</v>
+      </c>
+      <c r="K17" s="3">
         <v>1700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="L17" s="3">
         <v>8700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="M17" s="3">
         <v>3600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="N17" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -977,28 +1066,37 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-9600</v>
+      </c>
+      <c r="G18" s="3">
         <v>-5600</v>
       </c>
-      <c r="F18" s="3">
-        <v>-2000</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-8000</v>
-      </c>
       <c r="H18" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-8200</v>
+      </c>
+      <c r="K18" s="3">
         <v>-1700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="L18" s="3">
         <v>-8700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="M18" s="3">
         <v>-3600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="N18" s="3">
         <v>-4300</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1010,8 +1108,11 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1019,28 +1120,37 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
-        <v>-7900</v>
+        <v>4800</v>
       </c>
       <c r="F20" s="3">
-        <v>2200</v>
+        <v>-3100</v>
       </c>
       <c r="G20" s="3">
-        <v>-5100</v>
+        <v>-100</v>
       </c>
       <c r="H20" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="I20" s="3">
+        <v>2300</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="K20" s="3">
         <v>1000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="L20" s="3">
         <v>1500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="M20" s="3">
         <v>-400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="N20" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1050,26 +1160,35 @@
       <c r="E21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G21" s="3">
-        <v>-13000</v>
-      </c>
-      <c r="H21" s="3">
+      <c r="F21" s="3">
+        <v>-12500</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J21" s="3">
+        <v>-13500</v>
+      </c>
+      <c r="K21" s="3">
         <v>-700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="L21" s="3">
         <v>-7200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="M21" s="3">
         <v>-4000</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1097,37 +1216,55 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-5500</v>
+        <v>-12400</v>
       </c>
       <c r="E23" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F23" s="3">
+        <v>-12700</v>
+      </c>
+      <c r="G23" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="H23" s="3">
+        <v>-13900</v>
+      </c>
+      <c r="I23" s="3">
+        <v>200</v>
+      </c>
+      <c r="J23" s="3">
         <v>-13500</v>
       </c>
-      <c r="F23" s="3">
-        <v>200</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-13000</v>
-      </c>
-      <c r="H23" s="3">
+      <c r="K23" s="3">
         <v>-600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="L23" s="3">
         <v>-7300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="M23" s="3">
         <v>-4000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="N23" s="3">
         <v>-3600</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1155,8 +1292,17 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1184,66 +1330,93 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-5500</v>
+        <v>-12400</v>
       </c>
       <c r="E26" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-12700</v>
+      </c>
+      <c r="G26" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="H26" s="3">
+        <v>-13900</v>
+      </c>
+      <c r="I26" s="3">
+        <v>200</v>
+      </c>
+      <c r="J26" s="3">
         <v>-13500</v>
       </c>
-      <c r="F26" s="3">
-        <v>200</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-13000</v>
-      </c>
-      <c r="H26" s="3">
+      <c r="K26" s="3">
         <v>-600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="L26" s="3">
         <v>-7300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="M26" s="3">
         <v>-4000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="N26" s="3">
         <v>-3600</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-5500</v>
+        <v>-12400</v>
       </c>
       <c r="E27" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F27" s="3">
+        <v>-12700</v>
+      </c>
+      <c r="G27" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="H27" s="3">
+        <v>-13900</v>
+      </c>
+      <c r="I27" s="3">
+        <v>200</v>
+      </c>
+      <c r="J27" s="3">
         <v>-13500</v>
       </c>
-      <c r="F27" s="3">
-        <v>200</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-13000</v>
-      </c>
-      <c r="H27" s="3">
+      <c r="K27" s="3">
         <v>-600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="L27" s="3">
         <v>-7300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="M27" s="3">
         <v>-4000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="N27" s="3">
         <v>-3600</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1271,8 +1444,17 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1300,8 +1482,17 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1329,8 +1520,17 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1358,8 +1558,17 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1367,57 +1576,75 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
-        <v>7900</v>
+        <v>-4800</v>
       </c>
       <c r="F32" s="3">
-        <v>-2200</v>
+        <v>3100</v>
       </c>
       <c r="G32" s="3">
-        <v>5100</v>
+        <v>100</v>
       </c>
       <c r="H32" s="3">
+        <v>8100</v>
+      </c>
+      <c r="I32" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="J32" s="3">
+        <v>5200</v>
+      </c>
+      <c r="K32" s="3">
         <v>-1000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="L32" s="3">
         <v>-1500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="M32" s="3">
         <v>400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="N32" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-5500</v>
+        <v>-12400</v>
       </c>
       <c r="E33" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F33" s="3">
+        <v>-12700</v>
+      </c>
+      <c r="G33" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="H33" s="3">
+        <v>-13900</v>
+      </c>
+      <c r="I33" s="3">
+        <v>200</v>
+      </c>
+      <c r="J33" s="3">
         <v>-13500</v>
       </c>
-      <c r="F33" s="3">
-        <v>200</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-13000</v>
-      </c>
-      <c r="H33" s="3">
+      <c r="K33" s="3">
         <v>-600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="L33" s="3">
         <v>-7300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="M33" s="3">
         <v>-4000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="N33" s="3">
         <v>-3600</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1445,71 +1672,98 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-5500</v>
+        <v>-12400</v>
       </c>
       <c r="E35" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F35" s="3">
+        <v>-12700</v>
+      </c>
+      <c r="G35" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="H35" s="3">
+        <v>-13900</v>
+      </c>
+      <c r="I35" s="3">
+        <v>200</v>
+      </c>
+      <c r="J35" s="3">
         <v>-13500</v>
       </c>
-      <c r="F35" s="3">
-        <v>200</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-13000</v>
-      </c>
-      <c r="H35" s="3">
+      <c r="K35" s="3">
         <v>-600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="L35" s="3">
         <v>-7300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="M35" s="3">
         <v>-4000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="N35" s="3">
         <v>-3600</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1521,8 +1775,11 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1534,37 +1791,49 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>21400</v>
-      </c>
-      <c r="E41" s="3">
-        <v>9700</v>
+        <v>11400</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F41" s="3">
-        <v>16400</v>
+        <v>21300</v>
       </c>
       <c r="G41" s="3">
-        <v>21600</v>
+        <v>22100</v>
       </c>
       <c r="H41" s="3">
+        <v>10000</v>
+      </c>
+      <c r="I41" s="3">
+        <v>16900</v>
+      </c>
+      <c r="J41" s="3">
+        <v>22300</v>
+      </c>
+      <c r="K41" s="3">
         <v>15100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="L41" s="3">
         <v>10600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="M41" s="3">
         <v>15900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="N41" s="3">
         <v>20800</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1592,37 +1861,55 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>700</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F43" s="3">
+        <v>200</v>
+      </c>
+      <c r="G43" s="3">
+        <v>600</v>
+      </c>
+      <c r="H43" s="3">
+        <v>400</v>
+      </c>
+      <c r="I43" s="3">
         <v>500</v>
       </c>
-      <c r="E43" s="3">
-        <v>400</v>
-      </c>
-      <c r="F43" s="3">
-        <v>500</v>
-      </c>
-      <c r="G43" s="3">
+      <c r="J43" s="3">
         <v>300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="K43" s="3">
         <v>800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="L43" s="3">
         <v>1200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="M43" s="3">
         <v>800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="N43" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1650,8 +1937,17 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1679,37 +1975,55 @@
       <c r="K45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>12100</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F46" s="3">
+        <v>21500</v>
+      </c>
+      <c r="G46" s="3">
+        <v>22700</v>
+      </c>
+      <c r="H46" s="3">
+        <v>10300</v>
+      </c>
+      <c r="I46" s="3">
+        <v>17500</v>
+      </c>
+      <c r="J46" s="3">
+        <v>22600</v>
+      </c>
+      <c r="K46" s="3">
+        <v>15900</v>
+      </c>
+      <c r="L46" s="3">
+        <v>11700</v>
+      </c>
+      <c r="M46" s="3">
+        <v>16700</v>
+      </c>
+      <c r="N46" s="3">
         <v>22000</v>
       </c>
-      <c r="E46" s="3">
-        <v>10000</v>
-      </c>
-      <c r="F46" s="3">
-        <v>16900</v>
-      </c>
-      <c r="G46" s="3">
-        <v>21900</v>
-      </c>
-      <c r="H46" s="3">
-        <v>15900</v>
-      </c>
-      <c r="I46" s="3">
-        <v>11700</v>
-      </c>
-      <c r="J46" s="3">
-        <v>16700</v>
-      </c>
-      <c r="K46" s="3">
-        <v>22000</v>
-      </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1737,37 +2051,55 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>11900</v>
-      </c>
-      <c r="E48" s="3">
-        <v>11400</v>
+        <v>12800</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F48" s="3">
-        <v>11200</v>
+        <v>12400</v>
       </c>
       <c r="G48" s="3">
-        <v>8100</v>
+        <v>12300</v>
       </c>
       <c r="H48" s="3">
+        <v>11800</v>
+      </c>
+      <c r="I48" s="3">
+        <v>11600</v>
+      </c>
+      <c r="J48" s="3">
+        <v>8300</v>
+      </c>
+      <c r="K48" s="3">
         <v>6900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="L48" s="3">
         <v>5400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="M48" s="3">
         <v>3600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="N48" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1795,8 +2127,17 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1824,8 +2165,17 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1853,37 +2203,55 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>100</v>
-      </c>
-      <c r="E52" s="3">
-        <v>100</v>
+        <v>300</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F52" s="3">
         <v>200</v>
       </c>
       <c r="G52" s="3">
+        <v>100</v>
+      </c>
+      <c r="H52" s="3">
         <v>200</v>
       </c>
-      <c r="H52" s="3">
-        <v>300</v>
-      </c>
       <c r="I52" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="J52" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K52" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3">
+        <v>300</v>
+      </c>
+      <c r="M52" s="3">
+        <v>300</v>
+      </c>
+      <c r="N52" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1911,37 +2279,55 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>34000</v>
-      </c>
-      <c r="E54" s="3">
-        <v>21600</v>
+        <v>25200</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F54" s="3">
-        <v>28300</v>
+        <v>34100</v>
       </c>
       <c r="G54" s="3">
-        <v>30200</v>
+        <v>35100</v>
       </c>
       <c r="H54" s="3">
+        <v>22300</v>
+      </c>
+      <c r="I54" s="3">
+        <v>29200</v>
+      </c>
+      <c r="J54" s="3">
+        <v>31100</v>
+      </c>
+      <c r="K54" s="3">
         <v>23000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="L54" s="3">
         <v>17300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="M54" s="3">
         <v>20500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="N54" s="3">
         <v>23800</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1953,8 +2339,11 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1966,37 +2355,49 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E57" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F57" s="3">
+        <v>5400</v>
+      </c>
+      <c r="G57" s="3">
         <v>700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="H57" s="3">
         <v>2700</v>
       </c>
-      <c r="F57" s="3">
-        <v>4700</v>
-      </c>
-      <c r="G57" s="3">
-        <v>6200</v>
-      </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
+        <v>4900</v>
+      </c>
+      <c r="J57" s="3">
+        <v>6400</v>
+      </c>
+      <c r="K57" s="3">
         <v>800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="L57" s="3">
         <v>600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="M57" s="3">
         <v>2600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="N57" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2009,14 +2410,14 @@
       <c r="F58" s="3">
         <v>200</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>4</v>
+      <c r="G58" s="3">
+        <v>200</v>
+      </c>
+      <c r="H58" s="3">
+        <v>200</v>
+      </c>
+      <c r="I58" s="3">
+        <v>200</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>4</v>
@@ -2024,8 +2425,17 @@
       <c r="K58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2053,95 +2463,131 @@
       <c r="K59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3">
+        <v>0</v>
+      </c>
+      <c r="M59" s="3">
+        <v>0</v>
+      </c>
+      <c r="N59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F60" s="3">
+        <v>5600</v>
+      </c>
+      <c r="G60" s="3">
         <v>900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="H60" s="3">
         <v>2900</v>
       </c>
-      <c r="F60" s="3">
-        <v>4900</v>
-      </c>
-      <c r="G60" s="3">
-        <v>6200</v>
-      </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
+        <v>5100</v>
+      </c>
+      <c r="J60" s="3">
+        <v>6400</v>
+      </c>
+      <c r="K60" s="3">
         <v>800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="L60" s="3">
         <v>600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="M60" s="3">
         <v>2600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="N60" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>32800</v>
+        <v>37800</v>
       </c>
       <c r="E61" s="3">
-        <v>31600</v>
+        <v>36600</v>
       </c>
       <c r="F61" s="3">
-        <v>25300</v>
+        <v>38400</v>
       </c>
       <c r="G61" s="3">
-        <v>26900</v>
+        <v>33900</v>
       </c>
       <c r="H61" s="3">
+        <v>34700</v>
+      </c>
+      <c r="I61" s="3">
+        <v>28300</v>
+      </c>
+      <c r="J61" s="3">
+        <v>27800</v>
+      </c>
+      <c r="K61" s="3">
         <v>12200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="L61" s="3">
         <v>5900</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E62" s="3">
+        <v>5900</v>
+      </c>
+      <c r="F62" s="3">
+        <v>9200</v>
+      </c>
+      <c r="G62" s="3">
+        <v>6300</v>
+      </c>
+      <c r="H62" s="3">
+        <v>6000</v>
+      </c>
+      <c r="I62" s="3">
+        <v>4900</v>
+      </c>
+      <c r="J62" s="3">
         <v>6100</v>
       </c>
-      <c r="E62" s="3">
-        <v>7800</v>
-      </c>
-      <c r="F62" s="3">
-        <v>6800</v>
-      </c>
-      <c r="G62" s="3">
-        <v>6000</v>
-      </c>
-      <c r="H62" s="3">
+      <c r="K62" s="3">
         <v>5900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="L62" s="3">
         <v>6100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="M62" s="3">
         <v>5900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="N62" s="3">
         <v>5400</v>
       </c>
     </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2169,8 +2615,17 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2198,8 +2653,17 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2227,37 +2691,55 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>39800</v>
+        <v>43400</v>
       </c>
       <c r="E66" s="3">
-        <v>42300</v>
+        <v>43900</v>
       </c>
       <c r="F66" s="3">
-        <v>37000</v>
+        <v>53200</v>
       </c>
       <c r="G66" s="3">
-        <v>39100</v>
+        <v>41100</v>
       </c>
       <c r="H66" s="3">
+        <v>43600</v>
+      </c>
+      <c r="I66" s="3">
+        <v>38200</v>
+      </c>
+      <c r="J66" s="3">
+        <v>40300</v>
+      </c>
+      <c r="K66" s="3">
         <v>18900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="L66" s="3">
         <v>12600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="M66" s="3">
         <v>8500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="N66" s="3">
         <v>7400</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2269,8 +2751,11 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2298,8 +2783,17 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2327,8 +2821,17 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2356,8 +2859,17 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2385,37 +2897,55 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-79000</v>
+        <v>-107700</v>
       </c>
       <c r="E72" s="3">
-        <v>-73500</v>
+        <v>-95300</v>
       </c>
       <c r="F72" s="3">
-        <v>-60000</v>
+        <v>-94200</v>
       </c>
       <c r="G72" s="3">
-        <v>-60200</v>
+        <v>-81600</v>
       </c>
       <c r="H72" s="3">
+        <v>-75900</v>
+      </c>
+      <c r="I72" s="3">
+        <v>-62000</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-62100</v>
+      </c>
+      <c r="K72" s="3">
         <v>-47100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="L72" s="3">
         <v>-46500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="M72" s="3">
         <v>-39200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="N72" s="3">
         <v>-36000</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2443,8 +2973,17 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2472,8 +3011,17 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2501,37 +3049,55 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-5800</v>
+        <v>-18200</v>
       </c>
       <c r="E76" s="3">
-        <v>-20700</v>
+        <v>-18000</v>
       </c>
       <c r="F76" s="3">
-        <v>-8700</v>
+        <v>-19100</v>
       </c>
       <c r="G76" s="3">
-        <v>-8900</v>
+        <v>-6000</v>
       </c>
       <c r="H76" s="3">
+        <v>-21300</v>
+      </c>
+      <c r="I76" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="J76" s="3">
+        <v>-9200</v>
+      </c>
+      <c r="K76" s="3">
         <v>4100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="L76" s="3">
         <v>4800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="M76" s="3">
         <v>12000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="N76" s="3">
         <v>16400</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2559,71 +3125,98 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-5500</v>
+        <v>-12400</v>
       </c>
       <c r="E81" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F81" s="3">
+        <v>-12700</v>
+      </c>
+      <c r="G81" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="H81" s="3">
+        <v>-13900</v>
+      </c>
+      <c r="I81" s="3">
+        <v>200</v>
+      </c>
+      <c r="J81" s="3">
         <v>-13500</v>
       </c>
-      <c r="F81" s="3">
-        <v>200</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-13000</v>
-      </c>
-      <c r="H81" s="3">
+      <c r="K81" s="3">
         <v>-600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="L81" s="3">
         <v>-7300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="M81" s="3">
         <v>-4000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="N81" s="3">
         <v>-3600</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2635,8 +3228,11 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2646,26 +3242,35 @@
       <c r="E83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G83" s="3">
-        <v>0</v>
-      </c>
-      <c r="H83" s="3">
+      <c r="F83" s="3">
+        <v>200</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J83" s="3">
+        <v>0</v>
+      </c>
+      <c r="K83" s="3">
         <v>-100</v>
       </c>
-      <c r="I83" s="3">
+      <c r="L83" s="3">
         <v>100</v>
       </c>
-      <c r="J83" s="3">
-        <v>0</v>
-      </c>
-      <c r="K83" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2693,8 +3298,17 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2722,8 +3336,17 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2751,8 +3374,17 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2780,8 +3412,17 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2809,8 +3450,17 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -2820,26 +3470,35 @@
       <c r="E89" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G89" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="H89" s="3">
+      <c r="F89" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J89" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="K89" s="3">
         <v>-900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="L89" s="3">
         <v>-11000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="M89" s="3">
         <v>-2600</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="N89" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2851,8 +3510,11 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -2862,26 +3524,35 @@
       <c r="E91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G91" s="3">
+      <c r="F91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J91" s="3">
         <v>-1200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="K91" s="3">
         <v>-1700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="L91" s="3">
         <v>-1900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="M91" s="3">
         <v>-2000</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="N91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2909,8 +3580,17 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2938,8 +3618,17 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -2949,26 +3638,35 @@
       <c r="E94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G94" s="3">
+      <c r="F94" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J94" s="3">
         <v>-1100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="K94" s="3">
         <v>-1700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="L94" s="3">
         <v>-1900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="M94" s="3">
         <v>-2000</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="N94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2980,8 +3678,11 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3009,8 +3710,17 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3038,8 +3748,17 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3067,8 +3786,17 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3096,8 +3824,17 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3107,26 +3844,35 @@
       <c r="E100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G100" s="3">
-        <v>9600</v>
-      </c>
-      <c r="H100" s="3">
+      <c r="F100" s="3">
+        <v>4600</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J100" s="3">
+        <v>9900</v>
+      </c>
+      <c r="K100" s="3">
         <v>7200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="L100" s="3">
         <v>7200</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
-      <c r="K100" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3136,26 +3882,35 @@
       <c r="E101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G101" s="3">
+      <c r="F101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J101" s="3">
         <v>-200</v>
       </c>
-      <c r="H101" s="3">
+      <c r="K101" s="3">
         <v>-100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="L101" s="3">
         <v>400</v>
       </c>
-      <c r="J101" s="3">
+      <c r="M101" s="3">
         <v>100</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="N101" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3165,22 +3920,31 @@
       <c r="E102" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G102" s="3">
-        <v>6500</v>
-      </c>
-      <c r="H102" s="3">
+      <c r="F102" s="3">
+        <v>-800</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J102" s="3">
+        <v>6700</v>
+      </c>
+      <c r="K102" s="3">
         <v>4500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="L102" s="3">
         <v>-5300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="M102" s="3">
         <v>-4500</v>
       </c>
-      <c r="K102" s="3" t="s">
+      <c r="N102" s="3" t="s">
         <v>4</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BVXV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BVXV_QTR_FIN.xlsx
@@ -860,25 +860,25 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="E12" s="3">
-        <v>5600</v>
+        <v>5700</v>
       </c>
       <c r="F12" s="3">
-        <v>9300</v>
+        <v>9500</v>
       </c>
       <c r="G12" s="3">
-        <v>4700</v>
+        <v>4900</v>
       </c>
       <c r="H12" s="3">
-        <v>4500</v>
+        <v>4600</v>
       </c>
       <c r="I12" s="3">
         <v>1700</v>
       </c>
       <c r="J12" s="3">
-        <v>7800</v>
+        <v>8000</v>
       </c>
       <c r="K12" s="3">
         <v>1200</v>
@@ -1025,25 +1025,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>4700</v>
+        <v>4900</v>
       </c>
       <c r="E17" s="3">
+        <v>6000</v>
+      </c>
+      <c r="F17" s="3">
+        <v>9800</v>
+      </c>
+      <c r="G17" s="3">
+        <v>5700</v>
+      </c>
+      <c r="H17" s="3">
         <v>5900</v>
       </c>
-      <c r="F17" s="3">
-        <v>9600</v>
-      </c>
-      <c r="G17" s="3">
-        <v>5600</v>
-      </c>
-      <c r="H17" s="3">
-        <v>5800</v>
-      </c>
       <c r="I17" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="J17" s="3">
-        <v>8200</v>
+        <v>8400</v>
       </c>
       <c r="K17" s="3">
         <v>1700</v>
@@ -1066,22 +1066,22 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="G18" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="H18" s="3">
         <v>-5900</v>
       </c>
-      <c r="F18" s="3">
-        <v>-9600</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-5600</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-5800</v>
-      </c>
       <c r="I18" s="3">
-        <v>-2100</v>
+        <v>-2200</v>
       </c>
       <c r="J18" s="3">
-        <v>-8200</v>
+        <v>-8400</v>
       </c>
       <c r="K18" s="3">
         <v>-1700</v>
@@ -1120,7 +1120,7 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
-        <v>4800</v>
+        <v>4900</v>
       </c>
       <c r="F20" s="3">
         <v>-3100</v>
@@ -1129,13 +1129,13 @@
         <v>-100</v>
       </c>
       <c r="H20" s="3">
-        <v>-8100</v>
+        <v>-8400</v>
       </c>
       <c r="I20" s="3">
         <v>2300</v>
       </c>
       <c r="J20" s="3">
-        <v>-5200</v>
+        <v>-5400</v>
       </c>
       <c r="K20" s="3">
         <v>1000</v>
@@ -1161,7 +1161,7 @@
         <v>4</v>
       </c>
       <c r="F21" s="3">
-        <v>-12500</v>
+        <v>-12800</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>4</v>
@@ -1173,7 +1173,7 @@
         <v>4</v>
       </c>
       <c r="J21" s="3">
-        <v>-13500</v>
+        <v>-13800</v>
       </c>
       <c r="K21" s="3">
         <v>-700</v>
@@ -1231,25 +1231,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-12400</v>
+        <v>-12700</v>
       </c>
       <c r="E23" s="3">
         <v>-1100</v>
       </c>
       <c r="F23" s="3">
-        <v>-12700</v>
+        <v>-13000</v>
       </c>
       <c r="G23" s="3">
-        <v>-5700</v>
+        <v>-5800</v>
       </c>
       <c r="H23" s="3">
-        <v>-13900</v>
+        <v>-14300</v>
       </c>
       <c r="I23" s="3">
         <v>200</v>
       </c>
       <c r="J23" s="3">
-        <v>-13500</v>
+        <v>-13800</v>
       </c>
       <c r="K23" s="3">
         <v>-600</v>
@@ -1345,25 +1345,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-12400</v>
+        <v>-12700</v>
       </c>
       <c r="E26" s="3">
         <v>-1100</v>
       </c>
       <c r="F26" s="3">
-        <v>-12700</v>
+        <v>-13000</v>
       </c>
       <c r="G26" s="3">
-        <v>-5700</v>
+        <v>-5800</v>
       </c>
       <c r="H26" s="3">
-        <v>-13900</v>
+        <v>-14300</v>
       </c>
       <c r="I26" s="3">
         <v>200</v>
       </c>
       <c r="J26" s="3">
-        <v>-13500</v>
+        <v>-13800</v>
       </c>
       <c r="K26" s="3">
         <v>-600</v>
@@ -1383,25 +1383,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-12400</v>
+        <v>-12700</v>
       </c>
       <c r="E27" s="3">
-        <v>-1100</v>
+        <v>-1400</v>
       </c>
       <c r="F27" s="3">
-        <v>-12700</v>
+        <v>-13000</v>
       </c>
       <c r="G27" s="3">
-        <v>-5700</v>
+        <v>-5800</v>
       </c>
       <c r="H27" s="3">
-        <v>-13900</v>
+        <v>-14300</v>
       </c>
       <c r="I27" s="3">
         <v>200</v>
       </c>
       <c r="J27" s="3">
-        <v>-13500</v>
+        <v>-13800</v>
       </c>
       <c r="K27" s="3">
         <v>-600</v>
@@ -1576,7 +1576,7 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
-        <v>-4800</v>
+        <v>-4900</v>
       </c>
       <c r="F32" s="3">
         <v>3100</v>
@@ -1585,13 +1585,13 @@
         <v>100</v>
       </c>
       <c r="H32" s="3">
-        <v>8100</v>
+        <v>8400</v>
       </c>
       <c r="I32" s="3">
         <v>-2300</v>
       </c>
       <c r="J32" s="3">
-        <v>5200</v>
+        <v>5400</v>
       </c>
       <c r="K32" s="3">
         <v>-1000</v>
@@ -1611,25 +1611,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-12400</v>
+        <v>-12700</v>
       </c>
       <c r="E33" s="3">
-        <v>-1100</v>
+        <v>-1400</v>
       </c>
       <c r="F33" s="3">
-        <v>-12700</v>
+        <v>-13000</v>
       </c>
       <c r="G33" s="3">
-        <v>-5700</v>
+        <v>-5800</v>
       </c>
       <c r="H33" s="3">
-        <v>-13900</v>
+        <v>-14300</v>
       </c>
       <c r="I33" s="3">
         <v>200</v>
       </c>
       <c r="J33" s="3">
-        <v>-13500</v>
+        <v>-13800</v>
       </c>
       <c r="K33" s="3">
         <v>-600</v>
@@ -1687,25 +1687,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-12400</v>
+        <v>-12700</v>
       </c>
       <c r="E35" s="3">
-        <v>-1100</v>
+        <v>-1400</v>
       </c>
       <c r="F35" s="3">
-        <v>-12700</v>
+        <v>-13000</v>
       </c>
       <c r="G35" s="3">
-        <v>-5700</v>
+        <v>-5800</v>
       </c>
       <c r="H35" s="3">
-        <v>-13900</v>
+        <v>-14300</v>
       </c>
       <c r="I35" s="3">
         <v>200</v>
       </c>
       <c r="J35" s="3">
-        <v>-13500</v>
+        <v>-13800</v>
       </c>
       <c r="K35" s="3">
         <v>-600</v>
@@ -1800,25 +1800,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>11400</v>
+        <v>11700</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F41" s="3">
-        <v>21300</v>
+        <v>21900</v>
       </c>
       <c r="G41" s="3">
-        <v>22100</v>
+        <v>22700</v>
       </c>
       <c r="H41" s="3">
-        <v>10000</v>
+        <v>10200</v>
       </c>
       <c r="I41" s="3">
-        <v>16900</v>
+        <v>17300</v>
       </c>
       <c r="J41" s="3">
-        <v>22300</v>
+        <v>22900</v>
       </c>
       <c r="K41" s="3">
         <v>15100</v>
@@ -1891,7 +1891,7 @@
         <v>400</v>
       </c>
       <c r="I43" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="J43" s="3">
         <v>300</v>
@@ -1990,25 +1990,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>12100</v>
+        <v>12400</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F46" s="3">
-        <v>21500</v>
+        <v>22000</v>
       </c>
       <c r="G46" s="3">
-        <v>22700</v>
+        <v>23300</v>
       </c>
       <c r="H46" s="3">
-        <v>10300</v>
+        <v>10600</v>
       </c>
       <c r="I46" s="3">
-        <v>17500</v>
+        <v>17900</v>
       </c>
       <c r="J46" s="3">
-        <v>22600</v>
+        <v>23200</v>
       </c>
       <c r="K46" s="3">
         <v>15900</v>
@@ -2066,25 +2066,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>12800</v>
+        <v>13100</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F48" s="3">
-        <v>12400</v>
+        <v>12700</v>
       </c>
       <c r="G48" s="3">
-        <v>12300</v>
+        <v>12600</v>
       </c>
       <c r="H48" s="3">
+        <v>12100</v>
+      </c>
+      <c r="I48" s="3">
         <v>11800</v>
       </c>
-      <c r="I48" s="3">
-        <v>11600</v>
-      </c>
       <c r="J48" s="3">
-        <v>8300</v>
+        <v>8500</v>
       </c>
       <c r="K48" s="3">
         <v>6900</v>
@@ -2227,7 +2227,7 @@
         <v>200</v>
       </c>
       <c r="G52" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H52" s="3">
         <v>200</v>
@@ -2294,25 +2294,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>25200</v>
+        <v>25800</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F54" s="3">
-        <v>34100</v>
+        <v>34900</v>
       </c>
       <c r="G54" s="3">
-        <v>35100</v>
+        <v>36000</v>
       </c>
       <c r="H54" s="3">
-        <v>22300</v>
+        <v>22800</v>
       </c>
       <c r="I54" s="3">
-        <v>29200</v>
+        <v>30000</v>
       </c>
       <c r="J54" s="3">
-        <v>31100</v>
+        <v>31900</v>
       </c>
       <c r="K54" s="3">
         <v>23000</v>
@@ -2370,19 +2370,19 @@
         <v>1200</v>
       </c>
       <c r="F57" s="3">
-        <v>5400</v>
+        <v>5500</v>
       </c>
       <c r="G57" s="3">
         <v>700</v>
       </c>
       <c r="H57" s="3">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="I57" s="3">
-        <v>4900</v>
+        <v>5000</v>
       </c>
       <c r="J57" s="3">
-        <v>6400</v>
+        <v>6600</v>
       </c>
       <c r="K57" s="3">
         <v>800</v>
@@ -2484,19 +2484,19 @@
         <v>1400</v>
       </c>
       <c r="F60" s="3">
-        <v>5600</v>
+        <v>5700</v>
       </c>
       <c r="G60" s="3">
         <v>900</v>
       </c>
       <c r="H60" s="3">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="I60" s="3">
-        <v>5100</v>
+        <v>5200</v>
       </c>
       <c r="J60" s="3">
-        <v>6400</v>
+        <v>6600</v>
       </c>
       <c r="K60" s="3">
         <v>800</v>
@@ -2516,25 +2516,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>37800</v>
+        <v>38700</v>
       </c>
       <c r="E61" s="3">
-        <v>36600</v>
+        <v>37500</v>
       </c>
       <c r="F61" s="3">
-        <v>38400</v>
+        <v>39400</v>
       </c>
       <c r="G61" s="3">
-        <v>33900</v>
+        <v>34800</v>
       </c>
       <c r="H61" s="3">
-        <v>34700</v>
+        <v>35600</v>
       </c>
       <c r="I61" s="3">
-        <v>28300</v>
+        <v>29000</v>
       </c>
       <c r="J61" s="3">
-        <v>27800</v>
+        <v>28500</v>
       </c>
       <c r="K61" s="3">
         <v>12200</v>
@@ -2554,25 +2554,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="E62" s="3">
-        <v>5900</v>
+        <v>6000</v>
       </c>
       <c r="F62" s="3">
-        <v>9200</v>
+        <v>9400</v>
       </c>
       <c r="G62" s="3">
+        <v>6500</v>
+      </c>
+      <c r="H62" s="3">
+        <v>6100</v>
+      </c>
+      <c r="I62" s="3">
+        <v>5000</v>
+      </c>
+      <c r="J62" s="3">
         <v>6300</v>
-      </c>
-      <c r="H62" s="3">
-        <v>6000</v>
-      </c>
-      <c r="I62" s="3">
-        <v>4900</v>
-      </c>
-      <c r="J62" s="3">
-        <v>6100</v>
       </c>
       <c r="K62" s="3">
         <v>5900</v>
@@ -2706,25 +2706,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>43400</v>
+        <v>44500</v>
       </c>
       <c r="E66" s="3">
-        <v>43900</v>
+        <v>45000</v>
       </c>
       <c r="F66" s="3">
-        <v>53200</v>
+        <v>54500</v>
       </c>
       <c r="G66" s="3">
-        <v>41100</v>
+        <v>42100</v>
       </c>
       <c r="H66" s="3">
-        <v>43600</v>
+        <v>44700</v>
       </c>
       <c r="I66" s="3">
-        <v>38200</v>
+        <v>39200</v>
       </c>
       <c r="J66" s="3">
-        <v>40300</v>
+        <v>41300</v>
       </c>
       <c r="K66" s="3">
         <v>18900</v>
@@ -2912,25 +2912,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-107700</v>
+        <v>-110400</v>
       </c>
       <c r="E72" s="3">
-        <v>-95300</v>
+        <v>-97700</v>
       </c>
       <c r="F72" s="3">
-        <v>-94200</v>
+        <v>-96600</v>
       </c>
       <c r="G72" s="3">
-        <v>-81600</v>
+        <v>-83600</v>
       </c>
       <c r="H72" s="3">
-        <v>-75900</v>
+        <v>-77800</v>
       </c>
       <c r="I72" s="3">
-        <v>-62000</v>
+        <v>-63500</v>
       </c>
       <c r="J72" s="3">
-        <v>-62100</v>
+        <v>-63700</v>
       </c>
       <c r="K72" s="3">
         <v>-47100</v>
@@ -3064,25 +3064,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-18200</v>
+        <v>-18700</v>
       </c>
       <c r="E76" s="3">
-        <v>-18000</v>
+        <v>-18500</v>
       </c>
       <c r="F76" s="3">
-        <v>-19100</v>
+        <v>-19600</v>
       </c>
       <c r="G76" s="3">
-        <v>-6000</v>
+        <v>-6200</v>
       </c>
       <c r="H76" s="3">
-        <v>-21300</v>
+        <v>-21900</v>
       </c>
       <c r="I76" s="3">
-        <v>-9000</v>
+        <v>-9200</v>
       </c>
       <c r="J76" s="3">
-        <v>-9200</v>
+        <v>-9400</v>
       </c>
       <c r="K76" s="3">
         <v>4100</v>
@@ -3183,25 +3183,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-12400</v>
+        <v>-12700</v>
       </c>
       <c r="E81" s="3">
-        <v>-1100</v>
+        <v>-1400</v>
       </c>
       <c r="F81" s="3">
-        <v>-12700</v>
+        <v>-13000</v>
       </c>
       <c r="G81" s="3">
-        <v>-5700</v>
+        <v>-5800</v>
       </c>
       <c r="H81" s="3">
-        <v>-13900</v>
+        <v>-14300</v>
       </c>
       <c r="I81" s="3">
         <v>200</v>
       </c>
       <c r="J81" s="3">
-        <v>-13500</v>
+        <v>-13800</v>
       </c>
       <c r="K81" s="3">
         <v>-600</v>
@@ -3471,7 +3471,7 @@
         <v>4</v>
       </c>
       <c r="F89" s="3">
-        <v>-5000</v>
+        <v>-5100</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>4</v>
@@ -3651,7 +3651,7 @@
         <v>4</v>
       </c>
       <c r="J94" s="3">
-        <v>-1100</v>
+        <v>-1200</v>
       </c>
       <c r="K94" s="3">
         <v>-1700</v>
@@ -3845,7 +3845,7 @@
         <v>4</v>
       </c>
       <c r="F100" s="3">
-        <v>4600</v>
+        <v>4700</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>4</v>
@@ -3857,7 +3857,7 @@
         <v>4</v>
       </c>
       <c r="J100" s="3">
-        <v>9900</v>
+        <v>10100</v>
       </c>
       <c r="K100" s="3">
         <v>7200</v>
@@ -3933,7 +3933,7 @@
         <v>4</v>
       </c>
       <c r="J102" s="3">
-        <v>6700</v>
+        <v>6900</v>
       </c>
       <c r="K102" s="3">
         <v>4500</v>

--- a/AAII_Financials/Quarterly/BVXV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BVXV_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="92">
   <si>
     <t>BVXV</t>
   </si>
@@ -1025,7 +1025,7 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>4900</v>
+        <v>4800</v>
       </c>
       <c r="E17" s="3">
         <v>6000</v>
@@ -1129,7 +1129,7 @@
         <v>-100</v>
       </c>
       <c r="H20" s="3">
-        <v>-8400</v>
+        <v>-8300</v>
       </c>
       <c r="I20" s="3">
         <v>2300</v>
@@ -1157,20 +1157,20 @@
       <c r="D21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>4</v>
+      <c r="E21" s="3">
+        <v>-900</v>
       </c>
       <c r="F21" s="3">
         <v>-12800</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>4</v>
+      <c r="G21" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="H21" s="3">
+        <v>-14200</v>
+      </c>
+      <c r="I21" s="3">
+        <v>200</v>
       </c>
       <c r="J21" s="3">
         <v>-13800</v>
@@ -1231,13 +1231,13 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-12700</v>
+        <v>-12600</v>
       </c>
       <c r="E23" s="3">
         <v>-1100</v>
       </c>
       <c r="F23" s="3">
-        <v>-13000</v>
+        <v>-12900</v>
       </c>
       <c r="G23" s="3">
         <v>-5800</v>
@@ -1345,13 +1345,13 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-12700</v>
+        <v>-12600</v>
       </c>
       <c r="E26" s="3">
         <v>-1100</v>
       </c>
       <c r="F26" s="3">
-        <v>-13000</v>
+        <v>-12900</v>
       </c>
       <c r="G26" s="3">
         <v>-5800</v>
@@ -1383,13 +1383,13 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-12700</v>
+        <v>-12600</v>
       </c>
       <c r="E27" s="3">
         <v>-1400</v>
       </c>
       <c r="F27" s="3">
-        <v>-13000</v>
+        <v>-12900</v>
       </c>
       <c r="G27" s="3">
         <v>-5800</v>
@@ -1585,7 +1585,7 @@
         <v>100</v>
       </c>
       <c r="H32" s="3">
-        <v>8400</v>
+        <v>8300</v>
       </c>
       <c r="I32" s="3">
         <v>-2300</v>
@@ -1611,13 +1611,13 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-12700</v>
+        <v>-12600</v>
       </c>
       <c r="E33" s="3">
         <v>-1400</v>
       </c>
       <c r="F33" s="3">
-        <v>-13000</v>
+        <v>-12900</v>
       </c>
       <c r="G33" s="3">
         <v>-5800</v>
@@ -1687,13 +1687,13 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-12700</v>
+        <v>-12600</v>
       </c>
       <c r="E35" s="3">
         <v>-1400</v>
       </c>
       <c r="F35" s="3">
-        <v>-13000</v>
+        <v>-12900</v>
       </c>
       <c r="G35" s="3">
         <v>-5800</v>
@@ -1806,10 +1806,10 @@
         <v>4</v>
       </c>
       <c r="F41" s="3">
-        <v>21900</v>
+        <v>21800</v>
       </c>
       <c r="G41" s="3">
-        <v>22700</v>
+        <v>22600</v>
       </c>
       <c r="H41" s="3">
         <v>10200</v>
@@ -1818,7 +1818,7 @@
         <v>17300</v>
       </c>
       <c r="J41" s="3">
-        <v>22900</v>
+        <v>22800</v>
       </c>
       <c r="K41" s="3">
         <v>15100</v>
@@ -1999,7 +1999,7 @@
         <v>22000</v>
       </c>
       <c r="G46" s="3">
-        <v>23300</v>
+        <v>23200</v>
       </c>
       <c r="H46" s="3">
         <v>10600</v>
@@ -2008,7 +2008,7 @@
         <v>17900</v>
       </c>
       <c r="J46" s="3">
-        <v>23200</v>
+        <v>23100</v>
       </c>
       <c r="K46" s="3">
         <v>15900</v>
@@ -2075,7 +2075,7 @@
         <v>12700</v>
       </c>
       <c r="G48" s="3">
-        <v>12600</v>
+        <v>12500</v>
       </c>
       <c r="H48" s="3">
         <v>12100</v>
@@ -2300,19 +2300,19 @@
         <v>4</v>
       </c>
       <c r="F54" s="3">
-        <v>34900</v>
+        <v>34800</v>
       </c>
       <c r="G54" s="3">
-        <v>36000</v>
+        <v>35900</v>
       </c>
       <c r="H54" s="3">
         <v>22800</v>
       </c>
       <c r="I54" s="3">
-        <v>30000</v>
+        <v>29900</v>
       </c>
       <c r="J54" s="3">
-        <v>31900</v>
+        <v>31800</v>
       </c>
       <c r="K54" s="3">
         <v>23000</v>
@@ -2516,25 +2516,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>38700</v>
+        <v>38600</v>
       </c>
       <c r="E61" s="3">
-        <v>37500</v>
+        <v>37400</v>
       </c>
       <c r="F61" s="3">
-        <v>39400</v>
+        <v>39300</v>
       </c>
       <c r="G61" s="3">
-        <v>34800</v>
+        <v>34700</v>
       </c>
       <c r="H61" s="3">
-        <v>35600</v>
+        <v>35500</v>
       </c>
       <c r="I61" s="3">
-        <v>29000</v>
+        <v>28900</v>
       </c>
       <c r="J61" s="3">
-        <v>28500</v>
+        <v>28400</v>
       </c>
       <c r="K61" s="3">
         <v>12200</v>
@@ -2554,7 +2554,7 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3900</v>
+        <v>3800</v>
       </c>
       <c r="E62" s="3">
         <v>6000</v>
@@ -2706,25 +2706,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>44500</v>
+        <v>44400</v>
       </c>
       <c r="E66" s="3">
-        <v>45000</v>
+        <v>44900</v>
       </c>
       <c r="F66" s="3">
-        <v>54500</v>
+        <v>54400</v>
       </c>
       <c r="G66" s="3">
-        <v>42100</v>
+        <v>42000</v>
       </c>
       <c r="H66" s="3">
-        <v>44700</v>
+        <v>44600</v>
       </c>
       <c r="I66" s="3">
-        <v>39200</v>
+        <v>39100</v>
       </c>
       <c r="J66" s="3">
-        <v>41300</v>
+        <v>41200</v>
       </c>
       <c r="K66" s="3">
         <v>18900</v>
@@ -2912,25 +2912,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-110400</v>
+        <v>-110100</v>
       </c>
       <c r="E72" s="3">
-        <v>-97700</v>
+        <v>-97500</v>
       </c>
       <c r="F72" s="3">
-        <v>-96600</v>
+        <v>-96300</v>
       </c>
       <c r="G72" s="3">
-        <v>-83600</v>
+        <v>-83400</v>
       </c>
       <c r="H72" s="3">
-        <v>-77800</v>
+        <v>-77600</v>
       </c>
       <c r="I72" s="3">
+        <v>-63300</v>
+      </c>
+      <c r="J72" s="3">
         <v>-63500</v>
-      </c>
-      <c r="J72" s="3">
-        <v>-63700</v>
       </c>
       <c r="K72" s="3">
         <v>-47100</v>
@@ -3064,19 +3064,19 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-18700</v>
+        <v>-18600</v>
       </c>
       <c r="E76" s="3">
-        <v>-18500</v>
+        <v>-18400</v>
       </c>
       <c r="F76" s="3">
         <v>-19600</v>
       </c>
       <c r="G76" s="3">
-        <v>-6200</v>
+        <v>-6100</v>
       </c>
       <c r="H76" s="3">
-        <v>-21900</v>
+        <v>-21800</v>
       </c>
       <c r="I76" s="3">
         <v>-9200</v>
@@ -3183,13 +3183,13 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-12700</v>
+        <v>-12600</v>
       </c>
       <c r="E81" s="3">
         <v>-1400</v>
       </c>
       <c r="F81" s="3">
-        <v>-13000</v>
+        <v>-12900</v>
       </c>
       <c r="G81" s="3">
         <v>-5800</v>
@@ -3236,23 +3236,23 @@
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>4</v>
+      <c r="D83" s="3">
+        <v>200</v>
+      </c>
+      <c r="E83" s="3">
+        <v>200</v>
       </c>
       <c r="F83" s="3">
         <v>200</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>4</v>
+      <c r="G83" s="3">
+        <v>200</v>
+      </c>
+      <c r="H83" s="3">
+        <v>100</v>
+      </c>
+      <c r="I83" s="3">
+        <v>100</v>
       </c>
       <c r="J83" s="3">
         <v>0</v>
@@ -3464,23 +3464,23 @@
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>4</v>
+      <c r="D89" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-10400</v>
       </c>
       <c r="F89" s="3">
         <v>-5100</v>
       </c>
-      <c r="G89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>4</v>
+      <c r="G89" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="H89" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="I89" s="3">
+        <v>-4000</v>
       </c>
       <c r="J89" s="3">
         <v>-1900</v>
@@ -3518,23 +3518,23 @@
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>4</v>
+      <c r="D91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-400</v>
       </c>
       <c r="F91" s="3">
         <v>-300</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>4</v>
+      <c r="G91" s="3">
+        <v>-700</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-1000</v>
       </c>
       <c r="J91" s="3">
         <v>-1200</v>
@@ -3632,23 +3632,23 @@
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>4</v>
+      <c r="D94" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-500</v>
       </c>
       <c r="F94" s="3">
         <v>-300</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>4</v>
+      <c r="G94" s="3">
+        <v>-600</v>
+      </c>
+      <c r="H94" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-1000</v>
       </c>
       <c r="J94" s="3">
         <v>-1200</v>
@@ -3838,23 +3838,23 @@
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>4</v>
+      <c r="D100" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E100" s="3">
+        <v>1200</v>
       </c>
       <c r="F100" s="3">
         <v>4700</v>
       </c>
-      <c r="G100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>4</v>
+      <c r="G100" s="3">
+        <v>21100</v>
+      </c>
+      <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
+        <v>-100</v>
       </c>
       <c r="J100" s="3">
         <v>10100</v>
@@ -3876,23 +3876,23 @@
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>4</v>
+      <c r="D101" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E101" s="3">
+        <v>600</v>
       </c>
       <c r="F101" s="3">
         <v>-100</v>
       </c>
-      <c r="G101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>4</v>
+      <c r="G101" s="3">
+        <v>-500</v>
+      </c>
+      <c r="H101" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I101" s="3">
+        <v>-500</v>
       </c>
       <c r="J101" s="3">
         <v>-200</v>
@@ -3914,23 +3914,23 @@
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>4</v>
+      <c r="D102" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-9000</v>
       </c>
       <c r="F102" s="3">
         <v>-800</v>
       </c>
-      <c r="G102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>4</v>
+      <c r="G102" s="3">
+        <v>12400</v>
+      </c>
+      <c r="H102" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="I102" s="3">
+        <v>-5600</v>
       </c>
       <c r="J102" s="3">
         <v>6900</v>

--- a/AAII_Financials/Quarterly/BVXV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BVXV_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="92">
   <si>
     <t>BVXV</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,67 +665,74 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -762,8 +769,14 @@
       <c r="N8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -800,8 +813,14 @@
       <c r="N9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -838,8 +857,14 @@
       <c r="N10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -854,46 +879,54 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>3600</v>
+        <v>2400</v>
       </c>
       <c r="E12" s="3">
-        <v>5700</v>
+        <v>3900</v>
       </c>
       <c r="F12" s="3">
-        <v>9500</v>
+        <v>3700</v>
       </c>
       <c r="G12" s="3">
-        <v>4900</v>
+        <v>5900</v>
       </c>
       <c r="H12" s="3">
-        <v>4600</v>
+        <v>9800</v>
       </c>
       <c r="I12" s="3">
+        <v>5000</v>
+      </c>
+      <c r="J12" s="3">
+        <v>4700</v>
+      </c>
+      <c r="K12" s="3">
         <v>1700</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>8000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>1200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>8300</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>3300</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -930,8 +963,14 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -968,8 +1007,14 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1006,8 +1051,14 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1019,46 +1070,54 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>4800</v>
+        <v>3700</v>
       </c>
       <c r="E17" s="3">
-        <v>6000</v>
+        <v>-17200</v>
       </c>
       <c r="F17" s="3">
-        <v>9800</v>
+        <v>5000</v>
       </c>
       <c r="G17" s="3">
-        <v>5700</v>
+        <v>6200</v>
       </c>
       <c r="H17" s="3">
-        <v>5900</v>
+        <v>10100</v>
       </c>
       <c r="I17" s="3">
+        <v>5800</v>
+      </c>
+      <c r="J17" s="3">
+        <v>6100</v>
+      </c>
+      <c r="K17" s="3">
         <v>2200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>8400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>1700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>8700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>3600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1066,37 +1125,43 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>-6000</v>
+        <v>17200</v>
       </c>
       <c r="F18" s="3">
-        <v>-9800</v>
+        <v>-5000</v>
       </c>
       <c r="G18" s="3">
-        <v>-5700</v>
+        <v>-6200</v>
       </c>
       <c r="H18" s="3">
-        <v>-5900</v>
+        <v>-10100</v>
       </c>
       <c r="I18" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="K18" s="3">
         <v>-2200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-8400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-1700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-8700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-3600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-4300</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1111,8 +1176,10 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1120,75 +1187,87 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
-        <v>4900</v>
+        <v>-100</v>
       </c>
       <c r="F20" s="3">
-        <v>-3100</v>
+        <v>-8000</v>
       </c>
       <c r="G20" s="3">
+        <v>5000</v>
+      </c>
+      <c r="H20" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="I20" s="3">
         <v>-100</v>
       </c>
-      <c r="H20" s="3">
-        <v>-8300</v>
-      </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
+        <v>-8500</v>
+      </c>
+      <c r="K20" s="3">
         <v>2300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-5400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>1000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>1500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="3">
-        <v>-900</v>
+      <c r="E21" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F21" s="3">
         <v>-12800</v>
       </c>
       <c r="G21" s="3">
-        <v>-5700</v>
+        <v>-1000</v>
       </c>
       <c r="H21" s="3">
-        <v>-14200</v>
+        <v>-13100</v>
       </c>
       <c r="I21" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="J21" s="3">
+        <v>-14500</v>
+      </c>
+      <c r="K21" s="3">
         <v>200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-13800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-7200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-4000</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1225,46 +1304,58 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-12600</v>
+        <v>-4400</v>
       </c>
       <c r="E23" s="3">
+        <v>17100</v>
+      </c>
+      <c r="F23" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="G23" s="3">
         <v>-1100</v>
       </c>
-      <c r="F23" s="3">
-        <v>-12900</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-5800</v>
-      </c>
       <c r="H23" s="3">
-        <v>-14300</v>
+        <v>-13300</v>
       </c>
       <c r="I23" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-14600</v>
+      </c>
+      <c r="K23" s="3">
         <v>200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-13800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-7300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-4000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-3600</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1301,8 +1392,14 @@
       <c r="N24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1339,84 +1436,102 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-12600</v>
+        <v>-4400</v>
       </c>
       <c r="E26" s="3">
+        <v>17100</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="G26" s="3">
         <v>-1100</v>
       </c>
-      <c r="F26" s="3">
-        <v>-12900</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-5800</v>
-      </c>
       <c r="H26" s="3">
-        <v>-14300</v>
+        <v>-13300</v>
       </c>
       <c r="I26" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-14600</v>
+      </c>
+      <c r="K26" s="3">
         <v>200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-13800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-7300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-4000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-3600</v>
       </c>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-12600</v>
+        <v>-4400</v>
       </c>
       <c r="E27" s="3">
+        <v>17100</v>
+      </c>
+      <c r="F27" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="G27" s="3">
         <v>-1400</v>
       </c>
-      <c r="F27" s="3">
-        <v>-12900</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-5800</v>
-      </c>
       <c r="H27" s="3">
-        <v>-14300</v>
+        <v>-13300</v>
       </c>
       <c r="I27" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-14600</v>
+      </c>
+      <c r="K27" s="3">
         <v>200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-13800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-7300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-4000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-3600</v>
       </c>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1453,8 +1568,14 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1491,8 +1612,14 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1529,8 +1656,14 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1567,8 +1700,14 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1576,75 +1715,87 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
-        <v>-4900</v>
+        <v>100</v>
       </c>
       <c r="F32" s="3">
-        <v>3100</v>
+        <v>8000</v>
       </c>
       <c r="G32" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="H32" s="3">
+        <v>3200</v>
+      </c>
+      <c r="I32" s="3">
         <v>100</v>
       </c>
-      <c r="H32" s="3">
-        <v>8300</v>
-      </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
+        <v>8500</v>
+      </c>
+      <c r="K32" s="3">
         <v>-2300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>5400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-1000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-1500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-12600</v>
+        <v>-4400</v>
       </c>
       <c r="E33" s="3">
+        <v>17100</v>
+      </c>
+      <c r="F33" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="G33" s="3">
         <v>-1400</v>
       </c>
-      <c r="F33" s="3">
-        <v>-12900</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-5800</v>
-      </c>
       <c r="H33" s="3">
-        <v>-14300</v>
+        <v>-13300</v>
       </c>
       <c r="I33" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-14600</v>
+      </c>
+      <c r="K33" s="3">
         <v>200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-13800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-7300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-4000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-3600</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1681,89 +1832,107 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-12600</v>
+        <v>-4400</v>
       </c>
       <c r="E35" s="3">
+        <v>17100</v>
+      </c>
+      <c r="F35" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="G35" s="3">
         <v>-1400</v>
       </c>
-      <c r="F35" s="3">
-        <v>-12900</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-5800</v>
-      </c>
       <c r="H35" s="3">
-        <v>-14300</v>
+        <v>-13300</v>
       </c>
       <c r="I35" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-14600</v>
+      </c>
+      <c r="K35" s="3">
         <v>200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-13800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-7300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-4000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-3600</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1778,8 +1947,10 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1794,46 +1965,54 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>11700</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>4</v>
+        <v>2900</v>
+      </c>
+      <c r="E41" s="3">
+        <v>7600</v>
       </c>
       <c r="F41" s="3">
-        <v>21800</v>
-      </c>
-      <c r="G41" s="3">
-        <v>22600</v>
+        <v>12000</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H41" s="3">
-        <v>10200</v>
+        <v>22400</v>
       </c>
       <c r="I41" s="3">
+        <v>23200</v>
+      </c>
+      <c r="J41" s="3">
+        <v>10500</v>
+      </c>
+      <c r="K41" s="3">
         <v>17300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>22800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>15100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>10600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>15900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>20800</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1870,46 +2049,58 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>700</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>4</v>
+        <v>400</v>
+      </c>
+      <c r="E43" s="3">
+        <v>900</v>
       </c>
       <c r="F43" s="3">
+        <v>800</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H43" s="3">
         <v>200</v>
-      </c>
-      <c r="G43" s="3">
-        <v>600</v>
-      </c>
-      <c r="H43" s="3">
-        <v>400</v>
       </c>
       <c r="I43" s="3">
         <v>600</v>
       </c>
       <c r="J43" s="3">
+        <v>400</v>
+      </c>
+      <c r="K43" s="3">
+        <v>600</v>
+      </c>
+      <c r="L43" s="3">
         <v>300</v>
-      </c>
-      <c r="K43" s="3">
-        <v>800</v>
-      </c>
-      <c r="L43" s="3">
-        <v>1200</v>
       </c>
       <c r="M43" s="3">
         <v>800</v>
       </c>
       <c r="N43" s="3">
+        <v>1200</v>
+      </c>
+      <c r="O43" s="3">
+        <v>800</v>
+      </c>
+      <c r="P43" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1946,8 +2137,14 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1984,46 +2181,58 @@
       <c r="N45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+      <c r="P45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>12400</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>4</v>
+        <v>3300</v>
+      </c>
+      <c r="E46" s="3">
+        <v>8600</v>
       </c>
       <c r="F46" s="3">
+        <v>12700</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H46" s="3">
+        <v>22600</v>
+      </c>
+      <c r="I46" s="3">
+        <v>23800</v>
+      </c>
+      <c r="J46" s="3">
+        <v>10900</v>
+      </c>
+      <c r="K46" s="3">
+        <v>17900</v>
+      </c>
+      <c r="L46" s="3">
+        <v>23100</v>
+      </c>
+      <c r="M46" s="3">
+        <v>15900</v>
+      </c>
+      <c r="N46" s="3">
+        <v>11700</v>
+      </c>
+      <c r="O46" s="3">
+        <v>16700</v>
+      </c>
+      <c r="P46" s="3">
         <v>22000</v>
       </c>
-      <c r="G46" s="3">
-        <v>23200</v>
-      </c>
-      <c r="H46" s="3">
-        <v>10600</v>
-      </c>
-      <c r="I46" s="3">
-        <v>17900</v>
-      </c>
-      <c r="J46" s="3">
-        <v>23100</v>
-      </c>
-      <c r="K46" s="3">
-        <v>15900</v>
-      </c>
-      <c r="L46" s="3">
-        <v>11700</v>
-      </c>
-      <c r="M46" s="3">
-        <v>16700</v>
-      </c>
-      <c r="N46" s="3">
-        <v>22000</v>
-      </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2060,46 +2269,58 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>13100</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>4</v>
+        <v>14100</v>
+      </c>
+      <c r="E48" s="3">
+        <v>14300</v>
       </c>
       <c r="F48" s="3">
-        <v>12700</v>
-      </c>
-      <c r="G48" s="3">
-        <v>12500</v>
+        <v>13500</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H48" s="3">
-        <v>12100</v>
+        <v>13000</v>
       </c>
       <c r="I48" s="3">
+        <v>12900</v>
+      </c>
+      <c r="J48" s="3">
+        <v>12400</v>
+      </c>
+      <c r="K48" s="3">
         <v>11800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>8500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>6900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>5400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>3600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2136,8 +2357,14 @@
       <c r="N49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2174,8 +2401,14 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2212,22 +2445,28 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>100</v>
+      </c>
+      <c r="E52" s="3">
         <v>300</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F52" s="3">
-        <v>200</v>
-      </c>
-      <c r="G52" s="3">
-        <v>200</v>
+        <v>300</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H52" s="3">
         <v>200</v>
@@ -2239,10 +2478,10 @@
         <v>200</v>
       </c>
       <c r="K52" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="L52" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="M52" s="3">
         <v>300</v>
@@ -2250,8 +2489,14 @@
       <c r="N52" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3">
+        <v>300</v>
+      </c>
+      <c r="P52" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2288,46 +2533,58 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>25800</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>4</v>
+        <v>17600</v>
+      </c>
+      <c r="E54" s="3">
+        <v>23100</v>
       </c>
       <c r="F54" s="3">
-        <v>34800</v>
-      </c>
-      <c r="G54" s="3">
-        <v>35900</v>
+        <v>26500</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H54" s="3">
-        <v>22800</v>
+        <v>35700</v>
       </c>
       <c r="I54" s="3">
+        <v>36800</v>
+      </c>
+      <c r="J54" s="3">
+        <v>23400</v>
+      </c>
+      <c r="K54" s="3">
         <v>29900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>31800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>23000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>17300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>20500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>23800</v>
       </c>
     </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2342,8 +2599,10 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2358,51 +2617,59 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1700</v>
+        <v>1000</v>
       </c>
       <c r="E57" s="3">
-        <v>1200</v>
+        <v>3200</v>
       </c>
       <c r="F57" s="3">
-        <v>5500</v>
+        <v>1800</v>
       </c>
       <c r="G57" s="3">
+        <v>1300</v>
+      </c>
+      <c r="H57" s="3">
+        <v>5600</v>
+      </c>
+      <c r="I57" s="3">
         <v>700</v>
       </c>
-      <c r="H57" s="3">
-        <v>2800</v>
-      </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
+        <v>2900</v>
+      </c>
+      <c r="K57" s="3">
         <v>5000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>6600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>2600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>200</v>
+        <v>18900</v>
       </c>
       <c r="E58" s="3">
         <v>200</v>
@@ -2419,11 +2686,11 @@
       <c r="I58" s="3">
         <v>200</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K58" s="3" t="s">
-        <v>4</v>
+      <c r="J58" s="3">
+        <v>200</v>
+      </c>
+      <c r="K58" s="3">
+        <v>200</v>
       </c>
       <c r="L58" s="3" t="s">
         <v>4</v>
@@ -2434,8 +2701,14 @@
       <c r="N58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2472,122 +2745,146 @@
       <c r="N59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3">
+        <v>0</v>
+      </c>
+      <c r="P59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1900</v>
+        <v>19800</v>
       </c>
       <c r="E60" s="3">
-        <v>1400</v>
+        <v>3400</v>
       </c>
       <c r="F60" s="3">
-        <v>5700</v>
+        <v>2000</v>
       </c>
       <c r="G60" s="3">
+        <v>1500</v>
+      </c>
+      <c r="H60" s="3">
+        <v>5900</v>
+      </c>
+      <c r="I60" s="3">
         <v>900</v>
       </c>
-      <c r="H60" s="3">
-        <v>3000</v>
-      </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
+        <v>3100</v>
+      </c>
+      <c r="K60" s="3">
         <v>5200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>6600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>2600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>38600</v>
+        <v>1900</v>
       </c>
       <c r="E61" s="3">
-        <v>37400</v>
+        <v>20200</v>
       </c>
       <c r="F61" s="3">
-        <v>39300</v>
+        <v>39700</v>
       </c>
       <c r="G61" s="3">
-        <v>34700</v>
+        <v>38400</v>
       </c>
       <c r="H61" s="3">
-        <v>35500</v>
+        <v>40300</v>
       </c>
       <c r="I61" s="3">
+        <v>35600</v>
+      </c>
+      <c r="J61" s="3">
+        <v>36400</v>
+      </c>
+      <c r="K61" s="3">
         <v>28900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>28400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>12200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>5900</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3800</v>
+        <v>400</v>
       </c>
       <c r="E62" s="3">
-        <v>6000</v>
+        <v>0</v>
       </c>
       <c r="F62" s="3">
-        <v>9400</v>
+        <v>3900</v>
       </c>
       <c r="G62" s="3">
-        <v>6500</v>
+        <v>6200</v>
       </c>
       <c r="H62" s="3">
-        <v>6100</v>
+        <v>9600</v>
       </c>
       <c r="I62" s="3">
+        <v>6600</v>
+      </c>
+      <c r="J62" s="3">
+        <v>6200</v>
+      </c>
+      <c r="K62" s="3">
         <v>5000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>6300</v>
-      </c>
-      <c r="K62" s="3">
-        <v>5900</v>
-      </c>
-      <c r="L62" s="3">
-        <v>6100</v>
       </c>
       <c r="M62" s="3">
         <v>5900</v>
       </c>
       <c r="N62" s="3">
+        <v>6100</v>
+      </c>
+      <c r="O62" s="3">
+        <v>5900</v>
+      </c>
+      <c r="P62" s="3">
         <v>5400</v>
       </c>
     </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2624,8 +2921,14 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2662,8 +2965,14 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2700,46 +3009,58 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>44400</v>
+        <v>22100</v>
       </c>
       <c r="E66" s="3">
-        <v>44900</v>
+        <v>23700</v>
       </c>
       <c r="F66" s="3">
-        <v>54400</v>
+        <v>45600</v>
       </c>
       <c r="G66" s="3">
-        <v>42000</v>
+        <v>46000</v>
       </c>
       <c r="H66" s="3">
-        <v>44600</v>
+        <v>55800</v>
       </c>
       <c r="I66" s="3">
+        <v>43100</v>
+      </c>
+      <c r="J66" s="3">
+        <v>45800</v>
+      </c>
+      <c r="K66" s="3">
         <v>39100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>41200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>18900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>12600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>8500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>7400</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2754,8 +3075,10 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2792,8 +3115,14 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2830,8 +3159,14 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2868,8 +3203,14 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2906,46 +3247,58 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-110100</v>
+        <v>-100200</v>
       </c>
       <c r="E72" s="3">
-        <v>-97500</v>
+        <v>-95900</v>
       </c>
       <c r="F72" s="3">
-        <v>-96300</v>
+        <v>-113000</v>
       </c>
       <c r="G72" s="3">
-        <v>-83400</v>
+        <v>-100000</v>
       </c>
       <c r="H72" s="3">
-        <v>-77600</v>
+        <v>-98900</v>
       </c>
       <c r="I72" s="3">
+        <v>-85600</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-79600</v>
+      </c>
+      <c r="K72" s="3">
         <v>-63300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-63500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-47100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-46500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-39200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-36000</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2982,8 +3335,14 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3020,8 +3379,14 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3058,46 +3423,58 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-18600</v>
+        <v>-4500</v>
       </c>
       <c r="E76" s="3">
-        <v>-18400</v>
+        <v>-600</v>
       </c>
       <c r="F76" s="3">
-        <v>-19600</v>
+        <v>-19100</v>
       </c>
       <c r="G76" s="3">
-        <v>-6100</v>
+        <v>-18900</v>
       </c>
       <c r="H76" s="3">
-        <v>-21800</v>
+        <v>-20100</v>
       </c>
       <c r="I76" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="J76" s="3">
+        <v>-22400</v>
+      </c>
+      <c r="K76" s="3">
         <v>-9200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-9400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>4100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>4800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>12000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>16400</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3134,89 +3511,107 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-12600</v>
+        <v>-4400</v>
       </c>
       <c r="E81" s="3">
+        <v>17100</v>
+      </c>
+      <c r="F81" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="G81" s="3">
         <v>-1400</v>
       </c>
-      <c r="F81" s="3">
-        <v>-12900</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-5800</v>
-      </c>
       <c r="H81" s="3">
-        <v>-14300</v>
+        <v>-13300</v>
       </c>
       <c r="I81" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-14600</v>
+      </c>
+      <c r="K81" s="3">
         <v>200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-13800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-7300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-4000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-3600</v>
       </c>
     </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3231,16 +3626,18 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>200</v>
-      </c>
-      <c r="E83" s="3">
-        <v>200</v>
+      <c r="D83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F83" s="3">
         <v>200</v>
@@ -3249,28 +3646,34 @@
         <v>200</v>
       </c>
       <c r="H83" s="3">
+        <v>200</v>
+      </c>
+      <c r="I83" s="3">
+        <v>200</v>
+      </c>
+      <c r="J83" s="3">
         <v>100</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>100</v>
       </c>
-      <c r="J83" s="3">
-        <v>0</v>
-      </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3">
         <v>-100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>100</v>
       </c>
-      <c r="M83" s="3">
-        <v>0</v>
-      </c>
-      <c r="N83" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+      <c r="P83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3307,8 +3710,14 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3345,8 +3754,14 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3383,8 +3798,14 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3421,8 +3842,14 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3459,46 +3886,58 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
-        <v>-3600</v>
-      </c>
-      <c r="E89" s="3">
-        <v>-10400</v>
+      <c r="D89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F89" s="3">
-        <v>-5100</v>
+        <v>-3700</v>
       </c>
       <c r="G89" s="3">
-        <v>-7500</v>
+        <v>-10600</v>
       </c>
       <c r="H89" s="3">
-        <v>-6600</v>
+        <v>-5300</v>
       </c>
       <c r="I89" s="3">
+        <v>-7700</v>
+      </c>
+      <c r="J89" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="K89" s="3">
         <v>-4000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-1900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-11000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-2600</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="P89" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3513,46 +3952,54 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
+      <c r="D91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F91" s="3">
         <v>-400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-400</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-300</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-700</v>
       </c>
       <c r="H91" s="3">
         <v>-300</v>
       </c>
       <c r="I91" s="3">
+        <v>-700</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K91" s="3">
         <v>-1000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-1200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-1700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-1900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-2000</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="P91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3589,8 +4036,14 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3627,46 +4080,58 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
+      <c r="D94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F94" s="3">
         <v>-400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-500</v>
-      </c>
-      <c r="F94" s="3">
-        <v>-300</v>
-      </c>
-      <c r="G94" s="3">
-        <v>-600</v>
       </c>
       <c r="H94" s="3">
         <v>-300</v>
       </c>
       <c r="I94" s="3">
+        <v>-700</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K94" s="3">
         <v>-1000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-1200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-1700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-1900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-2000</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="P94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3681,8 +4146,10 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3719,8 +4186,14 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3757,8 +4230,14 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3795,8 +4274,14 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3833,63 +4318,75 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>3000</v>
-      </c>
-      <c r="E100" s="3">
-        <v>1200</v>
+      <c r="D100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F100" s="3">
-        <v>4700</v>
+        <v>3100</v>
       </c>
       <c r="G100" s="3">
-        <v>21100</v>
+        <v>1300</v>
       </c>
       <c r="H100" s="3">
-        <v>0</v>
+        <v>4800</v>
       </c>
       <c r="I100" s="3">
+        <v>21600</v>
+      </c>
+      <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>-100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>10100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>7200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>7200</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
-      <c r="N100" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3">
+      <c r="D101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F101" s="3">
         <v>-200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>600</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>-100</v>
-      </c>
-      <c r="G101" s="3">
-        <v>-500</v>
-      </c>
-      <c r="H101" s="3">
-        <v>-200</v>
       </c>
       <c r="I101" s="3">
         <v>-500</v>
@@ -3898,53 +4395,65 @@
         <v>-200</v>
       </c>
       <c r="K101" s="3">
+        <v>-500</v>
+      </c>
+      <c r="L101" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M101" s="3">
         <v>-100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>100</v>
       </c>
-      <c r="N101" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="P101" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="E102" s="3">
-        <v>-9000</v>
+      <c r="D102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F102" s="3">
-        <v>-800</v>
+        <v>-1200</v>
       </c>
       <c r="G102" s="3">
-        <v>12400</v>
+        <v>-9200</v>
       </c>
       <c r="H102" s="3">
-        <v>-7100</v>
+        <v>-900</v>
       </c>
       <c r="I102" s="3">
+        <v>12800</v>
+      </c>
+      <c r="J102" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="K102" s="3">
         <v>-5600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>6900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>4500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-5300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-4500</v>
       </c>
-      <c r="N102" s="3" t="s">
+      <c r="P102" s="3" t="s">
         <v>4</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BVXV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BVXV_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="92">
   <si>
     <t>BVXV</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,74 +665,78 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -775,8 +779,11 @@
       <c r="P8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -819,8 +826,11 @@
       <c r="P9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -863,8 +873,11 @@
       <c r="P10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -881,52 +894,56 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>800</v>
+      </c>
+      <c r="E12" s="3">
         <v>2400</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>3900</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>3700</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>5900</v>
       </c>
-      <c r="H12" s="3">
-        <v>9800</v>
-      </c>
       <c r="I12" s="3">
+        <v>9700</v>
+      </c>
+      <c r="J12" s="3">
         <v>5000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>4700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1700</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>8000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1200</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>8300</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>3300</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,8 +986,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1013,8 +1033,11 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1057,8 +1080,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,52 +1098,56 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E17" s="3">
         <v>3700</v>
       </c>
-      <c r="E17" s="3">
-        <v>-17200</v>
-      </c>
       <c r="F17" s="3">
+        <v>-17100</v>
+      </c>
+      <c r="G17" s="3">
         <v>5000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>6200</v>
       </c>
-      <c r="H17" s="3">
-        <v>10100</v>
-      </c>
       <c r="I17" s="3">
+        <v>10000</v>
+      </c>
+      <c r="J17" s="3">
         <v>5800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>6100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>8400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>8700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1125,43 +1155,46 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>17200</v>
+        <v>-3700</v>
       </c>
       <c r="F18" s="3">
+        <v>17100</v>
+      </c>
+      <c r="G18" s="3">
         <v>-5000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-6200</v>
       </c>
-      <c r="H18" s="3">
-        <v>-10100</v>
-      </c>
       <c r="I18" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="J18" s="3">
         <v>-5800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-6100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-2200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-8400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-8700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-3600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-4300</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,8 +1211,9 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1187,43 +1221,46 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F20" s="3">
         <v>-100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-8000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>5000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-3200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-8500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>2300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-5400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>1500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1233,41 +1270,44 @@
       <c r="E21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F21" s="3">
-        <v>-12800</v>
+      <c r="F21" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G21" s="3">
+        <v>-12700</v>
+      </c>
+      <c r="H21" s="3">
         <v>-1000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-13100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-5800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-14500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-13800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-7200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-4000</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1310,52 +1350,58 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-4400</v>
+        <v>-2500</v>
       </c>
       <c r="E23" s="3">
-        <v>17100</v>
+        <v>-4300</v>
       </c>
       <c r="F23" s="3">
-        <v>-13000</v>
+        <v>17000</v>
       </c>
       <c r="G23" s="3">
+        <v>-12900</v>
+      </c>
+      <c r="H23" s="3">
         <v>-1100</v>
       </c>
-      <c r="H23" s="3">
-        <v>-13300</v>
-      </c>
       <c r="I23" s="3">
+        <v>-13200</v>
+      </c>
+      <c r="J23" s="3">
         <v>-6000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-14600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-13800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-7300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-4000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-3600</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1398,8 +1444,11 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1491,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-4400</v>
+        <v>-2500</v>
       </c>
       <c r="E26" s="3">
-        <v>17100</v>
+        <v>-4300</v>
       </c>
       <c r="F26" s="3">
-        <v>-13000</v>
+        <v>17000</v>
       </c>
       <c r="G26" s="3">
+        <v>-12900</v>
+      </c>
+      <c r="H26" s="3">
         <v>-1100</v>
       </c>
-      <c r="H26" s="3">
-        <v>-13300</v>
-      </c>
       <c r="I26" s="3">
+        <v>-13200</v>
+      </c>
+      <c r="J26" s="3">
         <v>-6000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-14600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-13800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-7300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-4000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-3600</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-4400</v>
+        <v>-2500</v>
       </c>
       <c r="E27" s="3">
-        <v>17100</v>
+        <v>-4300</v>
       </c>
       <c r="F27" s="3">
-        <v>-13000</v>
+        <v>17000</v>
       </c>
       <c r="G27" s="3">
+        <v>-12900</v>
+      </c>
+      <c r="H27" s="3">
         <v>-1400</v>
       </c>
-      <c r="H27" s="3">
-        <v>-13300</v>
-      </c>
       <c r="I27" s="3">
+        <v>-13200</v>
+      </c>
+      <c r="J27" s="3">
         <v>-6000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-14600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-13800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-7300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-4000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-3600</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1632,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1679,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1726,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,8 +1773,11 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1715,87 +1785,93 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>600</v>
+      </c>
+      <c r="F32" s="3">
         <v>100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>8000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-5000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>3200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>8500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-2300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>5400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-1500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-4400</v>
+        <v>-2500</v>
       </c>
       <c r="E33" s="3">
-        <v>17100</v>
+        <v>-4300</v>
       </c>
       <c r="F33" s="3">
-        <v>-13000</v>
+        <v>17000</v>
       </c>
       <c r="G33" s="3">
+        <v>-12900</v>
+      </c>
+      <c r="H33" s="3">
         <v>-1400</v>
       </c>
-      <c r="H33" s="3">
-        <v>-13300</v>
-      </c>
       <c r="I33" s="3">
+        <v>-13200</v>
+      </c>
+      <c r="J33" s="3">
         <v>-6000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-14600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-13800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-7300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-4000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-3600</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1914,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-4400</v>
+        <v>-2500</v>
       </c>
       <c r="E35" s="3">
-        <v>17100</v>
+        <v>-4300</v>
       </c>
       <c r="F35" s="3">
-        <v>-13000</v>
+        <v>17000</v>
       </c>
       <c r="G35" s="3">
+        <v>-12900</v>
+      </c>
+      <c r="H35" s="3">
         <v>-1400</v>
       </c>
-      <c r="H35" s="3">
-        <v>-13300</v>
-      </c>
       <c r="I35" s="3">
+        <v>-13200</v>
+      </c>
+      <c r="J35" s="3">
         <v>-6000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-14600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-13800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-7300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-4000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-3600</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2034,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,52 +2053,56 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>15000</v>
+      </c>
+      <c r="E41" s="3">
         <v>2900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>7600</v>
       </c>
-      <c r="F41" s="3">
-        <v>12000</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>4</v>
+      <c r="G41" s="3">
+        <v>11900</v>
       </c>
       <c r="H41" s="3">
-        <v>22400</v>
+        <v>13100</v>
       </c>
       <c r="I41" s="3">
+        <v>22300</v>
+      </c>
+      <c r="J41" s="3">
         <v>23200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>10500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>17300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>22800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>15100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>10600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>15900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>20800</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,52 +2145,58 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>100</v>
+      </c>
+      <c r="E43" s="3">
         <v>400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>800</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H43" s="3">
+        <v>500</v>
+      </c>
+      <c r="I43" s="3">
         <v>200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2143,8 +2239,11 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2187,52 +2286,58 @@
       <c r="P45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>15100</v>
+      </c>
+      <c r="E46" s="3">
         <v>3300</v>
       </c>
-      <c r="E46" s="3">
-        <v>8600</v>
-      </c>
       <c r="F46" s="3">
+        <v>8500</v>
+      </c>
+      <c r="G46" s="3">
         <v>12700</v>
       </c>
-      <c r="G46" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H46" s="3">
-        <v>22600</v>
+        <v>13600</v>
       </c>
       <c r="I46" s="3">
+        <v>22500</v>
+      </c>
+      <c r="J46" s="3">
         <v>23800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>10900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>17900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>23100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>15900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>11700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>16700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>22000</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2275,52 +2380,58 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>13900</v>
+      </c>
+      <c r="E48" s="3">
         <v>14100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>14300</v>
       </c>
-      <c r="F48" s="3">
-        <v>13500</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>4</v>
+      <c r="G48" s="3">
+        <v>13400</v>
       </c>
       <c r="H48" s="3">
+        <v>13200</v>
+      </c>
+      <c r="I48" s="3">
         <v>13000</v>
       </c>
-      <c r="I48" s="3">
-        <v>12900</v>
-      </c>
       <c r="J48" s="3">
+        <v>12800</v>
+      </c>
+      <c r="K48" s="3">
         <v>12400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>11800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>8500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>6900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>5400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>3600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2363,8 +2474,11 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2521,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,8 +2568,11 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2460,16 +2580,16 @@
         <v>100</v>
       </c>
       <c r="E52" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F52" s="3">
         <v>300</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>4</v>
+      <c r="G52" s="3">
+        <v>300</v>
       </c>
       <c r="H52" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="I52" s="3">
         <v>200</v>
@@ -2484,7 +2604,7 @@
         <v>200</v>
       </c>
       <c r="M52" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N52" s="3">
         <v>300</v>
@@ -2495,8 +2615,11 @@
       <c r="P52" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2662,58 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>17600</v>
+        <v>29200</v>
       </c>
       <c r="E54" s="3">
+        <v>17500</v>
+      </c>
+      <c r="F54" s="3">
         <v>23100</v>
       </c>
-      <c r="F54" s="3">
-        <v>26500</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>4</v>
+      <c r="G54" s="3">
+        <v>26400</v>
       </c>
       <c r="H54" s="3">
-        <v>35700</v>
+        <v>27100</v>
       </c>
       <c r="I54" s="3">
+        <v>35600</v>
+      </c>
+      <c r="J54" s="3">
         <v>36800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>23400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>29900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>31800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>23000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>17300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>20500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>23800</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2730,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,60 +2749,64 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E57" s="3">
         <v>1000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3200</v>
       </c>
-      <c r="F57" s="3">
-        <v>1800</v>
-      </c>
       <c r="G57" s="3">
+        <v>1700</v>
+      </c>
+      <c r="H57" s="3">
         <v>1300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>5600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>5000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>6600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>18900</v>
+        <v>19400</v>
       </c>
       <c r="E58" s="3">
-        <v>200</v>
+        <v>18800</v>
       </c>
       <c r="F58" s="3">
         <v>200</v>
@@ -2692,8 +2826,8 @@
       <c r="K58" s="3">
         <v>200</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>4</v>
+      <c r="L58" s="3">
+        <v>200</v>
       </c>
       <c r="M58" s="3" t="s">
         <v>4</v>
@@ -2707,8 +2841,11 @@
       <c r="P58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2751,96 +2888,105 @@
       <c r="P59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>20500</v>
+      </c>
+      <c r="E60" s="3">
         <v>19800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1500</v>
       </c>
-      <c r="H60" s="3">
-        <v>5900</v>
-      </c>
       <c r="I60" s="3">
+        <v>5800</v>
+      </c>
+      <c r="J60" s="3">
         <v>900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>3100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>5200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>6600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E61" s="3">
         <v>1900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>20200</v>
       </c>
-      <c r="F61" s="3">
-        <v>39700</v>
-      </c>
       <c r="G61" s="3">
-        <v>38400</v>
+        <v>39600</v>
       </c>
       <c r="H61" s="3">
-        <v>40300</v>
+        <v>38300</v>
       </c>
       <c r="I61" s="3">
-        <v>35600</v>
+        <v>40200</v>
       </c>
       <c r="J61" s="3">
+        <v>35500</v>
+      </c>
+      <c r="K61" s="3">
         <v>36400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>28900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>28400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>12200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>5900</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2848,43 +2994,46 @@
         <v>400</v>
       </c>
       <c r="E62" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F62" s="3">
+        <v>0</v>
+      </c>
+      <c r="G62" s="3">
         <v>3900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
+        <v>6100</v>
+      </c>
+      <c r="I62" s="3">
+        <v>9600</v>
+      </c>
+      <c r="J62" s="3">
+        <v>6600</v>
+      </c>
+      <c r="K62" s="3">
         <v>6200</v>
       </c>
-      <c r="H62" s="3">
-        <v>9600</v>
-      </c>
-      <c r="I62" s="3">
-        <v>6600</v>
-      </c>
-      <c r="J62" s="3">
-        <v>6200</v>
-      </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>5000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>6300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>5900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>6100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>5900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>5400</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3076,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3123,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3170,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>22100</v>
+        <v>22800</v>
       </c>
       <c r="E66" s="3">
-        <v>23700</v>
+        <v>22000</v>
       </c>
       <c r="F66" s="3">
-        <v>45600</v>
+        <v>23600</v>
       </c>
       <c r="G66" s="3">
-        <v>46000</v>
+        <v>45500</v>
       </c>
       <c r="H66" s="3">
-        <v>55800</v>
+        <v>45900</v>
       </c>
       <c r="I66" s="3">
-        <v>43100</v>
+        <v>55700</v>
       </c>
       <c r="J66" s="3">
+        <v>43000</v>
+      </c>
+      <c r="K66" s="3">
         <v>45800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>39100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>41200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>18900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>12600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>8500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>7400</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3238,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3283,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3330,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3377,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3424,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-100200</v>
+        <v>-102600</v>
       </c>
       <c r="E72" s="3">
-        <v>-95900</v>
+        <v>-100000</v>
       </c>
       <c r="F72" s="3">
-        <v>-113000</v>
+        <v>-95700</v>
       </c>
       <c r="G72" s="3">
-        <v>-100000</v>
+        <v>-112700</v>
       </c>
       <c r="H72" s="3">
-        <v>-98900</v>
+        <v>-99800</v>
       </c>
       <c r="I72" s="3">
-        <v>-85600</v>
+        <v>-98700</v>
       </c>
       <c r="J72" s="3">
+        <v>-85400</v>
+      </c>
+      <c r="K72" s="3">
         <v>-79600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-63300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-63500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-47100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-46500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-39200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-36000</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3518,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3565,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3612,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E76" s="3">
         <v>-4500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-19100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-18900</v>
       </c>
-      <c r="H76" s="3">
-        <v>-20100</v>
-      </c>
       <c r="I76" s="3">
+        <v>-20000</v>
+      </c>
+      <c r="J76" s="3">
         <v>-6300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-22400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-9200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-9400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>4100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>4800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>12000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>16400</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3706,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-4400</v>
+        <v>-2500</v>
       </c>
       <c r="E81" s="3">
-        <v>17100</v>
+        <v>-4300</v>
       </c>
       <c r="F81" s="3">
-        <v>-13000</v>
+        <v>17000</v>
       </c>
       <c r="G81" s="3">
+        <v>-12900</v>
+      </c>
+      <c r="H81" s="3">
         <v>-1400</v>
       </c>
-      <c r="H81" s="3">
-        <v>-13300</v>
-      </c>
       <c r="I81" s="3">
+        <v>-13200</v>
+      </c>
+      <c r="J81" s="3">
         <v>-6000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-14600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-13800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-7300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-4000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-3600</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,8 +3826,9 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3639,8 +3838,8 @@
       <c r="E83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F83" s="3">
-        <v>200</v>
+      <c r="F83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G83" s="3">
         <v>200</v>
@@ -3652,28 +3851,31 @@
         <v>200</v>
       </c>
       <c r="J83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K83" s="3">
         <v>100</v>
       </c>
       <c r="L83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83" s="3">
         <v>-100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>100</v>
       </c>
-      <c r="O83" s="3">
-        <v>0</v>
-      </c>
-      <c r="P83" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3918,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3965,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4012,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4059,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,8 +4106,11 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3903,41 +4120,44 @@
       <c r="E89" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F89" s="3">
-        <v>-3700</v>
+      <c r="F89" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G89" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="H89" s="3">
         <v>-10600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-5300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-7700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-6700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-4000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-1900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-11000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-2600</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,8 +4174,9 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3965,41 +4186,44 @@
       <c r="E91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F91" s="3">
-        <v>-400</v>
+      <c r="F91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G91" s="3">
         <v>-400</v>
       </c>
       <c r="H91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="I91" s="3">
         <v>-300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-2000</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4266,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,8 +4313,11 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4097,41 +4327,44 @@
       <c r="E94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F94" s="3">
+      <c r="F94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G94" s="3">
         <v>-400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-2000</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4381,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4426,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4473,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4520,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,8 +4567,11 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4335,41 +4581,44 @@
       <c r="E100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F100" s="3">
+      <c r="F100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G100" s="3">
         <v>3100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>4800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>21600</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>-100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>10100</v>
-      </c>
-      <c r="M100" s="3">
-        <v>7200</v>
       </c>
       <c r="N100" s="3">
         <v>7200</v>
       </c>
       <c r="O100" s="3">
-        <v>0</v>
-      </c>
-      <c r="P100" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+        <v>7200</v>
+      </c>
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4379,41 +4628,44 @@
       <c r="E101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F101" s="3">
+      <c r="F101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G101" s="3">
         <v>-200</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>600</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-500</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>400</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>100</v>
       </c>
-      <c r="P101" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4423,37 +4675,40 @@
       <c r="E102" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F102" s="3">
+      <c r="F102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G102" s="3">
         <v>-1200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-9200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-900</v>
       </c>
-      <c r="I102" s="3">
-        <v>12800</v>
-      </c>
       <c r="J102" s="3">
+        <v>12700</v>
+      </c>
+      <c r="K102" s="3">
         <v>-7200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-5600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>6900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>4500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-5300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-4500</v>
       </c>
-      <c r="P102" s="3" t="s">
+      <c r="Q102" s="3" t="s">
         <v>4</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BVXV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BVXV_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="92">
   <si>
     <t>BVXV</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,78 +665,82 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -782,8 +786,11 @@
       <c r="Q8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -829,8 +836,11 @@
       <c r="Q9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -876,8 +886,11 @@
       <c r="Q10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -895,55 +908,59 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="E12" s="3">
-        <v>2400</v>
+        <v>900</v>
       </c>
       <c r="F12" s="3">
-        <v>3900</v>
+        <v>2500</v>
       </c>
       <c r="G12" s="3">
-        <v>3700</v>
+        <v>4000</v>
       </c>
       <c r="H12" s="3">
-        <v>5900</v>
+        <v>3800</v>
       </c>
       <c r="I12" s="3">
-        <v>9700</v>
+        <v>6000</v>
       </c>
       <c r="J12" s="3">
+        <v>10000</v>
+      </c>
+      <c r="K12" s="3">
         <v>5000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>4700</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1700</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>8000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>1200</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>8300</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>3300</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,8 +1006,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1036,8 +1056,11 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1083,8 +1106,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,55 +1125,59 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E17" s="3">
         <v>2100</v>
       </c>
-      <c r="E17" s="3">
-        <v>3700</v>
-      </c>
       <c r="F17" s="3">
-        <v>-17100</v>
+        <v>3800</v>
       </c>
       <c r="G17" s="3">
-        <v>5000</v>
+        <v>-17600</v>
       </c>
       <c r="H17" s="3">
-        <v>6200</v>
+        <v>5100</v>
       </c>
       <c r="I17" s="3">
-        <v>10000</v>
+        <v>6400</v>
       </c>
       <c r="J17" s="3">
+        <v>10300</v>
+      </c>
+      <c r="K17" s="3">
         <v>5800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>6100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>8400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>8700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1155,46 +1185,49 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>-3700</v>
+        <v>-2100</v>
       </c>
       <c r="F18" s="3">
-        <v>17100</v>
+        <v>-3800</v>
       </c>
       <c r="G18" s="3">
-        <v>-5000</v>
+        <v>17600</v>
       </c>
       <c r="H18" s="3">
-        <v>-6200</v>
+        <v>-5100</v>
       </c>
       <c r="I18" s="3">
-        <v>-10000</v>
+        <v>-6400</v>
       </c>
       <c r="J18" s="3">
+        <v>-10300</v>
+      </c>
+      <c r="K18" s="3">
         <v>-5800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-6100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-2200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-8400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-1700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-8700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-3600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-4300</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,8 +1245,9 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1221,46 +1255,49 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F20" s="3">
         <v>-600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-100</v>
       </c>
-      <c r="G20" s="3">
-        <v>-8000</v>
-      </c>
       <c r="H20" s="3">
-        <v>5000</v>
+        <v>-8200</v>
       </c>
       <c r="I20" s="3">
-        <v>-3200</v>
+        <v>5200</v>
       </c>
       <c r="J20" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="K20" s="3">
         <v>-100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-8500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>2300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-5400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>1000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>1500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1270,44 +1307,47 @@
       <c r="E21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G21" s="3">
-        <v>-12700</v>
+      <c r="F21" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H21" s="3">
-        <v>-1000</v>
+        <v>-13100</v>
       </c>
       <c r="I21" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="J21" s="3">
         <v>-13100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-5800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-14500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-13800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-7200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-4000</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1353,55 +1393,61 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-2500</v>
+        <v>-3800</v>
       </c>
       <c r="E23" s="3">
-        <v>-4300</v>
+        <v>-2600</v>
       </c>
       <c r="F23" s="3">
-        <v>17000</v>
+        <v>-4500</v>
       </c>
       <c r="G23" s="3">
-        <v>-12900</v>
+        <v>17500</v>
       </c>
       <c r="H23" s="3">
-        <v>-1100</v>
+        <v>-13300</v>
       </c>
       <c r="I23" s="3">
-        <v>-13200</v>
+        <v>-1200</v>
       </c>
       <c r="J23" s="3">
+        <v>-13600</v>
+      </c>
+      <c r="K23" s="3">
         <v>-6000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-14600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-13800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-7300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-4000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-3600</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1447,8 +1493,11 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,102 +1543,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-2500</v>
+        <v>-3800</v>
       </c>
       <c r="E26" s="3">
-        <v>-4300</v>
+        <v>-2600</v>
       </c>
       <c r="F26" s="3">
-        <v>17000</v>
+        <v>-4500</v>
       </c>
       <c r="G26" s="3">
-        <v>-12900</v>
+        <v>17500</v>
       </c>
       <c r="H26" s="3">
-        <v>-1100</v>
+        <v>-13300</v>
       </c>
       <c r="I26" s="3">
-        <v>-13200</v>
+        <v>-1200</v>
       </c>
       <c r="J26" s="3">
+        <v>-13600</v>
+      </c>
+      <c r="K26" s="3">
         <v>-6000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-14600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-13800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-7300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-4000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-3600</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-2500</v>
+        <v>-3800</v>
       </c>
       <c r="E27" s="3">
-        <v>-4300</v>
+        <v>-2600</v>
       </c>
       <c r="F27" s="3">
-        <v>17000</v>
+        <v>-4500</v>
       </c>
       <c r="G27" s="3">
-        <v>-12900</v>
+        <v>17500</v>
       </c>
       <c r="H27" s="3">
-        <v>-1400</v>
+        <v>-13300</v>
       </c>
       <c r="I27" s="3">
-        <v>-13200</v>
+        <v>-1500</v>
       </c>
       <c r="J27" s="3">
+        <v>-13600</v>
+      </c>
+      <c r="K27" s="3">
         <v>-6000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-14600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-13800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-7300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-4000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-3600</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1693,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1682,8 +1743,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1793,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,8 +1843,11 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1785,93 +1855,99 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>500</v>
+      </c>
+      <c r="F32" s="3">
         <v>600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>100</v>
       </c>
-      <c r="G32" s="3">
-        <v>8000</v>
-      </c>
       <c r="H32" s="3">
-        <v>-5000</v>
+        <v>8200</v>
       </c>
       <c r="I32" s="3">
-        <v>3200</v>
+        <v>-5200</v>
       </c>
       <c r="J32" s="3">
+        <v>3300</v>
+      </c>
+      <c r="K32" s="3">
         <v>100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>8500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-2300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>5400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-1000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-1500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-2500</v>
+        <v>-3800</v>
       </c>
       <c r="E33" s="3">
-        <v>-4300</v>
+        <v>-2600</v>
       </c>
       <c r="F33" s="3">
-        <v>17000</v>
+        <v>-4500</v>
       </c>
       <c r="G33" s="3">
-        <v>-12900</v>
+        <v>17500</v>
       </c>
       <c r="H33" s="3">
-        <v>-1400</v>
+        <v>-13300</v>
       </c>
       <c r="I33" s="3">
-        <v>-13200</v>
+        <v>-1500</v>
       </c>
       <c r="J33" s="3">
+        <v>-13600</v>
+      </c>
+      <c r="K33" s="3">
         <v>-6000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-14600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-13800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-7300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-4000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-3600</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,107 +1993,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-2500</v>
+        <v>-3800</v>
       </c>
       <c r="E35" s="3">
-        <v>-4300</v>
+        <v>-2600</v>
       </c>
       <c r="F35" s="3">
-        <v>17000</v>
+        <v>-4500</v>
       </c>
       <c r="G35" s="3">
-        <v>-12900</v>
+        <v>17500</v>
       </c>
       <c r="H35" s="3">
-        <v>-1400</v>
+        <v>-13300</v>
       </c>
       <c r="I35" s="3">
-        <v>-13200</v>
+        <v>-1500</v>
       </c>
       <c r="J35" s="3">
+        <v>-13600</v>
+      </c>
+      <c r="K35" s="3">
         <v>-6000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-14600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-13800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-7300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-4000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-3600</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2120,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,55 +2140,59 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>15000</v>
+        <v>12600</v>
       </c>
       <c r="E41" s="3">
-        <v>2900</v>
+        <v>15400</v>
       </c>
       <c r="F41" s="3">
-        <v>7600</v>
+        <v>3000</v>
       </c>
       <c r="G41" s="3">
-        <v>11900</v>
+        <v>7800</v>
       </c>
       <c r="H41" s="3">
-        <v>13100</v>
+        <v>12300</v>
       </c>
       <c r="I41" s="3">
-        <v>22300</v>
+        <v>13500</v>
       </c>
       <c r="J41" s="3">
+        <v>23000</v>
+      </c>
+      <c r="K41" s="3">
         <v>23200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>10500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>17300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>22800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>15100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>10600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>15900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>20800</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2148,55 +2238,61 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>100</v>
+        <v>800</v>
       </c>
       <c r="E43" s="3">
+        <v>200</v>
+      </c>
+      <c r="F43" s="3">
         <v>400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2242,8 +2338,11 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2289,55 +2388,61 @@
       <c r="Q45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>15100</v>
+        <v>13500</v>
       </c>
       <c r="E46" s="3">
-        <v>3300</v>
+        <v>15500</v>
       </c>
       <c r="F46" s="3">
-        <v>8500</v>
+        <v>3400</v>
       </c>
       <c r="G46" s="3">
-        <v>12700</v>
+        <v>8800</v>
       </c>
       <c r="H46" s="3">
-        <v>13600</v>
+        <v>13100</v>
       </c>
       <c r="I46" s="3">
-        <v>22500</v>
+        <v>14000</v>
       </c>
       <c r="J46" s="3">
+        <v>23200</v>
+      </c>
+      <c r="K46" s="3">
         <v>23800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>10900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>17900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>23100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>15900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>11700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>16700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>22000</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2383,55 +2488,61 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>13900</v>
+        <v>14300</v>
       </c>
       <c r="E48" s="3">
-        <v>14100</v>
+        <v>14300</v>
       </c>
       <c r="F48" s="3">
-        <v>14300</v>
+        <v>14500</v>
       </c>
       <c r="G48" s="3">
-        <v>13400</v>
+        <v>14700</v>
       </c>
       <c r="H48" s="3">
-        <v>13200</v>
+        <v>13800</v>
       </c>
       <c r="I48" s="3">
-        <v>13000</v>
+        <v>13600</v>
       </c>
       <c r="J48" s="3">
+        <v>13300</v>
+      </c>
+      <c r="K48" s="3">
         <v>12800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>12400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>11800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>8500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>6900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>5400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>3600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2477,8 +2588,11 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2638,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,8 +2688,11 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2583,7 +2703,7 @@
         <v>100</v>
       </c>
       <c r="F52" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="G52" s="3">
         <v>300</v>
@@ -2592,7 +2712,7 @@
         <v>300</v>
       </c>
       <c r="I52" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="J52" s="3">
         <v>200</v>
@@ -2607,7 +2727,7 @@
         <v>200</v>
       </c>
       <c r="N52" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="O52" s="3">
         <v>300</v>
@@ -2618,8 +2738,11 @@
       <c r="Q52" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,55 +2788,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>29200</v>
+        <v>27900</v>
       </c>
       <c r="E54" s="3">
-        <v>17500</v>
+        <v>30000</v>
       </c>
       <c r="F54" s="3">
-        <v>23100</v>
+        <v>18000</v>
       </c>
       <c r="G54" s="3">
-        <v>26400</v>
+        <v>23700</v>
       </c>
       <c r="H54" s="3">
         <v>27100</v>
       </c>
       <c r="I54" s="3">
-        <v>35600</v>
+        <v>27800</v>
       </c>
       <c r="J54" s="3">
+        <v>36700</v>
+      </c>
+      <c r="K54" s="3">
         <v>36800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>23400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>29900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>31800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>23000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>17300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>20500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>23800</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2860,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,66 +2880,70 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1100</v>
+        <v>1400</v>
       </c>
       <c r="E57" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F57" s="3">
         <v>1000</v>
       </c>
-      <c r="F57" s="3">
-        <v>3200</v>
-      </c>
       <c r="G57" s="3">
-        <v>1700</v>
+        <v>3300</v>
       </c>
       <c r="H57" s="3">
+        <v>1800</v>
+      </c>
+      <c r="I57" s="3">
         <v>1300</v>
       </c>
-      <c r="I57" s="3">
-        <v>5600</v>
-      </c>
       <c r="J57" s="3">
+        <v>5800</v>
+      </c>
+      <c r="K57" s="3">
         <v>700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>5000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>6600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>19400</v>
+        <v>20600</v>
       </c>
       <c r="E58" s="3">
-        <v>18800</v>
+        <v>19900</v>
       </c>
       <c r="F58" s="3">
-        <v>200</v>
+        <v>19300</v>
       </c>
       <c r="G58" s="3">
         <v>200</v>
@@ -2829,8 +2963,8 @@
       <c r="L58" s="3">
         <v>200</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>4</v>
+      <c r="M58" s="3">
+        <v>200</v>
       </c>
       <c r="N58" s="3" t="s">
         <v>4</v>
@@ -2844,8 +2978,11 @@
       <c r="Q58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2891,102 +3028,111 @@
       <c r="Q59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>20500</v>
+        <v>22000</v>
       </c>
       <c r="E60" s="3">
-        <v>19800</v>
+        <v>21100</v>
       </c>
       <c r="F60" s="3">
-        <v>3400</v>
+        <v>20300</v>
       </c>
       <c r="G60" s="3">
+        <v>3500</v>
+      </c>
+      <c r="H60" s="3">
         <v>2000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1500</v>
       </c>
-      <c r="I60" s="3">
-        <v>5800</v>
-      </c>
       <c r="J60" s="3">
+        <v>6000</v>
+      </c>
+      <c r="K60" s="3">
         <v>900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>5200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>6600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="E61" s="3">
         <v>1900</v>
       </c>
       <c r="F61" s="3">
-        <v>20200</v>
+        <v>1900</v>
       </c>
       <c r="G61" s="3">
-        <v>39600</v>
+        <v>20700</v>
       </c>
       <c r="H61" s="3">
-        <v>38300</v>
+        <v>40700</v>
       </c>
       <c r="I61" s="3">
-        <v>40200</v>
+        <v>39400</v>
       </c>
       <c r="J61" s="3">
+        <v>41400</v>
+      </c>
+      <c r="K61" s="3">
         <v>35500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>36400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>28900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>28400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>12200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>5900</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2997,43 +3143,46 @@
         <v>400</v>
       </c>
       <c r="F62" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G62" s="3">
-        <v>3900</v>
+        <v>0</v>
       </c>
       <c r="H62" s="3">
+        <v>4000</v>
+      </c>
+      <c r="I62" s="3">
+        <v>6300</v>
+      </c>
+      <c r="J62" s="3">
+        <v>9900</v>
+      </c>
+      <c r="K62" s="3">
+        <v>6600</v>
+      </c>
+      <c r="L62" s="3">
+        <v>6200</v>
+      </c>
+      <c r="M62" s="3">
+        <v>5000</v>
+      </c>
+      <c r="N62" s="3">
+        <v>6300</v>
+      </c>
+      <c r="O62" s="3">
+        <v>5900</v>
+      </c>
+      <c r="P62" s="3">
         <v>6100</v>
       </c>
-      <c r="I62" s="3">
-        <v>9600</v>
-      </c>
-      <c r="J62" s="3">
-        <v>6600</v>
-      </c>
-      <c r="K62" s="3">
-        <v>6200</v>
-      </c>
-      <c r="L62" s="3">
-        <v>5000</v>
-      </c>
-      <c r="M62" s="3">
-        <v>6300</v>
-      </c>
-      <c r="N62" s="3">
+      <c r="Q62" s="3">
         <v>5900</v>
       </c>
-      <c r="O62" s="3">
-        <v>6100</v>
-      </c>
-      <c r="P62" s="3">
-        <v>5900</v>
-      </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>5400</v>
       </c>
     </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3228,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3278,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,55 +3328,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>22800</v>
+        <v>24300</v>
       </c>
       <c r="E66" s="3">
-        <v>22000</v>
+        <v>23400</v>
       </c>
       <c r="F66" s="3">
-        <v>23600</v>
+        <v>22600</v>
       </c>
       <c r="G66" s="3">
-        <v>45500</v>
+        <v>24300</v>
       </c>
       <c r="H66" s="3">
-        <v>45900</v>
+        <v>46800</v>
       </c>
       <c r="I66" s="3">
-        <v>55700</v>
+        <v>47200</v>
       </c>
       <c r="J66" s="3">
+        <v>57300</v>
+      </c>
+      <c r="K66" s="3">
         <v>43000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>45800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>39100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>41200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>18900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>12600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>8500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>7400</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3400,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3448,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3498,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3380,8 +3548,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,55 +3598,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-109300</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-105500</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-102900</v>
+      </c>
+      <c r="G72" s="3">
+        <v>-98400</v>
+      </c>
+      <c r="H72" s="3">
+        <v>-115900</v>
+      </c>
+      <c r="I72" s="3">
         <v>-102600</v>
       </c>
-      <c r="E72" s="3">
-        <v>-100000</v>
-      </c>
-      <c r="F72" s="3">
-        <v>-95700</v>
-      </c>
-      <c r="G72" s="3">
-        <v>-112700</v>
-      </c>
-      <c r="H72" s="3">
-        <v>-99800</v>
-      </c>
-      <c r="I72" s="3">
-        <v>-98700</v>
-      </c>
       <c r="J72" s="3">
+        <v>-101500</v>
+      </c>
+      <c r="K72" s="3">
         <v>-85400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-79600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-63300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-63500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-47100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-46500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-39200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-36000</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3698,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3748,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,55 +3798,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>6400</v>
+        <v>3600</v>
       </c>
       <c r="E76" s="3">
-        <v>-4500</v>
+        <v>6600</v>
       </c>
       <c r="F76" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="G76" s="3">
         <v>-600</v>
       </c>
-      <c r="G76" s="3">
-        <v>-19100</v>
-      </c>
       <c r="H76" s="3">
-        <v>-18900</v>
+        <v>-19600</v>
       </c>
       <c r="I76" s="3">
-        <v>-20000</v>
+        <v>-19400</v>
       </c>
       <c r="J76" s="3">
+        <v>-20600</v>
+      </c>
+      <c r="K76" s="3">
         <v>-6300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-22400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-9200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-9400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>4100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>4800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>12000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>16400</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,107 +3898,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-2500</v>
+        <v>-3800</v>
       </c>
       <c r="E81" s="3">
-        <v>-4300</v>
+        <v>-2600</v>
       </c>
       <c r="F81" s="3">
-        <v>17000</v>
+        <v>-4500</v>
       </c>
       <c r="G81" s="3">
-        <v>-12900</v>
+        <v>17500</v>
       </c>
       <c r="H81" s="3">
-        <v>-1400</v>
+        <v>-13300</v>
       </c>
       <c r="I81" s="3">
-        <v>-13200</v>
+        <v>-1500</v>
       </c>
       <c r="J81" s="3">
+        <v>-13600</v>
+      </c>
+      <c r="K81" s="3">
         <v>-6000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-14600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-13800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-7300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-4000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-3600</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,8 +4025,9 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3838,44 +4037,47 @@
       <c r="E83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G83" s="3">
-        <v>200</v>
+      <c r="F83" s="3">
+        <v>800</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H83" s="3">
         <v>200</v>
       </c>
       <c r="I83" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J83" s="3">
+        <v>500</v>
+      </c>
+      <c r="K83" s="3">
         <v>200</v>
-      </c>
-      <c r="J83" s="3">
-        <v>200</v>
-      </c>
-      <c r="K83" s="3">
-        <v>100</v>
       </c>
       <c r="L83" s="3">
         <v>100</v>
       </c>
       <c r="M83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N83" s="3">
+        <v>0</v>
+      </c>
+      <c r="O83" s="3">
         <v>-100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>100</v>
       </c>
-      <c r="P83" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q83" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4123,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4173,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4223,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4273,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,8 +4323,11 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4120,44 +4337,47 @@
       <c r="E89" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G89" s="3">
-        <v>-3600</v>
+      <c r="F89" s="3">
+        <v>-23000</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H89" s="3">
-        <v>-10600</v>
+        <v>-3700</v>
       </c>
       <c r="I89" s="3">
-        <v>-5300</v>
+        <v>13500</v>
       </c>
       <c r="J89" s="3">
+        <v>-24400</v>
+      </c>
+      <c r="K89" s="3">
         <v>-7700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-6700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-4000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-1900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-11000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-2600</v>
       </c>
-      <c r="Q89" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,8 +4395,9 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4186,44 +4407,47 @@
       <c r="E91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-400</v>
+      <c r="F91" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H91" s="3">
         <v>-400</v>
       </c>
       <c r="I91" s="3">
+        <v>1900</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="K91" s="3">
+        <v>-700</v>
+      </c>
+      <c r="L91" s="3">
         <v>-300</v>
       </c>
-      <c r="J91" s="3">
-        <v>-700</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-300</v>
-      </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4493,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,8 +4543,11 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4327,44 +4557,47 @@
       <c r="E94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G94" s="3">
+      <c r="F94" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H94" s="3">
         <v>-400</v>
       </c>
-      <c r="H94" s="3">
-        <v>-500</v>
-      </c>
       <c r="I94" s="3">
+        <v>1800</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="K94" s="3">
+        <v>-700</v>
+      </c>
+      <c r="L94" s="3">
         <v>-300</v>
       </c>
-      <c r="J94" s="3">
-        <v>-700</v>
-      </c>
-      <c r="K94" s="3">
-        <v>-300</v>
-      </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,8 +4615,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4429,8 +4663,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4713,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +4763,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,8 +4813,11 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4581,44 +4827,47 @@
       <c r="E100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G100" s="3">
-        <v>3100</v>
+      <c r="F100" s="3">
+        <v>4300</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H100" s="3">
-        <v>1300</v>
+        <v>3200</v>
       </c>
       <c r="I100" s="3">
-        <v>4800</v>
+        <v>-25700</v>
       </c>
       <c r="J100" s="3">
+        <v>27000</v>
+      </c>
+      <c r="K100" s="3">
         <v>21600</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>-100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>10100</v>
-      </c>
-      <c r="N100" s="3">
-        <v>7200</v>
       </c>
       <c r="O100" s="3">
         <v>7200</v>
       </c>
       <c r="P100" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q100" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+        <v>7200</v>
+      </c>
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4628,44 +4877,47 @@
       <c r="E101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G101" s="3">
+      <c r="F101" s="3">
+        <v>500</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H101" s="3">
         <v>-200</v>
       </c>
-      <c r="H101" s="3">
-        <v>600</v>
-      </c>
       <c r="I101" s="3">
+        <v>2000</v>
+      </c>
+      <c r="J101" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="K101" s="3">
+        <v>-500</v>
+      </c>
+      <c r="L101" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M101" s="3">
+        <v>-500</v>
+      </c>
+      <c r="N101" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O101" s="3">
         <v>-100</v>
       </c>
-      <c r="J101" s="3">
-        <v>-500</v>
-      </c>
-      <c r="K101" s="3">
-        <v>-200</v>
-      </c>
-      <c r="L101" s="3">
-        <v>-500</v>
-      </c>
-      <c r="M101" s="3">
-        <v>-200</v>
-      </c>
-      <c r="N101" s="3">
-        <v>-100</v>
-      </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>400</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>100</v>
       </c>
-      <c r="Q101" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4675,40 +4927,43 @@
       <c r="E102" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G102" s="3">
+      <c r="F102" s="3">
+        <v>-20000</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H102" s="3">
         <v>-1200</v>
       </c>
-      <c r="H102" s="3">
-        <v>-9200</v>
-      </c>
       <c r="I102" s="3">
-        <v>-900</v>
+        <v>-8400</v>
       </c>
       <c r="J102" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="K102" s="3">
         <v>12700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-7200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-5600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>6900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>4500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-5300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-4500</v>
       </c>
-      <c r="Q102" s="3" t="s">
+      <c r="R102" s="3" t="s">
         <v>4</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BVXV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BVXV_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="92">
   <si>
     <t>BVXV</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,82 +665,86 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -789,8 +793,11 @@
       <c r="R8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -839,8 +846,11 @@
       <c r="R9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -889,8 +899,11 @@
       <c r="R10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -909,8 +922,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -918,49 +932,52 @@
         <v>600</v>
       </c>
       <c r="E12" s="3">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="F12" s="3">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="G12" s="3">
+        <v>2400</v>
+      </c>
+      <c r="H12" s="3">
+        <v>3900</v>
+      </c>
+      <c r="I12" s="3">
+        <v>3700</v>
+      </c>
+      <c r="J12" s="3">
+        <v>5900</v>
+      </c>
+      <c r="K12" s="3">
+        <v>10000</v>
+      </c>
+      <c r="L12" s="3">
+        <v>5000</v>
+      </c>
+      <c r="M12" s="3">
+        <v>4700</v>
+      </c>
+      <c r="N12" s="3">
+        <v>1700</v>
+      </c>
+      <c r="O12" s="3">
+        <v>8000</v>
+      </c>
+      <c r="P12" s="3">
+        <v>1200</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>8300</v>
+      </c>
+      <c r="R12" s="3">
+        <v>3300</v>
+      </c>
+      <c r="S12" s="3">
         <v>4000</v>
       </c>
-      <c r="H12" s="3">
-        <v>3800</v>
-      </c>
-      <c r="I12" s="3">
-        <v>6000</v>
-      </c>
-      <c r="J12" s="3">
-        <v>10000</v>
-      </c>
-      <c r="K12" s="3">
-        <v>5000</v>
-      </c>
-      <c r="L12" s="3">
-        <v>4700</v>
-      </c>
-      <c r="M12" s="3">
-        <v>1700</v>
-      </c>
-      <c r="N12" s="3">
-        <v>8000</v>
-      </c>
-      <c r="O12" s="3">
-        <v>1200</v>
-      </c>
-      <c r="P12" s="3">
-        <v>8300</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>3300</v>
-      </c>
-      <c r="R12" s="3">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1009,8 +1026,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1059,8 +1079,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1109,8 +1132,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1126,58 +1152,62 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2800</v>
+        <v>2500</v>
       </c>
       <c r="E17" s="3">
+        <v>2700</v>
+      </c>
+      <c r="F17" s="3">
         <v>2100</v>
       </c>
-      <c r="F17" s="3">
-        <v>3800</v>
-      </c>
       <c r="G17" s="3">
-        <v>-17600</v>
+        <v>3700</v>
       </c>
       <c r="H17" s="3">
-        <v>5100</v>
+        <v>-17100</v>
       </c>
       <c r="I17" s="3">
-        <v>6400</v>
+        <v>4900</v>
       </c>
       <c r="J17" s="3">
+        <v>6200</v>
+      </c>
+      <c r="K17" s="3">
         <v>10300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>5800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>6100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>8400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>8700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1185,49 +1215,52 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="F18" s="3">
         <v>-2100</v>
       </c>
-      <c r="F18" s="3">
-        <v>-3800</v>
-      </c>
       <c r="G18" s="3">
-        <v>17600</v>
+        <v>-3700</v>
       </c>
       <c r="H18" s="3">
-        <v>-5100</v>
+        <v>17100</v>
       </c>
       <c r="I18" s="3">
-        <v>-6400</v>
+        <v>-4900</v>
       </c>
       <c r="J18" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="K18" s="3">
         <v>-10300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-5800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-6100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-2200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-8400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-1700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-8700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-3600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-4300</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1246,8 +1279,9 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1255,49 +1289,52 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
-        <v>-500</v>
+        <v>-1000</v>
       </c>
       <c r="F20" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G20" s="3">
         <v>-600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-100</v>
       </c>
-      <c r="H20" s="3">
-        <v>-8200</v>
-      </c>
       <c r="I20" s="3">
-        <v>5200</v>
+        <v>-8000</v>
       </c>
       <c r="J20" s="3">
+        <v>5000</v>
+      </c>
+      <c r="K20" s="3">
         <v>-3300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-8500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>2300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-5400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>1000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>1500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1307,47 +1344,50 @@
       <c r="E21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F21" s="3">
-        <v>-3700</v>
+      <c r="F21" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I21" s="3">
+        <v>-12700</v>
+      </c>
+      <c r="J21" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="K21" s="3">
         <v>-13100</v>
       </c>
-      <c r="I21" s="3">
-        <v>-1500</v>
-      </c>
-      <c r="J21" s="3">
-        <v>-13100</v>
-      </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-5800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-14500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-13800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-7200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-4000</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1396,58 +1436,64 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-3800</v>
+        <v>-2800</v>
       </c>
       <c r="E23" s="3">
-        <v>-2600</v>
+        <v>-3700</v>
       </c>
       <c r="F23" s="3">
-        <v>-4500</v>
+        <v>-2500</v>
       </c>
       <c r="G23" s="3">
-        <v>17500</v>
+        <v>-4300</v>
       </c>
       <c r="H23" s="3">
-        <v>-13300</v>
+        <v>17000</v>
       </c>
       <c r="I23" s="3">
-        <v>-1200</v>
+        <v>-12900</v>
       </c>
       <c r="J23" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="K23" s="3">
         <v>-13600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-6000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-14600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-13800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-7300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-4000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-3600</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1496,8 +1542,11 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1546,108 +1595,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-3800</v>
+        <v>-2800</v>
       </c>
       <c r="E26" s="3">
-        <v>-2600</v>
+        <v>-3700</v>
       </c>
       <c r="F26" s="3">
-        <v>-4500</v>
+        <v>-2500</v>
       </c>
       <c r="G26" s="3">
-        <v>17500</v>
+        <v>-4300</v>
       </c>
       <c r="H26" s="3">
-        <v>-13300</v>
+        <v>17000</v>
       </c>
       <c r="I26" s="3">
-        <v>-1200</v>
+        <v>-12900</v>
       </c>
       <c r="J26" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="K26" s="3">
         <v>-13600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-6000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-14600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-13800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-7300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-4000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-3600</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-3800</v>
+        <v>-2800</v>
       </c>
       <c r="E27" s="3">
-        <v>-2600</v>
+        <v>-3700</v>
       </c>
       <c r="F27" s="3">
-        <v>-4500</v>
+        <v>-2500</v>
       </c>
       <c r="G27" s="3">
-        <v>17500</v>
+        <v>-4300</v>
       </c>
       <c r="H27" s="3">
-        <v>-13300</v>
+        <v>17000</v>
       </c>
       <c r="I27" s="3">
-        <v>-1500</v>
+        <v>-12900</v>
       </c>
       <c r="J27" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="K27" s="3">
         <v>-13600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-6000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-14600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-13800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-7300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-4000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-3600</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1696,8 +1754,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1746,8 +1807,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1796,8 +1860,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1846,8 +1913,11 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1855,99 +1925,105 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="F32" s="3">
+        <v>400</v>
+      </c>
+      <c r="G32" s="3">
         <v>600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>100</v>
       </c>
-      <c r="H32" s="3">
-        <v>8200</v>
-      </c>
       <c r="I32" s="3">
-        <v>-5200</v>
+        <v>8000</v>
       </c>
       <c r="J32" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="K32" s="3">
         <v>3300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>8500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-2300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>5400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-1000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-3800</v>
+        <v>-2800</v>
       </c>
       <c r="E33" s="3">
-        <v>-2600</v>
+        <v>-3700</v>
       </c>
       <c r="F33" s="3">
-        <v>-4500</v>
+        <v>-2500</v>
       </c>
       <c r="G33" s="3">
-        <v>17500</v>
+        <v>-4300</v>
       </c>
       <c r="H33" s="3">
-        <v>-13300</v>
+        <v>17000</v>
       </c>
       <c r="I33" s="3">
-        <v>-1500</v>
+        <v>-12900</v>
       </c>
       <c r="J33" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="K33" s="3">
         <v>-13600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-6000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-14600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-13800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-7300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-4000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-3600</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1996,113 +2072,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-3800</v>
+        <v>-2800</v>
       </c>
       <c r="E35" s="3">
-        <v>-2600</v>
+        <v>-3700</v>
       </c>
       <c r="F35" s="3">
-        <v>-4500</v>
+        <v>-2500</v>
       </c>
       <c r="G35" s="3">
-        <v>17500</v>
+        <v>-4300</v>
       </c>
       <c r="H35" s="3">
-        <v>-13300</v>
+        <v>17000</v>
       </c>
       <c r="I35" s="3">
-        <v>-1500</v>
+        <v>-12900</v>
       </c>
       <c r="J35" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="K35" s="3">
         <v>-13600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-6000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-14600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-13800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-7300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-4000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-3600</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2121,8 +2206,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2141,58 +2227,62 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>12600</v>
+        <v>10700</v>
       </c>
       <c r="E41" s="3">
-        <v>15400</v>
+        <v>12300</v>
       </c>
       <c r="F41" s="3">
-        <v>3000</v>
+        <v>14900</v>
       </c>
       <c r="G41" s="3">
-        <v>7800</v>
+        <v>2900</v>
       </c>
       <c r="H41" s="3">
-        <v>12300</v>
+        <v>7600</v>
       </c>
       <c r="I41" s="3">
-        <v>13500</v>
+        <v>11900</v>
       </c>
       <c r="J41" s="3">
+        <v>13100</v>
+      </c>
+      <c r="K41" s="3">
         <v>23000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>23200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>10500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>17300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>22800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>15100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>10600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>15900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>20800</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2241,58 +2331,64 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>400</v>
+      </c>
+      <c r="E43" s="3">
         <v>800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
+        <v>100</v>
+      </c>
+      <c r="G43" s="3">
+        <v>400</v>
+      </c>
+      <c r="H43" s="3">
+        <v>900</v>
+      </c>
+      <c r="I43" s="3">
+        <v>800</v>
+      </c>
+      <c r="J43" s="3">
+        <v>500</v>
+      </c>
+      <c r="K43" s="3">
         <v>200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="L43" s="3">
+        <v>600</v>
+      </c>
+      <c r="M43" s="3">
         <v>400</v>
       </c>
-      <c r="G43" s="3">
-        <v>900</v>
-      </c>
-      <c r="H43" s="3">
+      <c r="N43" s="3">
+        <v>600</v>
+      </c>
+      <c r="O43" s="3">
+        <v>300</v>
+      </c>
+      <c r="P43" s="3">
         <v>800</v>
       </c>
-      <c r="I43" s="3">
-        <v>500</v>
-      </c>
-      <c r="J43" s="3">
-        <v>200</v>
-      </c>
-      <c r="K43" s="3">
-        <v>600</v>
-      </c>
-      <c r="L43" s="3">
-        <v>400</v>
-      </c>
-      <c r="M43" s="3">
-        <v>600</v>
-      </c>
-      <c r="N43" s="3">
-        <v>300</v>
-      </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
+        <v>1200</v>
+      </c>
+      <c r="R43" s="3">
         <v>800</v>
       </c>
-      <c r="P43" s="3">
-        <v>1200</v>
-      </c>
-      <c r="Q43" s="3">
-        <v>800</v>
-      </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2341,8 +2437,11 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2391,58 +2490,64 @@
       <c r="R45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>11100</v>
+      </c>
+      <c r="E46" s="3">
+        <v>13100</v>
+      </c>
+      <c r="F46" s="3">
+        <v>15100</v>
+      </c>
+      <c r="G46" s="3">
+        <v>3300</v>
+      </c>
+      <c r="H46" s="3">
+        <v>8500</v>
+      </c>
+      <c r="I46" s="3">
+        <v>12700</v>
+      </c>
+      <c r="J46" s="3">
         <v>13500</v>
       </c>
-      <c r="E46" s="3">
-        <v>15500</v>
-      </c>
-      <c r="F46" s="3">
-        <v>3400</v>
-      </c>
-      <c r="G46" s="3">
-        <v>8800</v>
-      </c>
-      <c r="H46" s="3">
-        <v>13100</v>
-      </c>
-      <c r="I46" s="3">
-        <v>14000</v>
-      </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>23200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>23800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>10900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>17900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>23100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>15900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>11700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>16700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>22000</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2491,58 +2596,64 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>14300</v>
+        <v>13700</v>
       </c>
       <c r="E48" s="3">
-        <v>14300</v>
+        <v>13900</v>
       </c>
       <c r="F48" s="3">
-        <v>14500</v>
+        <v>13900</v>
       </c>
       <c r="G48" s="3">
-        <v>14700</v>
+        <v>14100</v>
       </c>
       <c r="H48" s="3">
-        <v>13800</v>
+        <v>14200</v>
       </c>
       <c r="I48" s="3">
-        <v>13600</v>
+        <v>13400</v>
       </c>
       <c r="J48" s="3">
+        <v>13200</v>
+      </c>
+      <c r="K48" s="3">
         <v>13300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>12800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>12400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>11800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>8500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>6900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>5400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>3600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2591,8 +2702,11 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2641,8 +2755,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2691,8 +2808,11 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2706,7 +2826,7 @@
         <v>100</v>
       </c>
       <c r="G52" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="H52" s="3">
         <v>300</v>
@@ -2715,7 +2835,7 @@
         <v>300</v>
       </c>
       <c r="J52" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K52" s="3">
         <v>200</v>
@@ -2730,7 +2850,7 @@
         <v>200</v>
       </c>
       <c r="O52" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="P52" s="3">
         <v>300</v>
@@ -2741,8 +2861,11 @@
       <c r="R52" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2791,58 +2914,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>27900</v>
+        <v>24900</v>
       </c>
       <c r="E54" s="3">
-        <v>30000</v>
+        <v>27100</v>
       </c>
       <c r="F54" s="3">
-        <v>18000</v>
+        <v>29100</v>
       </c>
       <c r="G54" s="3">
-        <v>23700</v>
+        <v>17500</v>
       </c>
       <c r="H54" s="3">
-        <v>27100</v>
+        <v>23000</v>
       </c>
       <c r="I54" s="3">
-        <v>27800</v>
+        <v>26400</v>
       </c>
       <c r="J54" s="3">
+        <v>27000</v>
+      </c>
+      <c r="K54" s="3">
         <v>36700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>36800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>23400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>29900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>31800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>23000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>17300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>20500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>23800</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2861,8 +2990,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2881,72 +3011,76 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="E57" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="F57" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G57" s="3">
         <v>1000</v>
       </c>
-      <c r="G57" s="3">
-        <v>3300</v>
-      </c>
       <c r="H57" s="3">
-        <v>1800</v>
+        <v>3200</v>
       </c>
       <c r="I57" s="3">
+        <v>1700</v>
+      </c>
+      <c r="J57" s="3">
         <v>1300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>5800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>5000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>6600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>20600</v>
+        <v>20100</v>
       </c>
       <c r="E58" s="3">
-        <v>19900</v>
+        <v>20000</v>
       </c>
       <c r="F58" s="3">
-        <v>19300</v>
+        <v>19400</v>
       </c>
       <c r="G58" s="3">
-        <v>200</v>
+        <v>18800</v>
       </c>
       <c r="H58" s="3">
         <v>200</v>
@@ -2966,8 +3100,8 @@
       <c r="M58" s="3">
         <v>200</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>4</v>
+      <c r="N58" s="3">
+        <v>200</v>
       </c>
       <c r="O58" s="3" t="s">
         <v>4</v>
@@ -2981,8 +3115,11 @@
       <c r="R58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3031,113 +3168,122 @@
       <c r="R59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>22000</v>
+        <v>21600</v>
       </c>
       <c r="E60" s="3">
-        <v>21100</v>
+        <v>21300</v>
       </c>
       <c r="F60" s="3">
-        <v>20300</v>
+        <v>20500</v>
       </c>
       <c r="G60" s="3">
-        <v>3500</v>
+        <v>19700</v>
       </c>
       <c r="H60" s="3">
+        <v>3400</v>
+      </c>
+      <c r="I60" s="3">
         <v>2000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>6000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>5200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>6600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="E61" s="3">
         <v>1900</v>
       </c>
       <c r="F61" s="3">
+        <v>1800</v>
+      </c>
+      <c r="G61" s="3">
         <v>1900</v>
       </c>
-      <c r="G61" s="3">
-        <v>20700</v>
-      </c>
       <c r="H61" s="3">
-        <v>40700</v>
+        <v>20200</v>
       </c>
       <c r="I61" s="3">
-        <v>39400</v>
+        <v>39500</v>
       </c>
       <c r="J61" s="3">
+        <v>38300</v>
+      </c>
+      <c r="K61" s="3">
         <v>41400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>35500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>36400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>28900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>28400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>12200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>5900</v>
       </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="E62" s="3">
         <v>400</v>
@@ -3146,43 +3292,46 @@
         <v>400</v>
       </c>
       <c r="G62" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H62" s="3">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="I62" s="3">
+        <v>3900</v>
+      </c>
+      <c r="J62" s="3">
+        <v>6100</v>
+      </c>
+      <c r="K62" s="3">
+        <v>9900</v>
+      </c>
+      <c r="L62" s="3">
+        <v>6600</v>
+      </c>
+      <c r="M62" s="3">
+        <v>6200</v>
+      </c>
+      <c r="N62" s="3">
+        <v>5000</v>
+      </c>
+      <c r="O62" s="3">
         <v>6300</v>
       </c>
-      <c r="J62" s="3">
-        <v>9900</v>
-      </c>
-      <c r="K62" s="3">
-        <v>6600</v>
-      </c>
-      <c r="L62" s="3">
-        <v>6200</v>
-      </c>
-      <c r="M62" s="3">
-        <v>5000</v>
-      </c>
-      <c r="N62" s="3">
-        <v>6300</v>
-      </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>5900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>6100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>5900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>5400</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3231,8 +3380,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3281,8 +3433,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3331,58 +3486,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>24300</v>
+        <v>23600</v>
       </c>
       <c r="E66" s="3">
-        <v>23400</v>
+        <v>23600</v>
       </c>
       <c r="F66" s="3">
-        <v>22600</v>
+        <v>22700</v>
       </c>
       <c r="G66" s="3">
-        <v>24300</v>
+        <v>22000</v>
       </c>
       <c r="H66" s="3">
-        <v>46800</v>
+        <v>23600</v>
       </c>
       <c r="I66" s="3">
-        <v>47200</v>
+        <v>45400</v>
       </c>
       <c r="J66" s="3">
+        <v>45900</v>
+      </c>
+      <c r="K66" s="3">
         <v>57300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>43000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>45800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>39100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>41200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>18900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>12600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>8500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>7400</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3401,8 +3562,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3451,8 +3613,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3501,8 +3666,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3551,8 +3719,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3601,58 +3772,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-109300</v>
+        <v>-108900</v>
       </c>
       <c r="E72" s="3">
-        <v>-105500</v>
+        <v>-106100</v>
       </c>
       <c r="F72" s="3">
-        <v>-102900</v>
+        <v>-102400</v>
       </c>
       <c r="G72" s="3">
-        <v>-98400</v>
+        <v>-99900</v>
       </c>
       <c r="H72" s="3">
-        <v>-115900</v>
+        <v>-95600</v>
       </c>
       <c r="I72" s="3">
-        <v>-102600</v>
+        <v>-112600</v>
       </c>
       <c r="J72" s="3">
+        <v>-99700</v>
+      </c>
+      <c r="K72" s="3">
         <v>-101500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-85400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-79600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-63300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-63500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-47100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-46500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-39200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-36000</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3701,8 +3878,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3751,8 +3931,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3801,58 +3984,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3600</v>
+        <v>1300</v>
       </c>
       <c r="E76" s="3">
-        <v>6600</v>
+        <v>3500</v>
       </c>
       <c r="F76" s="3">
-        <v>-4600</v>
+        <v>6400</v>
       </c>
       <c r="G76" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="H76" s="3">
         <v>-600</v>
       </c>
-      <c r="H76" s="3">
-        <v>-19600</v>
-      </c>
       <c r="I76" s="3">
-        <v>-19400</v>
+        <v>-19000</v>
       </c>
       <c r="J76" s="3">
+        <v>-18900</v>
+      </c>
+      <c r="K76" s="3">
         <v>-20600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-6300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-22400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-9200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-9400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>4100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>4800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>12000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>16400</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3901,113 +4090,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-3800</v>
+        <v>-2800</v>
       </c>
       <c r="E81" s="3">
-        <v>-2600</v>
+        <v>-3700</v>
       </c>
       <c r="F81" s="3">
-        <v>-4500</v>
+        <v>-2500</v>
       </c>
       <c r="G81" s="3">
-        <v>17500</v>
+        <v>-4300</v>
       </c>
       <c r="H81" s="3">
-        <v>-13300</v>
+        <v>17000</v>
       </c>
       <c r="I81" s="3">
-        <v>-1500</v>
+        <v>-12900</v>
       </c>
       <c r="J81" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="K81" s="3">
         <v>-13600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-6000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-14600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-13800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-7300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-4000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-3600</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4026,8 +4224,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4037,47 +4236,50 @@
       <c r="E83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F83" s="3">
-        <v>800</v>
+      <c r="F83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H83" s="3">
+      <c r="H83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I83" s="3">
         <v>200</v>
       </c>
-      <c r="I83" s="3">
-        <v>-300</v>
-      </c>
       <c r="J83" s="3">
+        <v>200</v>
+      </c>
+      <c r="K83" s="3">
         <v>500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>200</v>
-      </c>
-      <c r="L83" s="3">
-        <v>100</v>
       </c>
       <c r="M83" s="3">
         <v>100</v>
       </c>
       <c r="N83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O83" s="3">
+        <v>0</v>
+      </c>
+      <c r="P83" s="3">
         <v>-100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>100</v>
       </c>
-      <c r="Q83" s="3">
-        <v>0</v>
-      </c>
-      <c r="R83" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+      <c r="S83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4126,8 +4328,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4176,8 +4381,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4226,8 +4434,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4276,8 +4487,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4326,8 +4540,11 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4337,47 +4554,50 @@
       <c r="E89" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F89" s="3">
-        <v>-23000</v>
+      <c r="F89" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H89" s="3">
-        <v>-3700</v>
+      <c r="H89" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I89" s="3">
-        <v>13500</v>
+        <v>-3600</v>
       </c>
       <c r="J89" s="3">
+        <v>-10600</v>
+      </c>
+      <c r="K89" s="3">
         <v>-24400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-7700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-6700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-4000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-1900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-11000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-2600</v>
       </c>
-      <c r="R89" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4396,8 +4616,9 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4407,47 +4628,50 @@
       <c r="E91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F91" s="3">
+      <c r="F91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="K91" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="L91" s="3">
+        <v>-700</v>
+      </c>
+      <c r="M91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N91" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="O91" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="P91" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-1900</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-400</v>
-      </c>
-      <c r="I91" s="3">
-        <v>1900</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-2400</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-700</v>
-      </c>
-      <c r="L91" s="3">
-        <v>-300</v>
-      </c>
-      <c r="M91" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="N91" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="O91" s="3">
-        <v>-1700</v>
-      </c>
-      <c r="P91" s="3">
-        <v>-1900</v>
-      </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-2000</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4496,8 +4720,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4546,8 +4773,11 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4557,47 +4787,50 @@
       <c r="E94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F94" s="3">
+      <c r="F94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-500</v>
+      </c>
+      <c r="K94" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="L94" s="3">
+        <v>-700</v>
+      </c>
+      <c r="M94" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N94" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="O94" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="P94" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-1900</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H94" s="3">
-        <v>-400</v>
-      </c>
-      <c r="I94" s="3">
-        <v>1800</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-2300</v>
-      </c>
-      <c r="K94" s="3">
-        <v>-700</v>
-      </c>
-      <c r="L94" s="3">
-        <v>-300</v>
-      </c>
-      <c r="M94" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="N94" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="O94" s="3">
-        <v>-1700</v>
-      </c>
-      <c r="P94" s="3">
-        <v>-1900</v>
-      </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-2000</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4616,8 +4849,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4666,8 +4900,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4716,8 +4953,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4766,8 +5006,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4816,8 +5059,11 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4827,47 +5073,50 @@
       <c r="E100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F100" s="3">
-        <v>4300</v>
+      <c r="F100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H100" s="3">
-        <v>3200</v>
+      <c r="H100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I100" s="3">
-        <v>-25700</v>
+        <v>3100</v>
       </c>
       <c r="J100" s="3">
+        <v>1300</v>
+      </c>
+      <c r="K100" s="3">
         <v>27000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>21600</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>-100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>10100</v>
-      </c>
-      <c r="O100" s="3">
-        <v>7200</v>
       </c>
       <c r="P100" s="3">
         <v>7200</v>
       </c>
       <c r="Q100" s="3">
-        <v>0</v>
-      </c>
-      <c r="R100" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+        <v>7200</v>
+      </c>
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4877,47 +5126,50 @@
       <c r="E101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F101" s="3">
-        <v>500</v>
+      <c r="F101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H101" s="3">
+      <c r="H101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I101" s="3">
         <v>-200</v>
       </c>
-      <c r="I101" s="3">
-        <v>2000</v>
-      </c>
       <c r="J101" s="3">
+        <v>600</v>
+      </c>
+      <c r="K101" s="3">
         <v>-1400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-500</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>400</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>100</v>
       </c>
-      <c r="R101" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4927,43 +5179,46 @@
       <c r="E102" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F102" s="3">
-        <v>-20000</v>
+      <c r="F102" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G102" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H102" s="3">
+      <c r="H102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I102" s="3">
         <v>-1200</v>
       </c>
-      <c r="I102" s="3">
-        <v>-8400</v>
-      </c>
       <c r="J102" s="3">
+        <v>-9200</v>
+      </c>
+      <c r="K102" s="3">
         <v>-1100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>12700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-7200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-5600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>6900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>4500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-5300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-4500</v>
       </c>
-      <c r="R102" s="3" t="s">
+      <c r="S102" s="3" t="s">
         <v>4</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BVXV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BVXV_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="92">
   <si>
     <t>BVXV</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,86 +665,89 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -796,8 +799,11 @@
       <c r="S8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -849,8 +855,11 @@
       <c r="S9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -902,8 +911,11 @@
       <c r="S10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -923,61 +935,65 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>600</v>
+        <v>1100</v>
       </c>
       <c r="E12" s="3">
         <v>600</v>
       </c>
       <c r="F12" s="3">
+        <v>600</v>
+      </c>
+      <c r="G12" s="3">
         <v>800</v>
       </c>
-      <c r="G12" s="3">
-        <v>2400</v>
-      </c>
       <c r="H12" s="3">
-        <v>3900</v>
+        <v>2300</v>
       </c>
       <c r="I12" s="3">
         <v>3700</v>
       </c>
       <c r="J12" s="3">
+        <v>3500</v>
+      </c>
+      <c r="K12" s="3">
         <v>5900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>10000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>5000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>4700</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>1700</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>8000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>1200</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>8300</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>3300</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1029,8 +1045,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1082,8 +1101,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1135,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1153,61 +1178,65 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2500</v>
+        <v>3200</v>
       </c>
       <c r="E17" s="3">
-        <v>2700</v>
+        <v>2400</v>
       </c>
       <c r="F17" s="3">
-        <v>2100</v>
+        <v>2600</v>
       </c>
       <c r="G17" s="3">
-        <v>3700</v>
+        <v>2000</v>
       </c>
       <c r="H17" s="3">
-        <v>-17100</v>
+        <v>3500</v>
       </c>
       <c r="I17" s="3">
-        <v>4900</v>
+        <v>-16200</v>
       </c>
       <c r="J17" s="3">
+        <v>4700</v>
+      </c>
+      <c r="K17" s="3">
         <v>6200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>10300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>5800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>6100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>8400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>8700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1215,52 +1244,55 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>-2700</v>
+        <v>-2400</v>
       </c>
       <c r="F18" s="3">
-        <v>-2100</v>
+        <v>-2600</v>
       </c>
       <c r="G18" s="3">
-        <v>-3700</v>
+        <v>-2000</v>
       </c>
       <c r="H18" s="3">
-        <v>17100</v>
+        <v>-3500</v>
       </c>
       <c r="I18" s="3">
-        <v>-4900</v>
+        <v>16200</v>
       </c>
       <c r="J18" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="K18" s="3">
         <v>-6200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-10300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-5800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-6100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-2200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-8400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-8700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-3600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-4300</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1280,8 +1312,9 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1289,105 +1322,111 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
-        <v>-1000</v>
+        <v>-200</v>
       </c>
       <c r="F20" s="3">
+        <v>-900</v>
+      </c>
+      <c r="G20" s="3">
         <v>-400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-100</v>
       </c>
-      <c r="I20" s="3">
-        <v>-8000</v>
-      </c>
       <c r="J20" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="K20" s="3">
         <v>5000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-3300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-8500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>2300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-5400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>1000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>1500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E21" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="G21" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="H21" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="I21" s="3">
+        <v>16300</v>
+      </c>
+      <c r="J21" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="K21" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="L21" s="3">
+        <v>-13100</v>
+      </c>
+      <c r="M21" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="N21" s="3">
+        <v>-14500</v>
+      </c>
+      <c r="O21" s="3">
+        <v>200</v>
+      </c>
+      <c r="P21" s="3">
+        <v>-13800</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>-700</v>
+      </c>
+      <c r="R21" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="S21" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="T21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I21" s="3">
-        <v>-12700</v>
-      </c>
-      <c r="J21" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="K21" s="3">
-        <v>-13100</v>
-      </c>
-      <c r="L21" s="3">
-        <v>-5800</v>
-      </c>
-      <c r="M21" s="3">
-        <v>-14500</v>
-      </c>
-      <c r="N21" s="3">
-        <v>200</v>
-      </c>
-      <c r="O21" s="3">
-        <v>-13800</v>
-      </c>
-      <c r="P21" s="3">
-        <v>-700</v>
-      </c>
-      <c r="Q21" s="3">
-        <v>-7200</v>
-      </c>
-      <c r="R21" s="3">
-        <v>-4000</v>
-      </c>
-      <c r="S21" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1439,61 +1478,67 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-2800</v>
+        <v>-3100</v>
       </c>
       <c r="E23" s="3">
-        <v>-3700</v>
+        <v>-2600</v>
       </c>
       <c r="F23" s="3">
-        <v>-2500</v>
+        <v>-3500</v>
       </c>
       <c r="G23" s="3">
-        <v>-4300</v>
+        <v>-2400</v>
       </c>
       <c r="H23" s="3">
-        <v>17000</v>
+        <v>-4100</v>
       </c>
       <c r="I23" s="3">
-        <v>-12900</v>
+        <v>16100</v>
       </c>
       <c r="J23" s="3">
+        <v>-12200</v>
+      </c>
+      <c r="K23" s="3">
         <v>-1100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-13600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-6000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-14600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-13800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-7300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-4000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-3600</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1545,8 +1590,11 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1598,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-2800</v>
+        <v>-3100</v>
       </c>
       <c r="E26" s="3">
-        <v>-3700</v>
+        <v>-2600</v>
       </c>
       <c r="F26" s="3">
-        <v>-2500</v>
+        <v>-3500</v>
       </c>
       <c r="G26" s="3">
-        <v>-4300</v>
+        <v>-2400</v>
       </c>
       <c r="H26" s="3">
-        <v>17000</v>
+        <v>-4100</v>
       </c>
       <c r="I26" s="3">
-        <v>-12900</v>
+        <v>16100</v>
       </c>
       <c r="J26" s="3">
+        <v>-12200</v>
+      </c>
+      <c r="K26" s="3">
         <v>-1100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-13600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-6000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-14600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-13800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-7300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-4000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-3600</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-2800</v>
+        <v>-3100</v>
       </c>
       <c r="E27" s="3">
-        <v>-3700</v>
+        <v>-2600</v>
       </c>
       <c r="F27" s="3">
-        <v>-2500</v>
+        <v>-3500</v>
       </c>
       <c r="G27" s="3">
-        <v>-4300</v>
+        <v>-2400</v>
       </c>
       <c r="H27" s="3">
-        <v>17000</v>
+        <v>-4100</v>
       </c>
       <c r="I27" s="3">
-        <v>-12900</v>
+        <v>16100</v>
       </c>
       <c r="J27" s="3">
+        <v>-12200</v>
+      </c>
+      <c r="K27" s="3">
         <v>-1400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-13600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-6000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-14600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-13800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-7300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-4000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-3600</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1757,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1810,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1863,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1916,8 +1982,11 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1925,105 +1994,111 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="F32" s="3">
+        <v>900</v>
+      </c>
+      <c r="G32" s="3">
         <v>400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>100</v>
       </c>
-      <c r="I32" s="3">
-        <v>8000</v>
-      </c>
       <c r="J32" s="3">
+        <v>7500</v>
+      </c>
+      <c r="K32" s="3">
         <v>-5000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>3300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>8500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-2300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>5400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-1500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-2800</v>
+        <v>-3100</v>
       </c>
       <c r="E33" s="3">
-        <v>-3700</v>
+        <v>-2600</v>
       </c>
       <c r="F33" s="3">
-        <v>-2500</v>
+        <v>-3500</v>
       </c>
       <c r="G33" s="3">
-        <v>-4300</v>
+        <v>-2400</v>
       </c>
       <c r="H33" s="3">
-        <v>17000</v>
+        <v>-4100</v>
       </c>
       <c r="I33" s="3">
-        <v>-12900</v>
+        <v>16100</v>
       </c>
       <c r="J33" s="3">
+        <v>-12200</v>
+      </c>
+      <c r="K33" s="3">
         <v>-1400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-13600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-6000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-14600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-13800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-7300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-4000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-3600</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2075,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-2800</v>
+        <v>-3100</v>
       </c>
       <c r="E35" s="3">
-        <v>-3700</v>
+        <v>-2600</v>
       </c>
       <c r="F35" s="3">
-        <v>-2500</v>
+        <v>-3500</v>
       </c>
       <c r="G35" s="3">
-        <v>-4300</v>
+        <v>-2400</v>
       </c>
       <c r="H35" s="3">
-        <v>17000</v>
+        <v>-4100</v>
       </c>
       <c r="I35" s="3">
-        <v>-12900</v>
+        <v>16100</v>
       </c>
       <c r="J35" s="3">
+        <v>-12200</v>
+      </c>
+      <c r="K35" s="3">
         <v>-1400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-13600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-6000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-14600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-13800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-7300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-4000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-3600</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2207,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2228,61 +2313,65 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>10700</v>
+        <v>15700</v>
       </c>
       <c r="E41" s="3">
-        <v>12300</v>
+        <v>10100</v>
       </c>
       <c r="F41" s="3">
-        <v>14900</v>
+        <v>11600</v>
       </c>
       <c r="G41" s="3">
-        <v>2900</v>
+        <v>14100</v>
       </c>
       <c r="H41" s="3">
-        <v>7600</v>
+        <v>2700</v>
       </c>
       <c r="I41" s="3">
-        <v>11900</v>
+        <v>7200</v>
       </c>
       <c r="J41" s="3">
+        <v>11300</v>
+      </c>
+      <c r="K41" s="3">
         <v>13100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>23000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>23200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>10500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>17300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>22800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>15100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>10600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>15900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>20800</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2334,61 +2423,67 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>300</v>
+      </c>
+      <c r="E43" s="3">
         <v>400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
+        <v>300</v>
+      </c>
+      <c r="I43" s="3">
+        <v>900</v>
+      </c>
+      <c r="J43" s="3">
+        <v>700</v>
+      </c>
+      <c r="K43" s="3">
+        <v>500</v>
+      </c>
+      <c r="L43" s="3">
+        <v>200</v>
+      </c>
+      <c r="M43" s="3">
+        <v>600</v>
+      </c>
+      <c r="N43" s="3">
         <v>400</v>
       </c>
-      <c r="H43" s="3">
-        <v>900</v>
-      </c>
-      <c r="I43" s="3">
+      <c r="O43" s="3">
+        <v>600</v>
+      </c>
+      <c r="P43" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q43" s="3">
         <v>800</v>
       </c>
-      <c r="J43" s="3">
-        <v>500</v>
-      </c>
-      <c r="K43" s="3">
-        <v>200</v>
-      </c>
-      <c r="L43" s="3">
-        <v>600</v>
-      </c>
-      <c r="M43" s="3">
-        <v>400</v>
-      </c>
-      <c r="N43" s="3">
-        <v>600</v>
-      </c>
-      <c r="O43" s="3">
-        <v>300</v>
-      </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
+        <v>1200</v>
+      </c>
+      <c r="S43" s="3">
         <v>800</v>
       </c>
-      <c r="Q43" s="3">
-        <v>1200</v>
-      </c>
-      <c r="R43" s="3">
-        <v>800</v>
-      </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2440,8 +2535,11 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2493,61 +2591,67 @@
       <c r="S45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>11100</v>
+        <v>16000</v>
       </c>
       <c r="E46" s="3">
-        <v>13100</v>
+        <v>10500</v>
       </c>
       <c r="F46" s="3">
-        <v>15100</v>
+        <v>12400</v>
       </c>
       <c r="G46" s="3">
-        <v>3300</v>
+        <v>14300</v>
       </c>
       <c r="H46" s="3">
-        <v>8500</v>
+        <v>3100</v>
       </c>
       <c r="I46" s="3">
-        <v>12700</v>
+        <v>8100</v>
       </c>
       <c r="J46" s="3">
+        <v>12000</v>
+      </c>
+      <c r="K46" s="3">
         <v>13500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>23200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>23800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>10900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>17900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>23100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>15900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>11700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>16700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>22000</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2599,61 +2703,67 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>13700</v>
+        <v>12800</v>
       </c>
       <c r="E48" s="3">
-        <v>13900</v>
+        <v>12900</v>
       </c>
       <c r="F48" s="3">
-        <v>13900</v>
+        <v>13100</v>
       </c>
       <c r="G48" s="3">
-        <v>14100</v>
+        <v>13100</v>
       </c>
       <c r="H48" s="3">
-        <v>14200</v>
+        <v>13300</v>
       </c>
       <c r="I48" s="3">
-        <v>13400</v>
+        <v>13500</v>
       </c>
       <c r="J48" s="3">
+        <v>12700</v>
+      </c>
+      <c r="K48" s="3">
         <v>13200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>13300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>12800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>12400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>11800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>8500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>6900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>5400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>3600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2705,8 +2815,11 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2758,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2811,8 +2927,11 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2829,7 +2948,7 @@
         <v>100</v>
       </c>
       <c r="H52" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="I52" s="3">
         <v>300</v>
@@ -2838,7 +2957,7 @@
         <v>300</v>
       </c>
       <c r="K52" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L52" s="3">
         <v>200</v>
@@ -2853,7 +2972,7 @@
         <v>200</v>
       </c>
       <c r="P52" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Q52" s="3">
         <v>300</v>
@@ -2864,8 +2983,11 @@
       <c r="S52" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2917,61 +3039,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>28900</v>
+      </c>
+      <c r="E54" s="3">
+        <v>23500</v>
+      </c>
+      <c r="F54" s="3">
+        <v>25600</v>
+      </c>
+      <c r="G54" s="3">
+        <v>27500</v>
+      </c>
+      <c r="H54" s="3">
+        <v>16500</v>
+      </c>
+      <c r="I54" s="3">
+        <v>21800</v>
+      </c>
+      <c r="J54" s="3">
         <v>24900</v>
       </c>
-      <c r="E54" s="3">
-        <v>27100</v>
-      </c>
-      <c r="F54" s="3">
-        <v>29100</v>
-      </c>
-      <c r="G54" s="3">
-        <v>17500</v>
-      </c>
-      <c r="H54" s="3">
+      <c r="K54" s="3">
+        <v>27000</v>
+      </c>
+      <c r="L54" s="3">
+        <v>36700</v>
+      </c>
+      <c r="M54" s="3">
+        <v>36800</v>
+      </c>
+      <c r="N54" s="3">
+        <v>23400</v>
+      </c>
+      <c r="O54" s="3">
+        <v>29900</v>
+      </c>
+      <c r="P54" s="3">
+        <v>31800</v>
+      </c>
+      <c r="Q54" s="3">
         <v>23000</v>
       </c>
-      <c r="I54" s="3">
-        <v>26400</v>
-      </c>
-      <c r="J54" s="3">
-        <v>27000</v>
-      </c>
-      <c r="K54" s="3">
-        <v>36700</v>
-      </c>
-      <c r="L54" s="3">
-        <v>36800</v>
-      </c>
-      <c r="M54" s="3">
-        <v>23400</v>
-      </c>
-      <c r="N54" s="3">
-        <v>29900</v>
-      </c>
-      <c r="O54" s="3">
-        <v>31800</v>
-      </c>
-      <c r="P54" s="3">
-        <v>23000</v>
-      </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>17300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>20500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>23800</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2991,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3012,78 +3141,82 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E57" s="3">
         <v>1500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1100</v>
       </c>
-      <c r="G57" s="3">
-        <v>1000</v>
-      </c>
       <c r="H57" s="3">
-        <v>3200</v>
+        <v>900</v>
       </c>
       <c r="I57" s="3">
+        <v>3100</v>
+      </c>
+      <c r="J57" s="3">
         <v>1700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>5800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>5000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>6600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>20100</v>
+        <v>200</v>
       </c>
       <c r="E58" s="3">
-        <v>20000</v>
+        <v>19000</v>
       </c>
       <c r="F58" s="3">
-        <v>19400</v>
+        <v>18900</v>
       </c>
       <c r="G58" s="3">
-        <v>18800</v>
+        <v>18300</v>
       </c>
       <c r="H58" s="3">
-        <v>200</v>
+        <v>17800</v>
       </c>
       <c r="I58" s="3">
         <v>200</v>
@@ -3103,8 +3236,8 @@
       <c r="N58" s="3">
         <v>200</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>4</v>
+      <c r="O58" s="3">
+        <v>200</v>
       </c>
       <c r="P58" s="3" t="s">
         <v>4</v>
@@ -3118,8 +3251,11 @@
       <c r="S58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3171,122 +3307,131 @@
       <c r="S59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>21600</v>
+        <v>2100</v>
       </c>
       <c r="E60" s="3">
-        <v>21300</v>
+        <v>20400</v>
       </c>
       <c r="F60" s="3">
-        <v>20500</v>
+        <v>20200</v>
       </c>
       <c r="G60" s="3">
-        <v>19700</v>
+        <v>19400</v>
       </c>
       <c r="H60" s="3">
-        <v>3400</v>
+        <v>18700</v>
       </c>
       <c r="I60" s="3">
+        <v>3200</v>
+      </c>
+      <c r="J60" s="3">
+        <v>1800</v>
+      </c>
+      <c r="K60" s="3">
+        <v>1500</v>
+      </c>
+      <c r="L60" s="3">
+        <v>6000</v>
+      </c>
+      <c r="M60" s="3">
+        <v>900</v>
+      </c>
+      <c r="N60" s="3">
+        <v>3100</v>
+      </c>
+      <c r="O60" s="3">
+        <v>5200</v>
+      </c>
+      <c r="P60" s="3">
+        <v>6600</v>
+      </c>
+      <c r="Q60" s="3">
+        <v>800</v>
+      </c>
+      <c r="R60" s="3">
+        <v>600</v>
+      </c>
+      <c r="S60" s="3">
+        <v>2600</v>
+      </c>
+      <c r="T60" s="3">
         <v>2000</v>
       </c>
-      <c r="J60" s="3">
-        <v>1500</v>
-      </c>
-      <c r="K60" s="3">
-        <v>6000</v>
-      </c>
-      <c r="L60" s="3">
-        <v>900</v>
-      </c>
-      <c r="M60" s="3">
-        <v>3100</v>
-      </c>
-      <c r="N60" s="3">
-        <v>5200</v>
-      </c>
-      <c r="O60" s="3">
-        <v>6600</v>
-      </c>
-      <c r="P60" s="3">
-        <v>800</v>
-      </c>
-      <c r="Q60" s="3">
-        <v>600</v>
-      </c>
-      <c r="R60" s="3">
-        <v>2600</v>
-      </c>
-      <c r="S60" s="3">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1800</v>
+        <v>20000</v>
       </c>
       <c r="E61" s="3">
-        <v>1900</v>
+        <v>1700</v>
       </c>
       <c r="F61" s="3">
         <v>1800</v>
       </c>
       <c r="G61" s="3">
-        <v>1900</v>
+        <v>1700</v>
       </c>
       <c r="H61" s="3">
-        <v>20200</v>
+        <v>1800</v>
       </c>
       <c r="I61" s="3">
-        <v>39500</v>
+        <v>19000</v>
       </c>
       <c r="J61" s="3">
+        <v>37300</v>
+      </c>
+      <c r="K61" s="3">
         <v>38300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>41400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>35500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>36400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>28900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>28400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>12200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>5900</v>
       </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>0</v>
+      </c>
+      <c r="E62" s="3">
         <v>200</v>
-      </c>
-      <c r="E62" s="3">
-        <v>400</v>
       </c>
       <c r="F62" s="3">
         <v>400</v>
@@ -3295,43 +3440,46 @@
         <v>400</v>
       </c>
       <c r="H62" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="I62" s="3">
-        <v>3900</v>
+        <v>0</v>
       </c>
       <c r="J62" s="3">
+        <v>3700</v>
+      </c>
+      <c r="K62" s="3">
         <v>6100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>9900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>6600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>6200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>5000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>6300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>5900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>6100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>5900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>5400</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3383,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3436,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3489,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>23600</v>
+        <v>22200</v>
       </c>
       <c r="E66" s="3">
-        <v>23600</v>
+        <v>22300</v>
       </c>
       <c r="F66" s="3">
-        <v>22700</v>
+        <v>22300</v>
       </c>
       <c r="G66" s="3">
-        <v>22000</v>
+        <v>21500</v>
       </c>
       <c r="H66" s="3">
-        <v>23600</v>
+        <v>20800</v>
       </c>
       <c r="I66" s="3">
-        <v>45400</v>
+        <v>22300</v>
       </c>
       <c r="J66" s="3">
+        <v>42900</v>
+      </c>
+      <c r="K66" s="3">
         <v>45900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>57300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>43000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>45800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>39100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>41200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>18900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>12600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>8500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>7400</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3563,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3616,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3669,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3722,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3775,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-108900</v>
+        <v>-106000</v>
       </c>
       <c r="E72" s="3">
-        <v>-106100</v>
+        <v>-102900</v>
       </c>
       <c r="F72" s="3">
-        <v>-102400</v>
+        <v>-100300</v>
       </c>
       <c r="G72" s="3">
-        <v>-99900</v>
+        <v>-96800</v>
       </c>
       <c r="H72" s="3">
-        <v>-95600</v>
+        <v>-94400</v>
       </c>
       <c r="I72" s="3">
-        <v>-112600</v>
+        <v>-90300</v>
       </c>
       <c r="J72" s="3">
+        <v>-106400</v>
+      </c>
+      <c r="K72" s="3">
         <v>-99700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-101500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-85400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-79600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-63300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-63500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-47100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-46500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-39200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-36000</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3881,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3934,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3987,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1300</v>
+        <v>6800</v>
       </c>
       <c r="E76" s="3">
-        <v>3500</v>
+        <v>1200</v>
       </c>
       <c r="F76" s="3">
-        <v>6400</v>
+        <v>3300</v>
       </c>
       <c r="G76" s="3">
-        <v>-4500</v>
+        <v>6000</v>
       </c>
       <c r="H76" s="3">
-        <v>-600</v>
+        <v>-4200</v>
       </c>
       <c r="I76" s="3">
-        <v>-19000</v>
+        <v>-500</v>
       </c>
       <c r="J76" s="3">
+        <v>-18000</v>
+      </c>
+      <c r="K76" s="3">
         <v>-18900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-20600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-6300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-22400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-9200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-9400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>4100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>4800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>12000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>16400</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4093,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-2800</v>
+        <v>-3100</v>
       </c>
       <c r="E81" s="3">
-        <v>-3700</v>
+        <v>-2600</v>
       </c>
       <c r="F81" s="3">
-        <v>-2500</v>
+        <v>-3500</v>
       </c>
       <c r="G81" s="3">
-        <v>-4300</v>
+        <v>-2400</v>
       </c>
       <c r="H81" s="3">
-        <v>17000</v>
+        <v>-4100</v>
       </c>
       <c r="I81" s="3">
-        <v>-12900</v>
+        <v>16100</v>
       </c>
       <c r="J81" s="3">
+        <v>-12200</v>
+      </c>
+      <c r="K81" s="3">
         <v>-1400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-13600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-6000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-14600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-13800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-7300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-4000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-3600</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4225,25 +4422,26 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>4</v>
+      <c r="D83" s="3">
+        <v>200</v>
+      </c>
+      <c r="E83" s="3">
+        <v>200</v>
+      </c>
+      <c r="F83" s="3">
+        <v>200</v>
+      </c>
+      <c r="G83" s="3">
+        <v>200</v>
+      </c>
+      <c r="H83" s="3">
+        <v>200</v>
       </c>
       <c r="I83" s="3">
         <v>200</v>
@@ -4252,34 +4450,37 @@
         <v>200</v>
       </c>
       <c r="K83" s="3">
+        <v>200</v>
+      </c>
+      <c r="L83" s="3">
         <v>500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>200</v>
-      </c>
-      <c r="M83" s="3">
-        <v>100</v>
       </c>
       <c r="N83" s="3">
         <v>100</v>
       </c>
       <c r="O83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="3">
         <v>-100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>100</v>
       </c>
-      <c r="R83" s="3">
-        <v>0</v>
-      </c>
-      <c r="S83" s="3" t="s">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+      <c r="T83" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4331,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4384,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4437,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4490,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4543,61 +4756,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
+      <c r="D89" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="F89" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="G89" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="H89" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="I89" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="J89" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="K89" s="3">
+        <v>-10600</v>
+      </c>
+      <c r="L89" s="3">
+        <v>-24400</v>
+      </c>
+      <c r="M89" s="3">
+        <v>-7700</v>
+      </c>
+      <c r="N89" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="O89" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="P89" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="Q89" s="3">
+        <v>-900</v>
+      </c>
+      <c r="R89" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="S89" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="T89" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I89" s="3">
-        <v>-3600</v>
-      </c>
-      <c r="J89" s="3">
-        <v>-10600</v>
-      </c>
-      <c r="K89" s="3">
-        <v>-24400</v>
-      </c>
-      <c r="L89" s="3">
-        <v>-7700</v>
-      </c>
-      <c r="M89" s="3">
-        <v>-6700</v>
-      </c>
-      <c r="N89" s="3">
-        <v>-4000</v>
-      </c>
-      <c r="O89" s="3">
-        <v>-1900</v>
-      </c>
-      <c r="P89" s="3">
-        <v>-900</v>
-      </c>
-      <c r="Q89" s="3">
-        <v>-11000</v>
-      </c>
-      <c r="R89" s="3">
-        <v>-2600</v>
-      </c>
-      <c r="S89" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4617,61 +4836,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>4</v>
+      <c r="D91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
       </c>
       <c r="I91" s="3">
-        <v>-400</v>
+        <v>-1000</v>
       </c>
       <c r="J91" s="3">
         <v>-400</v>
       </c>
       <c r="K91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="L91" s="3">
         <v>-2400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-1900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-2000</v>
       </c>
-      <c r="S91" s="3" t="s">
+      <c r="T91" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4723,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4776,61 +5002,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
+      <c r="D94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
+        <v>100</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-400</v>
+      </c>
+      <c r="K94" s="3">
+        <v>-500</v>
+      </c>
+      <c r="L94" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="M94" s="3">
+        <v>-700</v>
+      </c>
+      <c r="N94" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O94" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="P94" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="Q94" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="R94" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="S94" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="T94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I94" s="3">
-        <v>-400</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-500</v>
-      </c>
-      <c r="K94" s="3">
-        <v>-2300</v>
-      </c>
-      <c r="L94" s="3">
-        <v>-700</v>
-      </c>
-      <c r="M94" s="3">
-        <v>-300</v>
-      </c>
-      <c r="N94" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="O94" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="P94" s="3">
-        <v>-1700</v>
-      </c>
-      <c r="Q94" s="3">
-        <v>-1900</v>
-      </c>
-      <c r="R94" s="3">
-        <v>-2000</v>
-      </c>
-      <c r="S94" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4850,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4903,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4956,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5009,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5062,163 +5304,175 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>4</v>
+      <c r="D100" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G100" s="3">
+        <v>12200</v>
+      </c>
+      <c r="H100" s="3">
+        <v>-100</v>
       </c>
       <c r="I100" s="3">
-        <v>3100</v>
+        <v>0</v>
       </c>
       <c r="J100" s="3">
+        <v>2900</v>
+      </c>
+      <c r="K100" s="3">
         <v>1300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>27000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>21600</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>-100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>10100</v>
-      </c>
-      <c r="P100" s="3">
-        <v>7200</v>
       </c>
       <c r="Q100" s="3">
         <v>7200</v>
       </c>
       <c r="R100" s="3">
-        <v>0</v>
-      </c>
-      <c r="S100" s="3" t="s">
+        <v>7200</v>
+      </c>
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
+      <c r="D101" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E101" s="3">
+        <v>600</v>
+      </c>
+      <c r="F101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G101" s="3">
+        <v>300</v>
+      </c>
+      <c r="H101" s="3">
+        <v>200</v>
+      </c>
+      <c r="I101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J101" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K101" s="3">
+        <v>600</v>
+      </c>
+      <c r="L101" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="M101" s="3">
+        <v>-500</v>
+      </c>
+      <c r="N101" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O101" s="3">
+        <v>-500</v>
+      </c>
+      <c r="P101" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R101" s="3">
+        <v>400</v>
+      </c>
+      <c r="S101" s="3">
+        <v>100</v>
+      </c>
+      <c r="T101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I101" s="3">
-        <v>-200</v>
-      </c>
-      <c r="J101" s="3">
-        <v>600</v>
-      </c>
-      <c r="K101" s="3">
-        <v>-1400</v>
-      </c>
-      <c r="L101" s="3">
-        <v>-500</v>
-      </c>
-      <c r="M101" s="3">
-        <v>-200</v>
-      </c>
-      <c r="N101" s="3">
-        <v>-500</v>
-      </c>
-      <c r="O101" s="3">
-        <v>-200</v>
-      </c>
-      <c r="P101" s="3">
-        <v>-100</v>
-      </c>
-      <c r="Q101" s="3">
-        <v>400</v>
-      </c>
-      <c r="R101" s="3">
-        <v>100</v>
-      </c>
-      <c r="S101" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>4</v>
+      <c r="D102" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="F102" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="G102" s="3">
+        <v>11400</v>
+      </c>
+      <c r="H102" s="3">
+        <v>-4500</v>
       </c>
       <c r="I102" s="3">
-        <v>-1200</v>
+        <v>-4100</v>
       </c>
       <c r="J102" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="K102" s="3">
         <v>-9200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>12700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-7200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-5600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>6900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>4500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-5300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-4500</v>
       </c>
-      <c r="S102" s="3" t="s">
+      <c r="T102" s="3" t="s">
         <v>4</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BVXV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BVXV_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="92">
   <si>
     <t>BVXV</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,89 +665,93 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -802,8 +806,11 @@
       <c r="T8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -858,8 +865,11 @@
       <c r="T9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -914,8 +924,11 @@
       <c r="T10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -936,8 +949,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -945,55 +959,58 @@
         <v>1100</v>
       </c>
       <c r="E12" s="3">
-        <v>600</v>
+        <v>1100</v>
       </c>
       <c r="F12" s="3">
         <v>600</v>
       </c>
       <c r="G12" s="3">
+        <v>600</v>
+      </c>
+      <c r="H12" s="3">
         <v>800</v>
       </c>
-      <c r="H12" s="3">
-        <v>2300</v>
-      </c>
       <c r="I12" s="3">
-        <v>3700</v>
+        <v>2400</v>
       </c>
       <c r="J12" s="3">
+        <v>3900</v>
+      </c>
+      <c r="K12" s="3">
         <v>3500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>5900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>10000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>5000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>4700</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>1700</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>8000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>1200</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>8300</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>3300</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,8 +1065,11 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1104,8 +1124,11 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1160,8 +1183,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,64 +1205,68 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3200</v>
+        <v>2500</v>
       </c>
       <c r="E17" s="3">
-        <v>2400</v>
+        <v>3400</v>
       </c>
       <c r="F17" s="3">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="G17" s="3">
-        <v>2000</v>
+        <v>2700</v>
       </c>
       <c r="H17" s="3">
-        <v>3500</v>
+        <v>2100</v>
       </c>
       <c r="I17" s="3">
-        <v>-16200</v>
+        <v>3700</v>
       </c>
       <c r="J17" s="3">
+        <v>-17000</v>
+      </c>
+      <c r="K17" s="3">
         <v>4700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>6200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>10300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>5800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>6100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>8400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>8700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>3600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1244,55 +1274,58 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>-2400</v>
+        <v>-3400</v>
       </c>
       <c r="F18" s="3">
-        <v>-2600</v>
+        <v>-2500</v>
       </c>
       <c r="G18" s="3">
-        <v>-2000</v>
+        <v>-2700</v>
       </c>
       <c r="H18" s="3">
-        <v>-3500</v>
+        <v>-2100</v>
       </c>
       <c r="I18" s="3">
-        <v>16200</v>
+        <v>-3700</v>
       </c>
       <c r="J18" s="3">
+        <v>17000</v>
+      </c>
+      <c r="K18" s="3">
         <v>-4700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-6200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-10300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-5800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-6100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-2200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-8400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-1700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-8700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-3600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-4300</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,8 +1346,9 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1322,55 +1356,58 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
-        <v>-200</v>
+        <v>100</v>
       </c>
       <c r="F20" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G20" s="3">
         <v>-900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-7500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>5000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-3300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-8500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>2300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-5400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>1000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>1500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1378,55 +1415,58 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
-        <v>-2500</v>
+        <v>-3100</v>
       </c>
       <c r="F21" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="G21" s="3">
         <v>-3300</v>
       </c>
-      <c r="G21" s="3">
-        <v>-2200</v>
-      </c>
       <c r="H21" s="3">
-        <v>-3900</v>
+        <v>-3100</v>
       </c>
       <c r="I21" s="3">
-        <v>16300</v>
+        <v>-4100</v>
       </c>
       <c r="J21" s="3">
+        <v>17100</v>
+      </c>
+      <c r="K21" s="3">
         <v>-12000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-1000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-13100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-5800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-14500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-13800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-7200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-4000</v>
       </c>
-      <c r="T21" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1481,64 +1521,70 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-3100</v>
+        <v>-2900</v>
       </c>
       <c r="E23" s="3">
-        <v>-2600</v>
+        <v>-3300</v>
       </c>
       <c r="F23" s="3">
-        <v>-3500</v>
+        <v>-2800</v>
       </c>
       <c r="G23" s="3">
-        <v>-2400</v>
+        <v>-3700</v>
       </c>
       <c r="H23" s="3">
-        <v>-4100</v>
+        <v>-2500</v>
       </c>
       <c r="I23" s="3">
-        <v>16100</v>
+        <v>-4300</v>
       </c>
       <c r="J23" s="3">
+        <v>16900</v>
+      </c>
+      <c r="K23" s="3">
         <v>-12200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-13600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-6000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-14600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-13800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-7300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-4000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-3600</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1593,8 +1639,11 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1698,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-3100</v>
+        <v>-2900</v>
       </c>
       <c r="E26" s="3">
-        <v>-2600</v>
+        <v>-3300</v>
       </c>
       <c r="F26" s="3">
-        <v>-3500</v>
+        <v>-2800</v>
       </c>
       <c r="G26" s="3">
-        <v>-2400</v>
+        <v>-3700</v>
       </c>
       <c r="H26" s="3">
-        <v>-4100</v>
+        <v>-2500</v>
       </c>
       <c r="I26" s="3">
-        <v>16100</v>
+        <v>-4300</v>
       </c>
       <c r="J26" s="3">
+        <v>16900</v>
+      </c>
+      <c r="K26" s="3">
         <v>-12200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-13600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-6000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-14600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-13800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-7300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-4000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-3600</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-3100</v>
+        <v>-2900</v>
       </c>
       <c r="E27" s="3">
-        <v>-2600</v>
+        <v>-3300</v>
       </c>
       <c r="F27" s="3">
-        <v>-3500</v>
+        <v>-2800</v>
       </c>
       <c r="G27" s="3">
-        <v>-2400</v>
+        <v>-3700</v>
       </c>
       <c r="H27" s="3">
-        <v>-4100</v>
+        <v>-2500</v>
       </c>
       <c r="I27" s="3">
-        <v>16100</v>
+        <v>-4300</v>
       </c>
       <c r="J27" s="3">
+        <v>16900</v>
+      </c>
+      <c r="K27" s="3">
         <v>-12200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-13600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-6000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-14600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-13800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-7300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-4000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-3600</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1875,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1934,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1993,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,8 +2052,11 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1994,111 +2064,117 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
-        <v>200</v>
+        <v>-100</v>
       </c>
       <c r="F32" s="3">
+        <v>300</v>
+      </c>
+      <c r="G32" s="3">
         <v>900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>7500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-5000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>3300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>8500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-2300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>5400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-1000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-1500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-3100</v>
+        <v>-2900</v>
       </c>
       <c r="E33" s="3">
-        <v>-2600</v>
+        <v>-3300</v>
       </c>
       <c r="F33" s="3">
-        <v>-3500</v>
+        <v>-2800</v>
       </c>
       <c r="G33" s="3">
-        <v>-2400</v>
+        <v>-3700</v>
       </c>
       <c r="H33" s="3">
-        <v>-4100</v>
+        <v>-2500</v>
       </c>
       <c r="I33" s="3">
-        <v>16100</v>
+        <v>-4300</v>
       </c>
       <c r="J33" s="3">
+        <v>16900</v>
+      </c>
+      <c r="K33" s="3">
         <v>-12200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-13600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-6000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-14600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-13800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-7300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-4000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-3600</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2229,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-3100</v>
+        <v>-2900</v>
       </c>
       <c r="E35" s="3">
-        <v>-2600</v>
+        <v>-3300</v>
       </c>
       <c r="F35" s="3">
-        <v>-3500</v>
+        <v>-2800</v>
       </c>
       <c r="G35" s="3">
-        <v>-2400</v>
+        <v>-3700</v>
       </c>
       <c r="H35" s="3">
-        <v>-4100</v>
+        <v>-2500</v>
       </c>
       <c r="I35" s="3">
-        <v>16100</v>
+        <v>-4300</v>
       </c>
       <c r="J35" s="3">
+        <v>16900</v>
+      </c>
+      <c r="K35" s="3">
         <v>-12200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-13600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-6000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-14600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-13800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-7300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-4000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-3600</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2377,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,64 +2400,68 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>15700</v>
+        <v>15000</v>
       </c>
       <c r="E41" s="3">
-        <v>10100</v>
+        <v>16600</v>
       </c>
       <c r="F41" s="3">
-        <v>11600</v>
+        <v>10600</v>
       </c>
       <c r="G41" s="3">
-        <v>14100</v>
+        <v>12200</v>
       </c>
       <c r="H41" s="3">
-        <v>2700</v>
+        <v>14900</v>
       </c>
       <c r="I41" s="3">
-        <v>7200</v>
+        <v>2900</v>
       </c>
       <c r="J41" s="3">
+        <v>7600</v>
+      </c>
+      <c r="K41" s="3">
         <v>11300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>13100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>23000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>23200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>10500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>17300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>22800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>15100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>10600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>15900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>20800</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,64 +2516,70 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>200</v>
+      </c>
+      <c r="E43" s="3">
         <v>300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
+        <v>400</v>
+      </c>
+      <c r="J43" s="3">
+        <v>900</v>
+      </c>
+      <c r="K43" s="3">
+        <v>700</v>
+      </c>
+      <c r="L43" s="3">
+        <v>500</v>
+      </c>
+      <c r="M43" s="3">
+        <v>200</v>
+      </c>
+      <c r="N43" s="3">
+        <v>600</v>
+      </c>
+      <c r="O43" s="3">
+        <v>400</v>
+      </c>
+      <c r="P43" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q43" s="3">
         <v>300</v>
       </c>
-      <c r="I43" s="3">
-        <v>900</v>
-      </c>
-      <c r="J43" s="3">
-        <v>700</v>
-      </c>
-      <c r="K43" s="3">
-        <v>500</v>
-      </c>
-      <c r="L43" s="3">
-        <v>200</v>
-      </c>
-      <c r="M43" s="3">
-        <v>600</v>
-      </c>
-      <c r="N43" s="3">
-        <v>400</v>
-      </c>
-      <c r="O43" s="3">
-        <v>600</v>
-      </c>
-      <c r="P43" s="3">
-        <v>300</v>
-      </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>800</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2538,8 +2634,11 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2594,64 +2693,70 @@
       <c r="T45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>16000</v>
+        <v>15200</v>
       </c>
       <c r="E46" s="3">
-        <v>10500</v>
+        <v>16900</v>
       </c>
       <c r="F46" s="3">
-        <v>12400</v>
+        <v>11100</v>
       </c>
       <c r="G46" s="3">
-        <v>14300</v>
+        <v>13000</v>
       </c>
       <c r="H46" s="3">
-        <v>3100</v>
+        <v>15000</v>
       </c>
       <c r="I46" s="3">
-        <v>8100</v>
+        <v>3300</v>
       </c>
       <c r="J46" s="3">
+        <v>8500</v>
+      </c>
+      <c r="K46" s="3">
         <v>12000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>13500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>23200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>23800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>10900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>17900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>23100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>15900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>11700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>16700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>22000</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2706,64 +2811,70 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>13800</v>
+      </c>
+      <c r="E48" s="3">
+        <v>13500</v>
+      </c>
+      <c r="F48" s="3">
+        <v>13600</v>
+      </c>
+      <c r="G48" s="3">
+        <v>13800</v>
+      </c>
+      <c r="H48" s="3">
+        <v>13900</v>
+      </c>
+      <c r="I48" s="3">
+        <v>14000</v>
+      </c>
+      <c r="J48" s="3">
+        <v>14200</v>
+      </c>
+      <c r="K48" s="3">
+        <v>12700</v>
+      </c>
+      <c r="L48" s="3">
+        <v>13200</v>
+      </c>
+      <c r="M48" s="3">
+        <v>13300</v>
+      </c>
+      <c r="N48" s="3">
         <v>12800</v>
       </c>
-      <c r="E48" s="3">
-        <v>12900</v>
-      </c>
-      <c r="F48" s="3">
-        <v>13100</v>
-      </c>
-      <c r="G48" s="3">
-        <v>13100</v>
-      </c>
-      <c r="H48" s="3">
-        <v>13300</v>
-      </c>
-      <c r="I48" s="3">
-        <v>13500</v>
-      </c>
-      <c r="J48" s="3">
-        <v>12700</v>
-      </c>
-      <c r="K48" s="3">
-        <v>13200</v>
-      </c>
-      <c r="L48" s="3">
-        <v>13300</v>
-      </c>
-      <c r="M48" s="3">
-        <v>12800</v>
-      </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>12400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>11800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>8500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>6900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>5400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>3600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2818,8 +2929,11 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2988,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,13 +3047,16 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E52" s="3">
         <v>100</v>
@@ -2951,7 +3071,7 @@
         <v>100</v>
       </c>
       <c r="I52" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="J52" s="3">
         <v>300</v>
@@ -2960,7 +3080,7 @@
         <v>300</v>
       </c>
       <c r="L52" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="M52" s="3">
         <v>200</v>
@@ -2975,7 +3095,7 @@
         <v>200</v>
       </c>
       <c r="Q52" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="R52" s="3">
         <v>300</v>
@@ -2986,8 +3106,11 @@
       <c r="T52" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3165,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>28900</v>
+        <v>29300</v>
       </c>
       <c r="E54" s="3">
-        <v>23500</v>
+        <v>30500</v>
       </c>
       <c r="F54" s="3">
-        <v>25600</v>
+        <v>24800</v>
       </c>
       <c r="G54" s="3">
-        <v>27500</v>
+        <v>27000</v>
       </c>
       <c r="H54" s="3">
-        <v>16500</v>
+        <v>29000</v>
       </c>
       <c r="I54" s="3">
-        <v>21800</v>
+        <v>17400</v>
       </c>
       <c r="J54" s="3">
+        <v>22900</v>
+      </c>
+      <c r="K54" s="3">
         <v>24900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>27000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>36700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>36800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>23400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>29900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>31800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>23000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>17300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>20500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>23800</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3249,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,64 +3272,68 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1900</v>
+        <v>2400</v>
       </c>
       <c r="E57" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F57" s="3">
         <v>1500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1100</v>
       </c>
-      <c r="H57" s="3">
-        <v>900</v>
-      </c>
       <c r="I57" s="3">
-        <v>3100</v>
+        <v>1000</v>
       </c>
       <c r="J57" s="3">
+        <v>3200</v>
+      </c>
+      <c r="K57" s="3">
         <v>1700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>5800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>5000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>6600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3207,19 +3341,19 @@
         <v>200</v>
       </c>
       <c r="E58" s="3">
-        <v>19000</v>
+        <v>200</v>
       </c>
       <c r="F58" s="3">
-        <v>18900</v>
+        <v>20000</v>
       </c>
       <c r="G58" s="3">
-        <v>18300</v>
+        <v>19900</v>
       </c>
       <c r="H58" s="3">
-        <v>17800</v>
+        <v>19300</v>
       </c>
       <c r="I58" s="3">
-        <v>200</v>
+        <v>18700</v>
       </c>
       <c r="J58" s="3">
         <v>200</v>
@@ -3239,8 +3373,8 @@
       <c r="O58" s="3">
         <v>200</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>4</v>
+      <c r="P58" s="3">
+        <v>200</v>
       </c>
       <c r="Q58" s="3" t="s">
         <v>4</v>
@@ -3254,8 +3388,11 @@
       <c r="T58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3310,120 +3447,129 @@
       <c r="T59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2100</v>
+        <v>2600</v>
       </c>
       <c r="E60" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F60" s="3">
+        <v>21500</v>
+      </c>
+      <c r="G60" s="3">
+        <v>21300</v>
+      </c>
+      <c r="H60" s="3">
         <v>20400</v>
       </c>
-      <c r="F60" s="3">
-        <v>20200</v>
-      </c>
-      <c r="G60" s="3">
-        <v>19400</v>
-      </c>
-      <c r="H60" s="3">
-        <v>18700</v>
-      </c>
       <c r="I60" s="3">
-        <v>3200</v>
+        <v>19700</v>
       </c>
       <c r="J60" s="3">
+        <v>3400</v>
+      </c>
+      <c r="K60" s="3">
         <v>1800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>6000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>5200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>6600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>20000</v>
+        <v>21700</v>
       </c>
       <c r="E61" s="3">
-        <v>1700</v>
+        <v>21100</v>
       </c>
       <c r="F61" s="3">
         <v>1800</v>
       </c>
       <c r="G61" s="3">
-        <v>1700</v>
+        <v>1900</v>
       </c>
       <c r="H61" s="3">
         <v>1800</v>
       </c>
       <c r="I61" s="3">
-        <v>19000</v>
+        <v>1900</v>
       </c>
       <c r="J61" s="3">
+        <v>20100</v>
+      </c>
+      <c r="K61" s="3">
         <v>37300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>38300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>41400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>35500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>36400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>28900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>28400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>12200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>5900</v>
       </c>
-      <c r="S61" s="3">
-        <v>0</v>
-      </c>
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3431,10 +3577,10 @@
         <v>0</v>
       </c>
       <c r="E62" s="3">
+        <v>0</v>
+      </c>
+      <c r="F62" s="3">
         <v>200</v>
-      </c>
-      <c r="F62" s="3">
-        <v>400</v>
       </c>
       <c r="G62" s="3">
         <v>400</v>
@@ -3443,43 +3589,46 @@
         <v>400</v>
       </c>
       <c r="I62" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="J62" s="3">
+        <v>0</v>
+      </c>
+      <c r="K62" s="3">
         <v>3700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>6100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>9900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>6600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>6200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>5000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>6300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>5900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>6100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>5900</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>5400</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3683,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3742,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3801,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>22200</v>
+        <v>24300</v>
       </c>
       <c r="E66" s="3">
-        <v>22300</v>
+        <v>23400</v>
       </c>
       <c r="F66" s="3">
-        <v>22300</v>
+        <v>23500</v>
       </c>
       <c r="G66" s="3">
-        <v>21500</v>
+        <v>23500</v>
       </c>
       <c r="H66" s="3">
-        <v>20800</v>
+        <v>22600</v>
       </c>
       <c r="I66" s="3">
-        <v>22300</v>
+        <v>21900</v>
       </c>
       <c r="J66" s="3">
+        <v>23500</v>
+      </c>
+      <c r="K66" s="3">
         <v>42900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>45900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>57300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>43000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>45800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>39100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>41200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>18900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>12600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>8500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>7400</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3885,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3942,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4001,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4060,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4119,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-106000</v>
+        <v>-114600</v>
       </c>
       <c r="E72" s="3">
-        <v>-102900</v>
+        <v>-111700</v>
       </c>
       <c r="F72" s="3">
-        <v>-100300</v>
+        <v>-108400</v>
       </c>
       <c r="G72" s="3">
-        <v>-96800</v>
+        <v>-105700</v>
       </c>
       <c r="H72" s="3">
-        <v>-94400</v>
+        <v>-102000</v>
       </c>
       <c r="I72" s="3">
-        <v>-90300</v>
+        <v>-99500</v>
       </c>
       <c r="J72" s="3">
+        <v>-95200</v>
+      </c>
+      <c r="K72" s="3">
         <v>-106400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-99700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-101500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-85400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-79600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-63300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-63500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-47100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-46500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-39200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-36000</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4237,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4296,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4355,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>6800</v>
+        <v>5000</v>
       </c>
       <c r="E76" s="3">
-        <v>1200</v>
+        <v>7100</v>
       </c>
       <c r="F76" s="3">
-        <v>3300</v>
+        <v>1300</v>
       </c>
       <c r="G76" s="3">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="H76" s="3">
-        <v>-4200</v>
+        <v>6400</v>
       </c>
       <c r="I76" s="3">
-        <v>-500</v>
+        <v>-4500</v>
       </c>
       <c r="J76" s="3">
+        <v>-600</v>
+      </c>
+      <c r="K76" s="3">
         <v>-18000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-18900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-20600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-6300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-22400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-9200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-9400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>4100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>4800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>12000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>16400</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4473,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-3100</v>
+        <v>-2900</v>
       </c>
       <c r="E81" s="3">
-        <v>-2600</v>
+        <v>-3300</v>
       </c>
       <c r="F81" s="3">
-        <v>-3500</v>
+        <v>-2800</v>
       </c>
       <c r="G81" s="3">
-        <v>-2400</v>
+        <v>-3700</v>
       </c>
       <c r="H81" s="3">
-        <v>-4100</v>
+        <v>-2500</v>
       </c>
       <c r="I81" s="3">
-        <v>16100</v>
+        <v>-4300</v>
       </c>
       <c r="J81" s="3">
+        <v>16900</v>
+      </c>
+      <c r="K81" s="3">
         <v>-12200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-13600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-6000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-14600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-13800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-7300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-4000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-3600</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,13 +4621,14 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>200</v>
+      <c r="D83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E83" s="3">
         <v>200</v>
@@ -4438,10 +4637,10 @@
         <v>200</v>
       </c>
       <c r="G83" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="H83" s="3">
-        <v>200</v>
+        <v>-600</v>
       </c>
       <c r="I83" s="3">
         <v>200</v>
@@ -4453,34 +4652,37 @@
         <v>200</v>
       </c>
       <c r="L83" s="3">
+        <v>200</v>
+      </c>
+      <c r="M83" s="3">
         <v>500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>200</v>
-      </c>
-      <c r="N83" s="3">
-        <v>100</v>
       </c>
       <c r="O83" s="3">
         <v>100</v>
       </c>
       <c r="P83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3">
         <v>-100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>100</v>
       </c>
-      <c r="S83" s="3">
-        <v>0</v>
-      </c>
-      <c r="T83" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+      <c r="U83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4737,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4796,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4855,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4914,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +4973,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
+      <c r="D89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="F89" s="3">
         <v>-1900</v>
       </c>
-      <c r="E89" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="F89" s="3">
-        <v>-2300</v>
-      </c>
       <c r="G89" s="3">
-        <v>-1100</v>
+        <v>-3600</v>
       </c>
       <c r="H89" s="3">
-        <v>-4600</v>
+        <v>21000</v>
       </c>
       <c r="I89" s="3">
-        <v>-3000</v>
+        <v>-4900</v>
       </c>
       <c r="J89" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="K89" s="3">
         <v>-3400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-10600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-24400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-7700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-6700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-4000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-11000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-2600</v>
       </c>
-      <c r="T89" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,17 +5057,18 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
+      <c r="D91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E91" s="3">
         <v>-100</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
       <c r="F91" s="3">
         <v>0</v>
       </c>
@@ -4855,46 +5076,49 @@
         <v>0</v>
       </c>
       <c r="H91" s="3">
-        <v>0</v>
+        <v>1900</v>
       </c>
       <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
         <v>-1000</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-400</v>
       </c>
       <c r="K91" s="3">
         <v>-400</v>
       </c>
       <c r="L91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="M91" s="3">
         <v>-2400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-1700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-1900</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-2000</v>
       </c>
-      <c r="T91" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5173,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,17 +5232,20 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
+      <c r="D94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E94" s="3">
         <v>-100</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
       <c r="F94" s="3">
         <v>0</v>
       </c>
@@ -5023,46 +5253,49 @@
         <v>0</v>
       </c>
       <c r="H94" s="3">
+        <v>1800</v>
+      </c>
+      <c r="I94" s="3">
         <v>100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-1000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-2000</v>
       </c>
-      <c r="T94" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5316,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5373,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5432,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5491,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,172 +5550,184 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>7900</v>
+      <c r="D100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E100" s="3">
+        <v>8400</v>
+      </c>
+      <c r="F100" s="3">
         <v>-300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
+        <v>12700</v>
+      </c>
+      <c r="H100" s="3">
+        <v>8600</v>
+      </c>
+      <c r="I100" s="3">
         <v>-100</v>
       </c>
-      <c r="G100" s="3">
-        <v>12200</v>
-      </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
+        <v>2900</v>
+      </c>
+      <c r="L100" s="3">
+        <v>1300</v>
+      </c>
+      <c r="M100" s="3">
+        <v>27000</v>
+      </c>
+      <c r="N100" s="3">
+        <v>21600</v>
+      </c>
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>-100</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3">
-        <v>2900</v>
-      </c>
-      <c r="K100" s="3">
-        <v>1300</v>
-      </c>
-      <c r="L100" s="3">
-        <v>27000</v>
-      </c>
-      <c r="M100" s="3">
-        <v>21600</v>
-      </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
-      <c r="O100" s="3">
-        <v>-100</v>
-      </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>10100</v>
-      </c>
-      <c r="Q100" s="3">
-        <v>7200</v>
       </c>
       <c r="R100" s="3">
         <v>7200</v>
       </c>
       <c r="S100" s="3">
-        <v>0</v>
-      </c>
-      <c r="T100" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+        <v>7200</v>
+      </c>
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3">
+      <c r="D101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E101" s="3">
         <v>-300</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>600</v>
-      </c>
-      <c r="F101" s="3">
-        <v>-100</v>
       </c>
       <c r="G101" s="3">
         <v>300</v>
       </c>
       <c r="H101" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I101" s="3">
         <v>200</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-1400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-500</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-500</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-200</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-100</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>400</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>100</v>
       </c>
-      <c r="T101" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
-        <v>5600</v>
+      <c r="D102" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E102" s="3">
-        <v>-1500</v>
+        <v>5900</v>
       </c>
       <c r="F102" s="3">
-        <v>-2500</v>
+        <v>-1600</v>
       </c>
       <c r="G102" s="3">
-        <v>11400</v>
+        <v>9300</v>
       </c>
       <c r="H102" s="3">
+        <v>31300</v>
+      </c>
+      <c r="I102" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="J102" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="K102" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="L102" s="3">
+        <v>-9200</v>
+      </c>
+      <c r="M102" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="N102" s="3">
+        <v>12700</v>
+      </c>
+      <c r="O102" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="P102" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="Q102" s="3">
+        <v>6900</v>
+      </c>
+      <c r="R102" s="3">
+        <v>4500</v>
+      </c>
+      <c r="S102" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="T102" s="3">
         <v>-4500</v>
       </c>
-      <c r="I102" s="3">
-        <v>-4100</v>
-      </c>
-      <c r="J102" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="K102" s="3">
-        <v>-9200</v>
-      </c>
-      <c r="L102" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="M102" s="3">
-        <v>12700</v>
-      </c>
-      <c r="N102" s="3">
-        <v>-7200</v>
-      </c>
-      <c r="O102" s="3">
-        <v>-5600</v>
-      </c>
-      <c r="P102" s="3">
-        <v>6900</v>
-      </c>
-      <c r="Q102" s="3">
-        <v>4500</v>
-      </c>
-      <c r="R102" s="3">
-        <v>-5300</v>
-      </c>
-      <c r="S102" s="3">
-        <v>-4500</v>
-      </c>
-      <c r="T102" s="3" t="s">
+      <c r="U102" s="3" t="s">
         <v>4</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BVXV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BVXV_QTR_FIN.xlsx
@@ -965,16 +965,16 @@
         <v>600</v>
       </c>
       <c r="G12" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="H12" s="3">
         <v>800</v>
       </c>
       <c r="I12" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="J12" s="3">
-        <v>3900</v>
+        <v>3600</v>
       </c>
       <c r="K12" s="3">
         <v>3500</v>
@@ -1212,25 +1212,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="E17" s="3">
-        <v>3400</v>
+        <v>3200</v>
       </c>
       <c r="F17" s="3">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="G17" s="3">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="H17" s="3">
-        <v>2100</v>
+        <v>1900</v>
       </c>
       <c r="I17" s="3">
-        <v>3700</v>
+        <v>3500</v>
       </c>
       <c r="J17" s="3">
-        <v>-17000</v>
+        <v>-16000</v>
       </c>
       <c r="K17" s="3">
         <v>4700</v>
@@ -1274,22 +1274,22 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>-3400</v>
+        <v>-3200</v>
       </c>
       <c r="F18" s="3">
-        <v>-2500</v>
+        <v>-2400</v>
       </c>
       <c r="G18" s="3">
-        <v>-2700</v>
+        <v>-2600</v>
       </c>
       <c r="H18" s="3">
-        <v>-2100</v>
+        <v>-1900</v>
       </c>
       <c r="I18" s="3">
-        <v>-3700</v>
+        <v>-3500</v>
       </c>
       <c r="J18" s="3">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="K18" s="3">
         <v>-4700</v>
@@ -1359,7 +1359,7 @@
         <v>100</v>
       </c>
       <c r="F20" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="G20" s="3">
         <v>-900</v>
@@ -1415,22 +1415,22 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="G21" s="3">
         <v>-3100</v>
       </c>
-      <c r="F21" s="3">
-        <v>-2600</v>
-      </c>
-      <c r="G21" s="3">
-        <v>-3300</v>
-      </c>
       <c r="H21" s="3">
-        <v>-3100</v>
+        <v>-2900</v>
       </c>
       <c r="I21" s="3">
-        <v>-4100</v>
+        <v>-3900</v>
       </c>
       <c r="J21" s="3">
-        <v>17100</v>
+        <v>16100</v>
       </c>
       <c r="K21" s="3">
         <v>-12000</v>
@@ -1530,25 +1530,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-2900</v>
+        <v>-2700</v>
       </c>
       <c r="E23" s="3">
-        <v>-3300</v>
+        <v>-3100</v>
       </c>
       <c r="F23" s="3">
-        <v>-2800</v>
+        <v>-2600</v>
       </c>
       <c r="G23" s="3">
-        <v>-3700</v>
+        <v>-3500</v>
       </c>
       <c r="H23" s="3">
-        <v>-2500</v>
+        <v>-2400</v>
       </c>
       <c r="I23" s="3">
-        <v>-4300</v>
+        <v>-4100</v>
       </c>
       <c r="J23" s="3">
-        <v>16900</v>
+        <v>15900</v>
       </c>
       <c r="K23" s="3">
         <v>-12200</v>
@@ -1707,25 +1707,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-2900</v>
+        <v>-2700</v>
       </c>
       <c r="E26" s="3">
-        <v>-3300</v>
+        <v>-3100</v>
       </c>
       <c r="F26" s="3">
-        <v>-2800</v>
+        <v>-2600</v>
       </c>
       <c r="G26" s="3">
-        <v>-3700</v>
+        <v>-3500</v>
       </c>
       <c r="H26" s="3">
-        <v>-2500</v>
+        <v>-2400</v>
       </c>
       <c r="I26" s="3">
-        <v>-4300</v>
+        <v>-4100</v>
       </c>
       <c r="J26" s="3">
-        <v>16900</v>
+        <v>15900</v>
       </c>
       <c r="K26" s="3">
         <v>-12200</v>
@@ -1766,25 +1766,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-2900</v>
+        <v>-2700</v>
       </c>
       <c r="E27" s="3">
-        <v>-3300</v>
+        <v>-3100</v>
       </c>
       <c r="F27" s="3">
-        <v>-2800</v>
+        <v>-2600</v>
       </c>
       <c r="G27" s="3">
-        <v>-3700</v>
+        <v>-3500</v>
       </c>
       <c r="H27" s="3">
-        <v>-2500</v>
+        <v>-2400</v>
       </c>
       <c r="I27" s="3">
-        <v>-4300</v>
+        <v>-4100</v>
       </c>
       <c r="J27" s="3">
-        <v>16900</v>
+        <v>15900</v>
       </c>
       <c r="K27" s="3">
         <v>-12200</v>
@@ -2067,7 +2067,7 @@
         <v>-100</v>
       </c>
       <c r="F32" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G32" s="3">
         <v>900</v>
@@ -2120,25 +2120,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-2900</v>
+        <v>-2700</v>
       </c>
       <c r="E33" s="3">
-        <v>-3300</v>
+        <v>-3100</v>
       </c>
       <c r="F33" s="3">
-        <v>-2800</v>
+        <v>-2600</v>
       </c>
       <c r="G33" s="3">
-        <v>-3700</v>
+        <v>-3500</v>
       </c>
       <c r="H33" s="3">
-        <v>-2500</v>
+        <v>-2400</v>
       </c>
       <c r="I33" s="3">
-        <v>-4300</v>
+        <v>-4100</v>
       </c>
       <c r="J33" s="3">
-        <v>16900</v>
+        <v>15900</v>
       </c>
       <c r="K33" s="3">
         <v>-12200</v>
@@ -2238,25 +2238,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-2900</v>
+        <v>-2700</v>
       </c>
       <c r="E35" s="3">
-        <v>-3300</v>
+        <v>-3100</v>
       </c>
       <c r="F35" s="3">
-        <v>-2800</v>
+        <v>-2600</v>
       </c>
       <c r="G35" s="3">
-        <v>-3700</v>
+        <v>-3500</v>
       </c>
       <c r="H35" s="3">
-        <v>-2500</v>
+        <v>-2400</v>
       </c>
       <c r="I35" s="3">
-        <v>-4300</v>
+        <v>-4100</v>
       </c>
       <c r="J35" s="3">
-        <v>16900</v>
+        <v>15900</v>
       </c>
       <c r="K35" s="3">
         <v>-12200</v>
@@ -2407,25 +2407,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>15000</v>
+        <v>14100</v>
       </c>
       <c r="E41" s="3">
-        <v>16600</v>
+        <v>15600</v>
       </c>
       <c r="F41" s="3">
-        <v>10600</v>
+        <v>10000</v>
       </c>
       <c r="G41" s="3">
-        <v>12200</v>
+        <v>11500</v>
       </c>
       <c r="H41" s="3">
-        <v>14900</v>
+        <v>14000</v>
       </c>
       <c r="I41" s="3">
-        <v>2900</v>
+        <v>2700</v>
       </c>
       <c r="J41" s="3">
-        <v>7600</v>
+        <v>7100</v>
       </c>
       <c r="K41" s="3">
         <v>11300</v>
@@ -2540,10 +2540,10 @@
         <v>100</v>
       </c>
       <c r="I43" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="J43" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="K43" s="3">
         <v>700</v>
@@ -2702,25 +2702,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>15200</v>
+        <v>14300</v>
       </c>
       <c r="E46" s="3">
-        <v>16900</v>
+        <v>15900</v>
       </c>
       <c r="F46" s="3">
-        <v>11100</v>
+        <v>10400</v>
       </c>
       <c r="G46" s="3">
-        <v>13000</v>
+        <v>12200</v>
       </c>
       <c r="H46" s="3">
-        <v>15000</v>
+        <v>14100</v>
       </c>
       <c r="I46" s="3">
-        <v>3300</v>
+        <v>3100</v>
       </c>
       <c r="J46" s="3">
-        <v>8500</v>
+        <v>8000</v>
       </c>
       <c r="K46" s="3">
         <v>12000</v>
@@ -2820,25 +2820,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>13800</v>
+        <v>13000</v>
       </c>
       <c r="E48" s="3">
-        <v>13500</v>
+        <v>12700</v>
       </c>
       <c r="F48" s="3">
-        <v>13600</v>
+        <v>12800</v>
       </c>
       <c r="G48" s="3">
-        <v>13800</v>
+        <v>13000</v>
       </c>
       <c r="H48" s="3">
-        <v>13900</v>
+        <v>13000</v>
       </c>
       <c r="I48" s="3">
-        <v>14000</v>
+        <v>13200</v>
       </c>
       <c r="J48" s="3">
-        <v>14200</v>
+        <v>13300</v>
       </c>
       <c r="K48" s="3">
         <v>12700</v>
@@ -3174,25 +3174,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>29300</v>
+        <v>27500</v>
       </c>
       <c r="E54" s="3">
-        <v>30500</v>
+        <v>28700</v>
       </c>
       <c r="F54" s="3">
-        <v>24800</v>
+        <v>23300</v>
       </c>
       <c r="G54" s="3">
-        <v>27000</v>
+        <v>25400</v>
       </c>
       <c r="H54" s="3">
-        <v>29000</v>
+        <v>27300</v>
       </c>
       <c r="I54" s="3">
-        <v>17400</v>
+        <v>16400</v>
       </c>
       <c r="J54" s="3">
-        <v>22900</v>
+        <v>21600</v>
       </c>
       <c r="K54" s="3">
         <v>24900</v>
@@ -3279,13 +3279,13 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2400</v>
+        <v>2200</v>
       </c>
       <c r="E57" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="F57" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="G57" s="3">
         <v>1300</v>
@@ -3294,10 +3294,10 @@
         <v>1100</v>
       </c>
       <c r="I57" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="J57" s="3">
-        <v>3200</v>
+        <v>3000</v>
       </c>
       <c r="K57" s="3">
         <v>1700</v>
@@ -3344,16 +3344,16 @@
         <v>200</v>
       </c>
       <c r="F58" s="3">
-        <v>20000</v>
+        <v>18800</v>
       </c>
       <c r="G58" s="3">
-        <v>19900</v>
+        <v>18700</v>
       </c>
       <c r="H58" s="3">
-        <v>19300</v>
+        <v>18100</v>
       </c>
       <c r="I58" s="3">
-        <v>18700</v>
+        <v>17600</v>
       </c>
       <c r="J58" s="3">
         <v>200</v>
@@ -3456,25 +3456,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2600</v>
+        <v>2400</v>
       </c>
       <c r="E60" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="F60" s="3">
-        <v>21500</v>
+        <v>20200</v>
       </c>
       <c r="G60" s="3">
-        <v>21300</v>
+        <v>20000</v>
       </c>
       <c r="H60" s="3">
-        <v>20400</v>
+        <v>19200</v>
       </c>
       <c r="I60" s="3">
-        <v>19700</v>
+        <v>18500</v>
       </c>
       <c r="J60" s="3">
-        <v>3400</v>
+        <v>3200</v>
       </c>
       <c r="K60" s="3">
         <v>1800</v>
@@ -3515,25 +3515,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>21700</v>
+        <v>20400</v>
       </c>
       <c r="E61" s="3">
-        <v>21100</v>
+        <v>19900</v>
       </c>
       <c r="F61" s="3">
+        <v>1700</v>
+      </c>
+      <c r="G61" s="3">
+        <v>1700</v>
+      </c>
+      <c r="H61" s="3">
+        <v>1700</v>
+      </c>
+      <c r="I61" s="3">
         <v>1800</v>
       </c>
-      <c r="G61" s="3">
-        <v>1900</v>
-      </c>
-      <c r="H61" s="3">
-        <v>1800</v>
-      </c>
-      <c r="I61" s="3">
-        <v>1900</v>
-      </c>
       <c r="J61" s="3">
-        <v>20100</v>
+        <v>18900</v>
       </c>
       <c r="K61" s="3">
         <v>37300</v>
@@ -3810,25 +3810,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>24300</v>
+        <v>22900</v>
       </c>
       <c r="E66" s="3">
-        <v>23400</v>
+        <v>22000</v>
       </c>
       <c r="F66" s="3">
-        <v>23500</v>
+        <v>22100</v>
       </c>
       <c r="G66" s="3">
-        <v>23500</v>
+        <v>22100</v>
       </c>
       <c r="H66" s="3">
-        <v>22600</v>
+        <v>21300</v>
       </c>
       <c r="I66" s="3">
-        <v>21900</v>
+        <v>20600</v>
       </c>
       <c r="J66" s="3">
-        <v>23500</v>
+        <v>22100</v>
       </c>
       <c r="K66" s="3">
         <v>42900</v>
@@ -4128,25 +4128,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-114600</v>
+        <v>-107800</v>
       </c>
       <c r="E72" s="3">
-        <v>-111700</v>
+        <v>-105100</v>
       </c>
       <c r="F72" s="3">
-        <v>-108400</v>
+        <v>-102000</v>
       </c>
       <c r="G72" s="3">
-        <v>-105700</v>
+        <v>-99300</v>
       </c>
       <c r="H72" s="3">
-        <v>-102000</v>
+        <v>-95900</v>
       </c>
       <c r="I72" s="3">
-        <v>-99500</v>
+        <v>-93500</v>
       </c>
       <c r="J72" s="3">
-        <v>-95200</v>
+        <v>-89500</v>
       </c>
       <c r="K72" s="3">
         <v>-106400</v>
@@ -4364,25 +4364,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>5000</v>
+        <v>4700</v>
       </c>
       <c r="E76" s="3">
-        <v>7100</v>
+        <v>6700</v>
       </c>
       <c r="F76" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="G76" s="3">
-        <v>3500</v>
+        <v>3300</v>
       </c>
       <c r="H76" s="3">
-        <v>6400</v>
+        <v>6000</v>
       </c>
       <c r="I76" s="3">
-        <v>-4500</v>
+        <v>-4200</v>
       </c>
       <c r="J76" s="3">
-        <v>-600</v>
+        <v>-500</v>
       </c>
       <c r="K76" s="3">
         <v>-18000</v>
@@ -4546,25 +4546,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-2900</v>
+        <v>-2700</v>
       </c>
       <c r="E81" s="3">
-        <v>-3300</v>
+        <v>-3100</v>
       </c>
       <c r="F81" s="3">
-        <v>-2800</v>
+        <v>-2600</v>
       </c>
       <c r="G81" s="3">
-        <v>-3700</v>
+        <v>-3500</v>
       </c>
       <c r="H81" s="3">
-        <v>-2500</v>
+        <v>-2400</v>
       </c>
       <c r="I81" s="3">
-        <v>-4300</v>
+        <v>-4100</v>
       </c>
       <c r="J81" s="3">
-        <v>16900</v>
+        <v>15900</v>
       </c>
       <c r="K81" s="3">
         <v>-12200</v>
@@ -4637,10 +4637,10 @@
         <v>200</v>
       </c>
       <c r="G83" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="H83" s="3">
-        <v>-600</v>
+        <v>-500</v>
       </c>
       <c r="I83" s="3">
         <v>200</v>
@@ -4985,22 +4985,22 @@
         <v>4</v>
       </c>
       <c r="E89" s="3">
-        <v>-2000</v>
+        <v>-1900</v>
       </c>
       <c r="F89" s="3">
-        <v>-1900</v>
+        <v>-1800</v>
       </c>
       <c r="G89" s="3">
-        <v>-3600</v>
+        <v>-3400</v>
       </c>
       <c r="H89" s="3">
-        <v>21000</v>
+        <v>19800</v>
       </c>
       <c r="I89" s="3">
-        <v>-4900</v>
+        <v>-4600</v>
       </c>
       <c r="J89" s="3">
-        <v>-3200</v>
+        <v>-3000</v>
       </c>
       <c r="K89" s="3">
         <v>-3400</v>
@@ -5076,7 +5076,7 @@
         <v>0</v>
       </c>
       <c r="H91" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="I91" s="3">
         <v>0</v>
@@ -5253,7 +5253,7 @@
         <v>0</v>
       </c>
       <c r="H94" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="I94" s="3">
         <v>100</v>
@@ -5562,16 +5562,16 @@
         <v>4</v>
       </c>
       <c r="E100" s="3">
-        <v>8400</v>
+        <v>7900</v>
       </c>
       <c r="F100" s="3">
         <v>-300</v>
       </c>
       <c r="G100" s="3">
-        <v>12700</v>
+        <v>12000</v>
       </c>
       <c r="H100" s="3">
-        <v>8600</v>
+        <v>8100</v>
       </c>
       <c r="I100" s="3">
         <v>-100</v>
@@ -5627,7 +5627,7 @@
         <v>600</v>
       </c>
       <c r="G101" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="H101" s="3">
         <v>-200</v>
@@ -5680,22 +5680,22 @@
         <v>4</v>
       </c>
       <c r="E102" s="3">
-        <v>5900</v>
+        <v>5600</v>
       </c>
       <c r="F102" s="3">
-        <v>-1600</v>
+        <v>-1500</v>
       </c>
       <c r="G102" s="3">
-        <v>9300</v>
+        <v>8800</v>
       </c>
       <c r="H102" s="3">
-        <v>31300</v>
+        <v>29400</v>
       </c>
       <c r="I102" s="3">
-        <v>-4700</v>
+        <v>-4400</v>
       </c>
       <c r="J102" s="3">
-        <v>-4300</v>
+        <v>-4000</v>
       </c>
       <c r="K102" s="3">
         <v>-1100</v>

--- a/AAII_Financials/Quarterly/BVXV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BVXV_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="92">
   <si>
     <t>BVXV</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,93 +665,101 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -809,8 +817,14 @@
       <c r="U8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+      <c r="W8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -868,8 +882,14 @@
       <c r="U9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -927,8 +947,14 @@
       <c r="U10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -950,8 +976,10 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -959,58 +987,64 @@
         <v>1100</v>
       </c>
       <c r="E12" s="3">
-        <v>1100</v>
+        <v>1800</v>
       </c>
       <c r="F12" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G12" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H12" s="3">
         <v>600</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>500</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>800</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>2300</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>3600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>3500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>5900</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>10000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>5000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>4700</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>1700</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>8000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>1200</v>
       </c>
-      <c r="S12" s="3">
+      <c r="U12" s="3">
         <v>8300</v>
       </c>
-      <c r="T12" s="3">
+      <c r="V12" s="3">
         <v>3300</v>
       </c>
-      <c r="U12" s="3">
+      <c r="W12" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1068,8 +1102,14 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1127,8 +1167,14 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1186,8 +1232,14 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1206,67 +1258,75 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2400</v>
+        <v>-1100</v>
       </c>
       <c r="E17" s="3">
-        <v>3200</v>
+        <v>3000</v>
       </c>
       <c r="F17" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="G17" s="3">
-        <v>2600</v>
+        <v>3000</v>
       </c>
       <c r="H17" s="3">
+        <v>2300</v>
+      </c>
+      <c r="I17" s="3">
+        <v>2500</v>
+      </c>
+      <c r="J17" s="3">
         <v>1900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>3500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>-16000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>4700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>6200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>10300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>5800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>6100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>2200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>8400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>1700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>8700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>3600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1274,58 +1334,64 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>-3200</v>
+        <v>-3000</v>
       </c>
       <c r="F18" s="3">
-        <v>-2400</v>
+        <v>-2300</v>
       </c>
       <c r="G18" s="3">
-        <v>-2600</v>
+        <v>-3000</v>
       </c>
       <c r="H18" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="J18" s="3">
         <v>-1900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-3500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>16000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-4700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-6200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-10300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-5800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-6100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-8400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-1700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-8700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-3600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>-4300</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1347,8 +1413,10 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1356,117 +1424,129 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F20" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G20" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-7500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>5000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-3300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-8500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>2300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-5400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>1000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>1500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>-400</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="3">
-        <v>-2900</v>
-      </c>
-      <c r="F21" s="3">
-        <v>-2400</v>
+      <c r="E21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G21" s="3">
-        <v>-3100</v>
+        <v>-2300</v>
       </c>
       <c r="H21" s="3">
-        <v>-2900</v>
+        <v>-2300</v>
       </c>
       <c r="I21" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="J21" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="K21" s="3">
         <v>-3900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>16100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-12000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-1000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-13100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-5800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-14500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-13800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>-7200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>-4000</v>
       </c>
-      <c r="U21" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="W21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1524,67 +1604,79 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-2700</v>
+        <v>1000</v>
       </c>
       <c r="E23" s="3">
-        <v>-3100</v>
+        <v>-3600</v>
       </c>
       <c r="F23" s="3">
         <v>-2600</v>
       </c>
       <c r="G23" s="3">
-        <v>-3500</v>
+        <v>-3000</v>
       </c>
       <c r="H23" s="3">
-        <v>-2400</v>
+        <v>-2500</v>
       </c>
       <c r="I23" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="K23" s="3">
         <v>-4100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>15900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-12200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-1100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-13600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-6000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-14600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-13800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-7300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-4000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-3600</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1642,8 +1734,14 @@
       <c r="U24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1701,126 +1799,144 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-2700</v>
+        <v>1000</v>
       </c>
       <c r="E26" s="3">
-        <v>-3100</v>
+        <v>-3600</v>
       </c>
       <c r="F26" s="3">
         <v>-2600</v>
       </c>
       <c r="G26" s="3">
-        <v>-3500</v>
+        <v>-3000</v>
       </c>
       <c r="H26" s="3">
-        <v>-2400</v>
+        <v>-2500</v>
       </c>
       <c r="I26" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="K26" s="3">
         <v>-4100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>15900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-12200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-1100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-13600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-6000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-14600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-13800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-7300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-4000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-3600</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-2700</v>
+        <v>1000</v>
       </c>
       <c r="E27" s="3">
-        <v>-3100</v>
+        <v>-3600</v>
       </c>
       <c r="F27" s="3">
         <v>-2600</v>
       </c>
       <c r="G27" s="3">
-        <v>-3500</v>
+        <v>-3000</v>
       </c>
       <c r="H27" s="3">
-        <v>-2400</v>
+        <v>-2500</v>
       </c>
       <c r="I27" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="K27" s="3">
         <v>-4100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>15900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-12200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-1400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-13600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-6000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-14600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-13800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-7300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-4000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-3600</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1878,8 +1994,14 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1937,8 +2059,14 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1996,8 +2124,14 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2055,8 +2189,14 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2064,117 +2204,129 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>600</v>
+      </c>
+      <c r="F32" s="3">
+        <v>300</v>
+      </c>
+      <c r="G32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>7500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-5000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>3300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>8500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>5400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-1000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>-1500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>400</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-2700</v>
+        <v>1000</v>
       </c>
       <c r="E33" s="3">
-        <v>-3100</v>
+        <v>-3600</v>
       </c>
       <c r="F33" s="3">
         <v>-2600</v>
       </c>
       <c r="G33" s="3">
-        <v>-3500</v>
+        <v>-3000</v>
       </c>
       <c r="H33" s="3">
-        <v>-2400</v>
+        <v>-2500</v>
       </c>
       <c r="I33" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="K33" s="3">
         <v>-4100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>15900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-12200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-1400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-13600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-6000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-14600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-13800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-7300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-4000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-3600</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2232,131 +2384,149 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-2700</v>
+        <v>1000</v>
       </c>
       <c r="E35" s="3">
-        <v>-3100</v>
+        <v>-3600</v>
       </c>
       <c r="F35" s="3">
         <v>-2600</v>
       </c>
       <c r="G35" s="3">
-        <v>-3500</v>
+        <v>-3000</v>
       </c>
       <c r="H35" s="3">
-        <v>-2400</v>
+        <v>-2500</v>
       </c>
       <c r="I35" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="K35" s="3">
         <v>-4100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>15900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-12200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-1400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-13600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-6000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-14600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-13800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-7300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-4000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-3600</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2378,8 +2548,10 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2401,67 +2573,75 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>14100</v>
+        <v>8200</v>
       </c>
       <c r="E41" s="3">
-        <v>15600</v>
+        <v>11000</v>
       </c>
       <c r="F41" s="3">
-        <v>10000</v>
+        <v>13600</v>
       </c>
       <c r="G41" s="3">
-        <v>11500</v>
+        <v>15000</v>
       </c>
       <c r="H41" s="3">
-        <v>14000</v>
+        <v>9600</v>
       </c>
       <c r="I41" s="3">
+        <v>11100</v>
+      </c>
+      <c r="J41" s="3">
+        <v>13500</v>
+      </c>
+      <c r="K41" s="3">
         <v>2700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>7100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>11300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>13100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>23000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>23200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>10500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>17300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>22800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>15100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>10600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>15900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>20800</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2519,8 +2699,14 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2528,58 +2714,64 @@
         <v>200</v>
       </c>
       <c r="E43" s="3">
+        <v>200</v>
+      </c>
+      <c r="F43" s="3">
+        <v>200</v>
+      </c>
+      <c r="G43" s="3">
         <v>300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
+        <v>700</v>
+      </c>
+      <c r="J43" s="3">
+        <v>100</v>
+      </c>
+      <c r="K43" s="3">
+        <v>300</v>
+      </c>
+      <c r="L43" s="3">
         <v>800</v>
       </c>
-      <c r="H43" s="3">
-        <v>100</v>
-      </c>
-      <c r="I43" s="3">
-        <v>300</v>
-      </c>
-      <c r="J43" s="3">
-        <v>800</v>
-      </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>200</v>
-      </c>
-      <c r="N43" s="3">
-        <v>600</v>
-      </c>
-      <c r="O43" s="3">
-        <v>400</v>
       </c>
       <c r="P43" s="3">
         <v>600</v>
       </c>
       <c r="Q43" s="3">
+        <v>400</v>
+      </c>
+      <c r="R43" s="3">
+        <v>600</v>
+      </c>
+      <c r="S43" s="3">
         <v>300</v>
-      </c>
-      <c r="R43" s="3">
-        <v>800</v>
-      </c>
-      <c r="S43" s="3">
-        <v>1200</v>
       </c>
       <c r="T43" s="3">
         <v>800</v>
       </c>
       <c r="U43" s="3">
+        <v>1200</v>
+      </c>
+      <c r="V43" s="3">
+        <v>800</v>
+      </c>
+      <c r="W43" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2637,8 +2829,14 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2696,67 +2894,79 @@
       <c r="U45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>14300</v>
+        <v>8400</v>
       </c>
       <c r="E46" s="3">
+        <v>11100</v>
+      </c>
+      <c r="F46" s="3">
+        <v>13800</v>
+      </c>
+      <c r="G46" s="3">
+        <v>15300</v>
+      </c>
+      <c r="H46" s="3">
+        <v>10000</v>
+      </c>
+      <c r="I46" s="3">
+        <v>11800</v>
+      </c>
+      <c r="J46" s="3">
+        <v>13600</v>
+      </c>
+      <c r="K46" s="3">
+        <v>3100</v>
+      </c>
+      <c r="L46" s="3">
+        <v>8000</v>
+      </c>
+      <c r="M46" s="3">
+        <v>12000</v>
+      </c>
+      <c r="N46" s="3">
+        <v>13500</v>
+      </c>
+      <c r="O46" s="3">
+        <v>23200</v>
+      </c>
+      <c r="P46" s="3">
+        <v>23800</v>
+      </c>
+      <c r="Q46" s="3">
+        <v>10900</v>
+      </c>
+      <c r="R46" s="3">
+        <v>17900</v>
+      </c>
+      <c r="S46" s="3">
+        <v>23100</v>
+      </c>
+      <c r="T46" s="3">
         <v>15900</v>
       </c>
-      <c r="F46" s="3">
-        <v>10400</v>
-      </c>
-      <c r="G46" s="3">
-        <v>12200</v>
-      </c>
-      <c r="H46" s="3">
-        <v>14100</v>
-      </c>
-      <c r="I46" s="3">
-        <v>3100</v>
-      </c>
-      <c r="J46" s="3">
-        <v>8000</v>
-      </c>
-      <c r="K46" s="3">
-        <v>12000</v>
-      </c>
-      <c r="L46" s="3">
-        <v>13500</v>
-      </c>
-      <c r="M46" s="3">
-        <v>23200</v>
-      </c>
-      <c r="N46" s="3">
-        <v>23800</v>
-      </c>
-      <c r="O46" s="3">
-        <v>10900</v>
-      </c>
-      <c r="P46" s="3">
-        <v>17900</v>
-      </c>
-      <c r="Q46" s="3">
-        <v>23100</v>
-      </c>
-      <c r="R46" s="3">
-        <v>15900</v>
-      </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>11700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>16700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>22000</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2814,67 +3024,79 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>13000</v>
+        <v>12100</v>
       </c>
       <c r="E48" s="3">
+        <v>12400</v>
+      </c>
+      <c r="F48" s="3">
+        <v>12500</v>
+      </c>
+      <c r="G48" s="3">
+        <v>12300</v>
+      </c>
+      <c r="H48" s="3">
+        <v>12400</v>
+      </c>
+      <c r="I48" s="3">
+        <v>12500</v>
+      </c>
+      <c r="J48" s="3">
+        <v>12600</v>
+      </c>
+      <c r="K48" s="3">
+        <v>13200</v>
+      </c>
+      <c r="L48" s="3">
+        <v>13300</v>
+      </c>
+      <c r="M48" s="3">
         <v>12700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="N48" s="3">
+        <v>13200</v>
+      </c>
+      <c r="O48" s="3">
+        <v>13300</v>
+      </c>
+      <c r="P48" s="3">
         <v>12800</v>
       </c>
-      <c r="G48" s="3">
-        <v>13000</v>
-      </c>
-      <c r="H48" s="3">
-        <v>13000</v>
-      </c>
-      <c r="I48" s="3">
-        <v>13200</v>
-      </c>
-      <c r="J48" s="3">
-        <v>13300</v>
-      </c>
-      <c r="K48" s="3">
-        <v>12700</v>
-      </c>
-      <c r="L48" s="3">
-        <v>13200</v>
-      </c>
-      <c r="M48" s="3">
-        <v>13300</v>
-      </c>
-      <c r="N48" s="3">
-        <v>12800</v>
-      </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>12400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>11800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>8500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>6900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>5400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>3600</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2932,8 +3154,14 @@
       <c r="U49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2991,8 +3219,14 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3050,8 +3284,14 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3059,10 +3299,10 @@
         <v>300</v>
       </c>
       <c r="E52" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="F52" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="G52" s="3">
         <v>100</v>
@@ -3074,19 +3314,19 @@
         <v>100</v>
       </c>
       <c r="J52" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="K52" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="L52" s="3">
         <v>300</v>
       </c>
       <c r="M52" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N52" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="O52" s="3">
         <v>200</v>
@@ -3098,10 +3338,10 @@
         <v>200</v>
       </c>
       <c r="R52" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="S52" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="T52" s="3">
         <v>300</v>
@@ -3109,8 +3349,14 @@
       <c r="U52" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3">
+        <v>300</v>
+      </c>
+      <c r="W52" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3168,67 +3414,79 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>27500</v>
+        <v>20800</v>
       </c>
       <c r="E54" s="3">
-        <v>28700</v>
+        <v>23800</v>
       </c>
       <c r="F54" s="3">
-        <v>23300</v>
+        <v>26500</v>
       </c>
       <c r="G54" s="3">
-        <v>25400</v>
+        <v>27700</v>
       </c>
       <c r="H54" s="3">
-        <v>27300</v>
+        <v>22500</v>
       </c>
       <c r="I54" s="3">
+        <v>24500</v>
+      </c>
+      <c r="J54" s="3">
+        <v>26300</v>
+      </c>
+      <c r="K54" s="3">
         <v>16400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>21600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>24900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>27000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>36700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>36800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>23400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>29900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>31800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>23000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>17300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>20500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>23800</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3250,8 +3508,10 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3273,93 +3533,101 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2200</v>
+        <v>900</v>
       </c>
       <c r="E57" s="3">
-        <v>1900</v>
+        <v>1100</v>
       </c>
       <c r="F57" s="3">
+        <v>2100</v>
+      </c>
+      <c r="G57" s="3">
+        <v>1800</v>
+      </c>
+      <c r="H57" s="3">
         <v>1400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
+        <v>1200</v>
+      </c>
+      <c r="J57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K57" s="3">
+        <v>900</v>
+      </c>
+      <c r="L57" s="3">
+        <v>3000</v>
+      </c>
+      <c r="M57" s="3">
+        <v>1700</v>
+      </c>
+      <c r="N57" s="3">
         <v>1300</v>
       </c>
-      <c r="H57" s="3">
-        <v>1100</v>
-      </c>
-      <c r="I57" s="3">
-        <v>900</v>
-      </c>
-      <c r="J57" s="3">
-        <v>3000</v>
-      </c>
-      <c r="K57" s="3">
-        <v>1700</v>
-      </c>
-      <c r="L57" s="3">
-        <v>1300</v>
-      </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>5800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>2900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>5000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>6600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>2600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>600</v>
+      </c>
+      <c r="E58" s="3">
+        <v>5400</v>
+      </c>
+      <c r="F58" s="3">
         <v>200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>200</v>
-      </c>
-      <c r="F58" s="3">
-        <v>18800</v>
-      </c>
-      <c r="G58" s="3">
-        <v>18700</v>
       </c>
       <c r="H58" s="3">
         <v>18100</v>
       </c>
       <c r="I58" s="3">
+        <v>18100</v>
+      </c>
+      <c r="J58" s="3">
+        <v>17500</v>
+      </c>
+      <c r="K58" s="3">
         <v>17600</v>
-      </c>
-      <c r="J58" s="3">
-        <v>200</v>
-      </c>
-      <c r="K58" s="3">
-        <v>200</v>
       </c>
       <c r="L58" s="3">
         <v>200</v>
@@ -3376,11 +3644,11 @@
       <c r="P58" s="3">
         <v>200</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R58" s="3" t="s">
-        <v>4</v>
+      <c r="Q58" s="3">
+        <v>200</v>
+      </c>
+      <c r="R58" s="3">
+        <v>200</v>
       </c>
       <c r="S58" s="3" t="s">
         <v>4</v>
@@ -3391,8 +3659,14 @@
       <c r="U58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3450,126 +3724,144 @@
       <c r="U59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3">
+        <v>0</v>
+      </c>
+      <c r="W59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E60" s="3">
+        <v>6500</v>
+      </c>
+      <c r="F60" s="3">
         <v>2400</v>
       </c>
-      <c r="E60" s="3">
-        <v>2100</v>
-      </c>
-      <c r="F60" s="3">
-        <v>20200</v>
-      </c>
       <c r="G60" s="3">
-        <v>20000</v>
+        <v>2000</v>
       </c>
       <c r="H60" s="3">
-        <v>19200</v>
+        <v>19500</v>
       </c>
       <c r="I60" s="3">
+        <v>19300</v>
+      </c>
+      <c r="J60" s="3">
         <v>18500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
+        <v>18500</v>
+      </c>
+      <c r="L60" s="3">
         <v>3200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>1800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>1500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>6000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>3100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>5200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>6600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>2600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>20400</v>
+        <v>16700</v>
       </c>
       <c r="E61" s="3">
-        <v>19900</v>
+        <v>16000</v>
       </c>
       <c r="F61" s="3">
+        <v>19700</v>
+      </c>
+      <c r="G61" s="3">
+        <v>19200</v>
+      </c>
+      <c r="H61" s="3">
+        <v>1600</v>
+      </c>
+      <c r="I61" s="3">
         <v>1700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="J61" s="3">
         <v>1700</v>
       </c>
-      <c r="H61" s="3">
-        <v>1700</v>
-      </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>1800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>18900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>37300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>38300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>41400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>35500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>36400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>28900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>28400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>12200</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>5900</v>
       </c>
-      <c r="T61" s="3">
-        <v>0</v>
-      </c>
-      <c r="U61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3580,55 +3872,61 @@
         <v>0</v>
       </c>
       <c r="F62" s="3">
+        <v>0</v>
+      </c>
+      <c r="G62" s="3">
+        <v>0</v>
+      </c>
+      <c r="H62" s="3">
         <v>200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
+        <v>300</v>
+      </c>
+      <c r="J62" s="3">
+        <v>300</v>
+      </c>
+      <c r="K62" s="3">
         <v>400</v>
       </c>
-      <c r="H62" s="3">
-        <v>400</v>
-      </c>
-      <c r="I62" s="3">
-        <v>400</v>
-      </c>
-      <c r="J62" s="3">
-        <v>0</v>
-      </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+      <c r="M62" s="3">
         <v>3700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>6100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>9900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>6600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>6200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>5000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>6300</v>
-      </c>
-      <c r="R62" s="3">
-        <v>5900</v>
-      </c>
-      <c r="S62" s="3">
-        <v>6100</v>
       </c>
       <c r="T62" s="3">
         <v>5900</v>
       </c>
       <c r="U62" s="3">
+        <v>6100</v>
+      </c>
+      <c r="V62" s="3">
+        <v>5900</v>
+      </c>
+      <c r="W62" s="3">
         <v>5400</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3686,8 +3984,14 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3745,8 +4049,14 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3804,67 +4114,79 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>22900</v>
+        <v>18200</v>
       </c>
       <c r="E66" s="3">
+        <v>22500</v>
+      </c>
+      <c r="F66" s="3">
         <v>22000</v>
       </c>
-      <c r="F66" s="3">
-        <v>22100</v>
-      </c>
       <c r="G66" s="3">
-        <v>22100</v>
+        <v>21200</v>
       </c>
       <c r="H66" s="3">
         <v>21300</v>
       </c>
       <c r="I66" s="3">
+        <v>21300</v>
+      </c>
+      <c r="J66" s="3">
+        <v>20500</v>
+      </c>
+      <c r="K66" s="3">
         <v>20600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>22100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>42900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>45900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>57300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>43000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>45800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>39100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>41200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>18900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>12600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>8500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>7400</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3886,8 +4208,10 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3945,8 +4269,14 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4004,8 +4334,14 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4063,8 +4399,14 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4122,67 +4464,79 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-107800</v>
+        <v>-106500</v>
       </c>
       <c r="E72" s="3">
-        <v>-105100</v>
+        <v>-107500</v>
       </c>
       <c r="F72" s="3">
-        <v>-102000</v>
+        <v>-103900</v>
       </c>
       <c r="G72" s="3">
-        <v>-99300</v>
+        <v>-101300</v>
       </c>
       <c r="H72" s="3">
-        <v>-95900</v>
+        <v>-98300</v>
       </c>
       <c r="I72" s="3">
+        <v>-95800</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-92500</v>
+      </c>
+      <c r="K72" s="3">
         <v>-93500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-89500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-106400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-99700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-101500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-85400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-79600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-63300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-63500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-47100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-46500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-39200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-36000</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4240,8 +4594,14 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4299,8 +4659,14 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4358,67 +4724,79 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4700</v>
+        <v>2600</v>
       </c>
       <c r="E76" s="3">
-        <v>6700</v>
+        <v>1200</v>
       </c>
       <c r="F76" s="3">
+        <v>4500</v>
+      </c>
+      <c r="G76" s="3">
+        <v>6500</v>
+      </c>
+      <c r="H76" s="3">
         <v>1200</v>
       </c>
-      <c r="G76" s="3">
-        <v>3300</v>
-      </c>
-      <c r="H76" s="3">
-        <v>6000</v>
-      </c>
       <c r="I76" s="3">
+        <v>3200</v>
+      </c>
+      <c r="J76" s="3">
+        <v>5800</v>
+      </c>
+      <c r="K76" s="3">
         <v>-4200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-18000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-18900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-20600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-6300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-22400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-9200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-9400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>4100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>4800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>12000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>16400</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4476,131 +4854,149 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-2700</v>
+        <v>1000</v>
       </c>
       <c r="E81" s="3">
-        <v>-3100</v>
+        <v>-3600</v>
       </c>
       <c r="F81" s="3">
         <v>-2600</v>
       </c>
       <c r="G81" s="3">
-        <v>-3500</v>
+        <v>-3000</v>
       </c>
       <c r="H81" s="3">
-        <v>-2400</v>
+        <v>-2500</v>
       </c>
       <c r="I81" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="K81" s="3">
         <v>-4100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>15900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-12200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-1400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-13600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-6000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-14600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-13800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-7300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-4000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-3600</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4622,31 +5018,33 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E83" s="3">
+      <c r="E83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G83" s="3">
+        <v>700</v>
+      </c>
+      <c r="H83" s="3">
         <v>200</v>
-      </c>
-      <c r="F83" s="3">
-        <v>200</v>
-      </c>
-      <c r="G83" s="3">
-        <v>300</v>
-      </c>
-      <c r="H83" s="3">
-        <v>-500</v>
       </c>
       <c r="I83" s="3">
         <v>200</v>
       </c>
       <c r="J83" s="3">
-        <v>200</v>
+        <v>-500</v>
       </c>
       <c r="K83" s="3">
         <v>200</v>
@@ -4655,34 +5053,40 @@
         <v>200</v>
       </c>
       <c r="M83" s="3">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="N83" s="3">
         <v>200</v>
       </c>
       <c r="O83" s="3">
+        <v>500</v>
+      </c>
+      <c r="P83" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q83" s="3">
         <v>100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>100</v>
       </c>
-      <c r="Q83" s="3">
-        <v>0</v>
-      </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+      <c r="T83" s="3">
         <v>-100</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>100</v>
       </c>
-      <c r="T83" s="3">
-        <v>0</v>
-      </c>
-      <c r="U83" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+      <c r="W83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4740,8 +5144,14 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4799,8 +5209,14 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4858,8 +5274,14 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4917,8 +5339,14 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4976,67 +5404,79 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E89" s="3">
+      <c r="E89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G89" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="H89" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="I89" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="J89" s="3">
+        <v>19100</v>
+      </c>
+      <c r="K89" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="L89" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="M89" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="N89" s="3">
+        <v>-10600</v>
+      </c>
+      <c r="O89" s="3">
+        <v>-24400</v>
+      </c>
+      <c r="P89" s="3">
+        <v>-7700</v>
+      </c>
+      <c r="Q89" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="R89" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="S89" s="3">
         <v>-1900</v>
       </c>
-      <c r="F89" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="G89" s="3">
-        <v>-3400</v>
-      </c>
-      <c r="H89" s="3">
-        <v>19800</v>
-      </c>
-      <c r="I89" s="3">
-        <v>-4600</v>
-      </c>
-      <c r="J89" s="3">
-        <v>-3000</v>
-      </c>
-      <c r="K89" s="3">
-        <v>-3400</v>
-      </c>
-      <c r="L89" s="3">
-        <v>-10600</v>
-      </c>
-      <c r="M89" s="3">
-        <v>-24400</v>
-      </c>
-      <c r="N89" s="3">
-        <v>-7700</v>
-      </c>
-      <c r="O89" s="3">
-        <v>-6700</v>
-      </c>
-      <c r="P89" s="3">
-        <v>-4000</v>
-      </c>
-      <c r="Q89" s="3">
-        <v>-1900</v>
-      </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-11000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>-2600</v>
       </c>
-      <c r="U89" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="W89" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5058,67 +5498,75 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E91" s="3">
+      <c r="E91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G91" s="3">
         <v>-100</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
       <c r="H91" s="3">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="I91" s="3">
         <v>0</v>
       </c>
       <c r="J91" s="3">
+        <v>1700</v>
+      </c>
+      <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
         <v>-1000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-2400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-1200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-1700</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-1900</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-2000</v>
       </c>
-      <c r="U91" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="W91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5176,8 +5624,14 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5235,67 +5689,79 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E94" s="3">
+      <c r="E94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G94" s="3">
         <v>-100</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>1700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-1000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-2300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-1200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-1700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-1900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-2000</v>
       </c>
-      <c r="U94" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="W94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5317,8 +5783,10 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5376,8 +5844,14 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5435,8 +5909,14 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5494,8 +5974,14 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5553,105 +6039,117 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E100" s="3">
-        <v>7900</v>
-      </c>
-      <c r="F100" s="3">
+      <c r="E100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G100" s="3">
+        <v>18800</v>
+      </c>
+      <c r="H100" s="3">
         <v>-300</v>
-      </c>
-      <c r="G100" s="3">
-        <v>12000</v>
-      </c>
-      <c r="H100" s="3">
-        <v>8100</v>
       </c>
       <c r="I100" s="3">
         <v>-100</v>
       </c>
       <c r="J100" s="3">
-        <v>0</v>
+        <v>7800</v>
       </c>
       <c r="K100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>2900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>1300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>27000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>21600</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>-100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>10100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>7200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>7200</v>
       </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
-      <c r="U100" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+      <c r="W100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E101" s="3">
-        <v>-300</v>
-      </c>
-      <c r="F101" s="3">
-        <v>600</v>
+      <c r="E101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G101" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="H101" s="3">
-        <v>-200</v>
+        <v>500</v>
       </c>
       <c r="I101" s="3">
-        <v>200</v>
+        <v>-100</v>
       </c>
       <c r="J101" s="3">
         <v>-100</v>
       </c>
       <c r="K101" s="3">
+        <v>200</v>
+      </c>
+      <c r="L101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M101" s="3">
         <v>-200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>600</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>-1400</v>
-      </c>
-      <c r="N101" s="3">
-        <v>-500</v>
-      </c>
-      <c r="O101" s="3">
-        <v>-200</v>
       </c>
       <c r="P101" s="3">
         <v>-500</v>
@@ -5660,74 +6158,86 @@
         <v>-200</v>
       </c>
       <c r="R101" s="3">
+        <v>-500</v>
+      </c>
+      <c r="S101" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T101" s="3">
         <v>-100</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>400</v>
       </c>
-      <c r="T101" s="3">
+      <c r="V101" s="3">
         <v>100</v>
       </c>
-      <c r="U101" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="W101" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E102" s="3">
-        <v>5600</v>
-      </c>
-      <c r="F102" s="3">
-        <v>-1500</v>
+      <c r="E102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G102" s="3">
-        <v>8800</v>
+        <v>12400</v>
       </c>
       <c r="H102" s="3">
-        <v>29400</v>
+        <v>-1400</v>
       </c>
       <c r="I102" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="J102" s="3">
+        <v>28400</v>
+      </c>
+      <c r="K102" s="3">
         <v>-4400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-4000</v>
-      </c>
-      <c r="K102" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="L102" s="3">
-        <v>-9200</v>
       </c>
       <c r="M102" s="3">
         <v>-1100</v>
       </c>
       <c r="N102" s="3">
+        <v>-9200</v>
+      </c>
+      <c r="O102" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="P102" s="3">
         <v>12700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-7200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-5600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>6900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>4500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-5300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>-4500</v>
       </c>
-      <c r="U102" s="3" t="s">
+      <c r="W102" s="3" t="s">
         <v>4</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BVXV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BVXV_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="92">
   <si>
     <t>BVXV</t>
   </si>
@@ -984,25 +984,25 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>1100</v>
+        <v>4000</v>
       </c>
       <c r="E12" s="3">
-        <v>1800</v>
+        <v>6500</v>
       </c>
       <c r="F12" s="3">
-        <v>1000</v>
+        <v>3700</v>
       </c>
       <c r="G12" s="3">
-        <v>1000</v>
+        <v>3700</v>
       </c>
       <c r="H12" s="3">
-        <v>600</v>
+        <v>2000</v>
       </c>
       <c r="I12" s="3">
-        <v>500</v>
+        <v>1900</v>
       </c>
       <c r="J12" s="3">
-        <v>800</v>
+        <v>2800</v>
       </c>
       <c r="K12" s="3">
         <v>2300</v>
@@ -1266,25 +1266,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>-1100</v>
+        <v>-3900</v>
       </c>
       <c r="E17" s="3">
-        <v>3000</v>
+        <v>10800</v>
       </c>
       <c r="F17" s="3">
-        <v>2300</v>
+        <v>8300</v>
       </c>
       <c r="G17" s="3">
-        <v>3000</v>
+        <v>10900</v>
       </c>
       <c r="H17" s="3">
-        <v>2300</v>
+        <v>8200</v>
       </c>
       <c r="I17" s="3">
-        <v>2500</v>
+        <v>8900</v>
       </c>
       <c r="J17" s="3">
-        <v>1900</v>
+        <v>6800</v>
       </c>
       <c r="K17" s="3">
         <v>3500</v>
@@ -1334,22 +1334,22 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>-3000</v>
+        <v>-10800</v>
       </c>
       <c r="F18" s="3">
-        <v>-2300</v>
+        <v>-8300</v>
       </c>
       <c r="G18" s="3">
-        <v>-3000</v>
+        <v>-10900</v>
       </c>
       <c r="H18" s="3">
-        <v>-2300</v>
+        <v>-8200</v>
       </c>
       <c r="I18" s="3">
-        <v>-2500</v>
+        <v>-8900</v>
       </c>
       <c r="J18" s="3">
-        <v>-1900</v>
+        <v>-6800</v>
       </c>
       <c r="K18" s="3">
         <v>-3500</v>
@@ -1424,22 +1424,22 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
-        <v>-600</v>
+        <v>-2100</v>
       </c>
       <c r="F20" s="3">
-        <v>-300</v>
+        <v>-1100</v>
       </c>
       <c r="G20" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H20" s="3">
-        <v>-200</v>
+        <v>-800</v>
       </c>
       <c r="I20" s="3">
-        <v>-900</v>
+        <v>-3100</v>
       </c>
       <c r="J20" s="3">
-        <v>-400</v>
+        <v>-1400</v>
       </c>
       <c r="K20" s="3">
         <v>-600</v>
@@ -1495,16 +1495,16 @@
         <v>4</v>
       </c>
       <c r="G21" s="3">
-        <v>-2300</v>
+        <v>-8300</v>
       </c>
       <c r="H21" s="3">
-        <v>-2300</v>
+        <v>-8400</v>
       </c>
       <c r="I21" s="3">
-        <v>-3200</v>
+        <v>-11400</v>
       </c>
       <c r="J21" s="3">
-        <v>-2800</v>
+        <v>-10000</v>
       </c>
       <c r="K21" s="3">
         <v>-3900</v>
@@ -1616,25 +1616,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1000</v>
+        <v>3700</v>
       </c>
       <c r="E23" s="3">
-        <v>-3600</v>
+        <v>-12900</v>
       </c>
       <c r="F23" s="3">
-        <v>-2600</v>
+        <v>-9400</v>
       </c>
       <c r="G23" s="3">
-        <v>-3000</v>
+        <v>-10800</v>
       </c>
       <c r="H23" s="3">
-        <v>-2500</v>
+        <v>-9000</v>
       </c>
       <c r="I23" s="3">
-        <v>-3300</v>
+        <v>-12000</v>
       </c>
       <c r="J23" s="3">
-        <v>-2300</v>
+        <v>-8200</v>
       </c>
       <c r="K23" s="3">
         <v>-4100</v>
@@ -1811,25 +1811,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1000</v>
+        <v>3700</v>
       </c>
       <c r="E26" s="3">
-        <v>-3600</v>
+        <v>-12900</v>
       </c>
       <c r="F26" s="3">
-        <v>-2600</v>
+        <v>-9400</v>
       </c>
       <c r="G26" s="3">
-        <v>-3000</v>
+        <v>-10800</v>
       </c>
       <c r="H26" s="3">
-        <v>-2500</v>
+        <v>-9000</v>
       </c>
       <c r="I26" s="3">
-        <v>-3300</v>
+        <v>-12000</v>
       </c>
       <c r="J26" s="3">
-        <v>-2300</v>
+        <v>-8200</v>
       </c>
       <c r="K26" s="3">
         <v>-4100</v>
@@ -1876,25 +1876,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1000</v>
+        <v>3700</v>
       </c>
       <c r="E27" s="3">
-        <v>-3600</v>
+        <v>-12900</v>
       </c>
       <c r="F27" s="3">
-        <v>-2600</v>
+        <v>-9400</v>
       </c>
       <c r="G27" s="3">
-        <v>-3000</v>
+        <v>-10800</v>
       </c>
       <c r="H27" s="3">
-        <v>-2500</v>
+        <v>-9000</v>
       </c>
       <c r="I27" s="3">
-        <v>-3300</v>
+        <v>-12000</v>
       </c>
       <c r="J27" s="3">
-        <v>-2300</v>
+        <v>-8200</v>
       </c>
       <c r="K27" s="3">
         <v>-4100</v>
@@ -2204,22 +2204,22 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
-        <v>600</v>
+        <v>2100</v>
       </c>
       <c r="F32" s="3">
-        <v>300</v>
+        <v>1100</v>
       </c>
       <c r="G32" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="H32" s="3">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="I32" s="3">
-        <v>900</v>
+        <v>3100</v>
       </c>
       <c r="J32" s="3">
-        <v>400</v>
+        <v>1400</v>
       </c>
       <c r="K32" s="3">
         <v>600</v>
@@ -2266,25 +2266,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1000</v>
+        <v>3700</v>
       </c>
       <c r="E33" s="3">
-        <v>-3600</v>
+        <v>-12900</v>
       </c>
       <c r="F33" s="3">
-        <v>-2600</v>
+        <v>-9400</v>
       </c>
       <c r="G33" s="3">
-        <v>-3000</v>
+        <v>-10800</v>
       </c>
       <c r="H33" s="3">
-        <v>-2500</v>
+        <v>-9000</v>
       </c>
       <c r="I33" s="3">
-        <v>-3300</v>
+        <v>-12000</v>
       </c>
       <c r="J33" s="3">
-        <v>-2300</v>
+        <v>-8200</v>
       </c>
       <c r="K33" s="3">
         <v>-4100</v>
@@ -2396,25 +2396,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1000</v>
+        <v>3700</v>
       </c>
       <c r="E35" s="3">
-        <v>-3600</v>
+        <v>-12900</v>
       </c>
       <c r="F35" s="3">
-        <v>-2600</v>
+        <v>-9400</v>
       </c>
       <c r="G35" s="3">
-        <v>-3000</v>
+        <v>-10800</v>
       </c>
       <c r="H35" s="3">
-        <v>-2500</v>
+        <v>-9000</v>
       </c>
       <c r="I35" s="3">
-        <v>-3300</v>
+        <v>-12000</v>
       </c>
       <c r="J35" s="3">
-        <v>-2300</v>
+        <v>-8200</v>
       </c>
       <c r="K35" s="3">
         <v>-4100</v>
@@ -2581,25 +2581,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>8200</v>
+        <v>29400</v>
       </c>
       <c r="E41" s="3">
-        <v>11000</v>
+        <v>39500</v>
       </c>
       <c r="F41" s="3">
-        <v>13600</v>
+        <v>48900</v>
       </c>
       <c r="G41" s="3">
-        <v>15000</v>
+        <v>54000</v>
       </c>
       <c r="H41" s="3">
-        <v>9600</v>
+        <v>34700</v>
       </c>
       <c r="I41" s="3">
-        <v>11100</v>
+        <v>39900</v>
       </c>
       <c r="J41" s="3">
-        <v>13500</v>
+        <v>48600</v>
       </c>
       <c r="K41" s="3">
         <v>2700</v>
@@ -2711,25 +2711,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="E43" s="3">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="F43" s="3">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="G43" s="3">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="H43" s="3">
-        <v>400</v>
+        <v>1400</v>
       </c>
       <c r="I43" s="3">
-        <v>700</v>
+        <v>2600</v>
       </c>
       <c r="J43" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="K43" s="3">
         <v>300</v>
@@ -2906,25 +2906,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>8400</v>
+        <v>30200</v>
       </c>
       <c r="E46" s="3">
-        <v>11100</v>
+        <v>40100</v>
       </c>
       <c r="F46" s="3">
-        <v>13800</v>
+        <v>49500</v>
       </c>
       <c r="G46" s="3">
-        <v>15300</v>
+        <v>55000</v>
       </c>
       <c r="H46" s="3">
-        <v>10000</v>
+        <v>36100</v>
       </c>
       <c r="I46" s="3">
-        <v>11800</v>
+        <v>42500</v>
       </c>
       <c r="J46" s="3">
-        <v>13600</v>
+        <v>49100</v>
       </c>
       <c r="K46" s="3">
         <v>3100</v>
@@ -3036,25 +3036,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>12100</v>
+        <v>43600</v>
       </c>
       <c r="E48" s="3">
-        <v>12400</v>
+        <v>44500</v>
       </c>
       <c r="F48" s="3">
-        <v>12500</v>
+        <v>45100</v>
       </c>
       <c r="G48" s="3">
-        <v>12300</v>
+        <v>44100</v>
       </c>
       <c r="H48" s="3">
-        <v>12400</v>
+        <v>44500</v>
       </c>
       <c r="I48" s="3">
-        <v>12500</v>
+        <v>45100</v>
       </c>
       <c r="J48" s="3">
-        <v>12600</v>
+        <v>45200</v>
       </c>
       <c r="K48" s="3">
         <v>13200</v>
@@ -3296,25 +3296,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="E52" s="3">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="F52" s="3">
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="G52" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="H52" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="I52" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="J52" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="K52" s="3">
         <v>100</v>
@@ -3426,25 +3426,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>20800</v>
+        <v>74700</v>
       </c>
       <c r="E54" s="3">
-        <v>23800</v>
+        <v>85600</v>
       </c>
       <c r="F54" s="3">
-        <v>26500</v>
+        <v>95500</v>
       </c>
       <c r="G54" s="3">
-        <v>27700</v>
+        <v>99600</v>
       </c>
       <c r="H54" s="3">
-        <v>22500</v>
+        <v>81000</v>
       </c>
       <c r="I54" s="3">
-        <v>24500</v>
+        <v>88000</v>
       </c>
       <c r="J54" s="3">
-        <v>26300</v>
+        <v>94700</v>
       </c>
       <c r="K54" s="3">
         <v>16400</v>
@@ -3541,25 +3541,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>900</v>
+        <v>3200</v>
       </c>
       <c r="E57" s="3">
-        <v>1100</v>
+        <v>4000</v>
       </c>
       <c r="F57" s="3">
-        <v>2100</v>
+        <v>7700</v>
       </c>
       <c r="G57" s="3">
-        <v>1800</v>
+        <v>6400</v>
       </c>
       <c r="H57" s="3">
-        <v>1400</v>
+        <v>5000</v>
       </c>
       <c r="I57" s="3">
-        <v>1200</v>
+        <v>4400</v>
       </c>
       <c r="J57" s="3">
-        <v>1000</v>
+        <v>3700</v>
       </c>
       <c r="K57" s="3">
         <v>900</v>
@@ -3606,25 +3606,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="E58" s="3">
-        <v>5400</v>
+        <v>18700</v>
       </c>
       <c r="F58" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G58" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H58" s="3">
-        <v>18100</v>
+        <v>64500</v>
       </c>
       <c r="I58" s="3">
-        <v>18100</v>
+        <v>64200</v>
       </c>
       <c r="J58" s="3">
-        <v>17500</v>
+        <v>62300</v>
       </c>
       <c r="K58" s="3">
         <v>17600</v>
@@ -3671,25 +3671,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="E59" s="3">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="F59" s="3">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="G59" s="3">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="H59" s="3">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="I59" s="3">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="J59" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="K59" s="3">
         <v>0</v>
@@ -3736,25 +3736,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1500</v>
+        <v>5200</v>
       </c>
       <c r="E60" s="3">
-        <v>6500</v>
+        <v>23500</v>
       </c>
       <c r="F60" s="3">
-        <v>2400</v>
+        <v>8500</v>
       </c>
       <c r="G60" s="3">
-        <v>2000</v>
+        <v>7200</v>
       </c>
       <c r="H60" s="3">
-        <v>19500</v>
+        <v>70300</v>
       </c>
       <c r="I60" s="3">
-        <v>19300</v>
+        <v>69400</v>
       </c>
       <c r="J60" s="3">
-        <v>18500</v>
+        <v>66700</v>
       </c>
       <c r="K60" s="3">
         <v>18500</v>
@@ -3801,25 +3801,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>16700</v>
+        <v>60000</v>
       </c>
       <c r="E61" s="3">
-        <v>16000</v>
+        <v>57500</v>
       </c>
       <c r="F61" s="3">
-        <v>19700</v>
+        <v>70800</v>
       </c>
       <c r="G61" s="3">
-        <v>19200</v>
+        <v>69000</v>
       </c>
       <c r="H61" s="3">
-        <v>1600</v>
+        <v>5900</v>
       </c>
       <c r="I61" s="3">
-        <v>1700</v>
+        <v>6000</v>
       </c>
       <c r="J61" s="3">
-        <v>1700</v>
+        <v>6000</v>
       </c>
       <c r="K61" s="3">
         <v>1800</v>
@@ -3866,25 +3866,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E62" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F62" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G62" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H62" s="3">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="I62" s="3">
-        <v>300</v>
+        <v>1200</v>
       </c>
       <c r="J62" s="3">
-        <v>300</v>
+        <v>1200</v>
       </c>
       <c r="K62" s="3">
         <v>400</v>
@@ -4126,25 +4126,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>18200</v>
+        <v>65400</v>
       </c>
       <c r="E66" s="3">
-        <v>22500</v>
+        <v>81100</v>
       </c>
       <c r="F66" s="3">
-        <v>22000</v>
+        <v>79400</v>
       </c>
       <c r="G66" s="3">
-        <v>21200</v>
+        <v>76300</v>
       </c>
       <c r="H66" s="3">
-        <v>21300</v>
+        <v>76800</v>
       </c>
       <c r="I66" s="3">
-        <v>21300</v>
+        <v>76700</v>
       </c>
       <c r="J66" s="3">
-        <v>20500</v>
+        <v>73900</v>
       </c>
       <c r="K66" s="3">
         <v>20600</v>
@@ -4476,25 +4476,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-106500</v>
+        <v>-383300</v>
       </c>
       <c r="E72" s="3">
-        <v>-107500</v>
+        <v>-387000</v>
       </c>
       <c r="F72" s="3">
-        <v>-103900</v>
+        <v>-374200</v>
       </c>
       <c r="G72" s="3">
-        <v>-101300</v>
+        <v>-364800</v>
       </c>
       <c r="H72" s="3">
-        <v>-98300</v>
+        <v>-354000</v>
       </c>
       <c r="I72" s="3">
-        <v>-95800</v>
+        <v>-345000</v>
       </c>
       <c r="J72" s="3">
-        <v>-92500</v>
+        <v>-333000</v>
       </c>
       <c r="K72" s="3">
         <v>-93500</v>
@@ -4736,25 +4736,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2600</v>
+        <v>9400</v>
       </c>
       <c r="E76" s="3">
-        <v>1200</v>
+        <v>4500</v>
       </c>
       <c r="F76" s="3">
-        <v>4500</v>
+        <v>16200</v>
       </c>
       <c r="G76" s="3">
-        <v>6500</v>
+        <v>23300</v>
       </c>
       <c r="H76" s="3">
-        <v>1200</v>
+        <v>4200</v>
       </c>
       <c r="I76" s="3">
-        <v>3200</v>
+        <v>11400</v>
       </c>
       <c r="J76" s="3">
-        <v>5800</v>
+        <v>20800</v>
       </c>
       <c r="K76" s="3">
         <v>-4200</v>
@@ -4936,25 +4936,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1000</v>
+        <v>3700</v>
       </c>
       <c r="E81" s="3">
-        <v>-3600</v>
+        <v>-12900</v>
       </c>
       <c r="F81" s="3">
-        <v>-2600</v>
+        <v>-9400</v>
       </c>
       <c r="G81" s="3">
-        <v>-3000</v>
+        <v>-10800</v>
       </c>
       <c r="H81" s="3">
-        <v>-2500</v>
+        <v>-9000</v>
       </c>
       <c r="I81" s="3">
-        <v>-3300</v>
+        <v>-12000</v>
       </c>
       <c r="J81" s="3">
-        <v>-2300</v>
+        <v>-8200</v>
       </c>
       <c r="K81" s="3">
         <v>-4100</v>
@@ -5035,16 +5035,16 @@
         <v>4</v>
       </c>
       <c r="G83" s="3">
-        <v>700</v>
+        <v>2400</v>
       </c>
       <c r="H83" s="3">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="I83" s="3">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="J83" s="3">
-        <v>-500</v>
+        <v>-1800</v>
       </c>
       <c r="K83" s="3">
         <v>200</v>
@@ -5425,16 +5425,16 @@
         <v>4</v>
       </c>
       <c r="G89" s="3">
-        <v>-6800</v>
+        <v>-24500</v>
       </c>
       <c r="H89" s="3">
-        <v>-1700</v>
+        <v>-6200</v>
       </c>
       <c r="I89" s="3">
-        <v>-2200</v>
+        <v>-7900</v>
       </c>
       <c r="J89" s="3">
-        <v>19100</v>
+        <v>68700</v>
       </c>
       <c r="K89" s="3">
         <v>-4600</v>
@@ -5505,26 +5505,26 @@
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>4</v>
+      <c r="D91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
       </c>
       <c r="G91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H91" s="3">
         <v>0</v>
       </c>
       <c r="I91" s="3">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="J91" s="3">
-        <v>1700</v>
+        <v>-400</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
@@ -5710,16 +5710,16 @@
         <v>4</v>
       </c>
       <c r="G94" s="3">
+        <v>-400</v>
+      </c>
+      <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>-100</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
       <c r="J94" s="3">
-        <v>1700</v>
+        <v>6000</v>
       </c>
       <c r="K94" s="3">
         <v>100</v>
@@ -6060,16 +6060,16 @@
         <v>4</v>
       </c>
       <c r="G100" s="3">
-        <v>18800</v>
+        <v>67800</v>
       </c>
       <c r="H100" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="I100" s="3">
         <v>-300</v>
       </c>
-      <c r="I100" s="3">
-        <v>-100</v>
-      </c>
       <c r="J100" s="3">
-        <v>7800</v>
+        <v>28100</v>
       </c>
       <c r="K100" s="3">
         <v>-100</v>
@@ -6125,16 +6125,16 @@
         <v>4</v>
       </c>
       <c r="G101" s="3">
-        <v>500</v>
+        <v>1700</v>
       </c>
       <c r="H101" s="3">
-        <v>500</v>
+        <v>2000</v>
       </c>
       <c r="I101" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="J101" s="3">
-        <v>-100</v>
+        <v>-500</v>
       </c>
       <c r="K101" s="3">
         <v>200</v>
@@ -6190,16 +6190,16 @@
         <v>4</v>
       </c>
       <c r="G102" s="3">
-        <v>12400</v>
+        <v>44600</v>
       </c>
       <c r="H102" s="3">
-        <v>-1400</v>
+        <v>-5200</v>
       </c>
       <c r="I102" s="3">
-        <v>-2400</v>
+        <v>-8700</v>
       </c>
       <c r="J102" s="3">
-        <v>28400</v>
+        <v>102200</v>
       </c>
       <c r="K102" s="3">
         <v>-4400</v>

--- a/AAII_Financials/Quarterly/BVXV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BVXV_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="92">
   <si>
     <t>BVXV</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,101 +665,109 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -823,8 +831,14 @@
       <c r="W8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -888,8 +902,14 @@
       <c r="W9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -953,8 +973,14 @@
       <c r="W10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -978,73 +1004,81 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E12" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F12" s="3">
         <v>4000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>6500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
+        <v>4800</v>
+      </c>
+      <c r="I12" s="3">
         <v>3700</v>
       </c>
-      <c r="G12" s="3">
-        <v>3700</v>
-      </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>2000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>1900</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>2800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>2300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>3600</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>3500</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>5900</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>10000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>5000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>4700</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>1700</v>
       </c>
-      <c r="S12" s="3">
+      <c r="U12" s="3">
         <v>8000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="V12" s="3">
         <v>1200</v>
       </c>
-      <c r="U12" s="3">
+      <c r="W12" s="3">
         <v>8300</v>
       </c>
-      <c r="V12" s="3">
+      <c r="X12" s="3">
         <v>3300</v>
       </c>
-      <c r="W12" s="3">
+      <c r="Y12" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1108,8 +1142,14 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1173,8 +1213,14 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1238,8 +1284,14 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1260,73 +1312,81 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E17" s="3">
+        <v>3200</v>
+      </c>
+      <c r="F17" s="3">
         <v>-3900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>10800</v>
       </c>
-      <c r="F17" s="3">
-        <v>8300</v>
-      </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
+        <v>2600</v>
+      </c>
+      <c r="I17" s="3">
         <v>10900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>8200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>8900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>6800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>3500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>-16000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>4700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>6200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>10300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>5800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>6100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>2200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>8400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>1700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>8700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>3600</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1334,64 +1394,70 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="F18" s="3">
+        <v>3900</v>
+      </c>
+      <c r="G18" s="3">
         <v>-10800</v>
       </c>
-      <c r="F18" s="3">
-        <v>-8300</v>
-      </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="I18" s="3">
         <v>-10900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-8200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-8900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-6800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-3500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>16000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-4700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-6200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-10300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-5800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-6100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-2200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-8400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-1700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>-8700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>-3600</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>-4300</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1415,8 +1481,10 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1424,129 +1492,141 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G20" s="3">
         <v>-2100</v>
       </c>
-      <c r="F20" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
+        <v>100</v>
+      </c>
+      <c r="I20" s="3">
         <v>200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-3100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-1400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-7500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>5000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-3300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-8500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>2300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>-5400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>1000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>1500</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>-400</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>4</v>
+      <c r="E21" s="3">
+        <v>-3400</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H21" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="I21" s="3">
         <v>-8300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-8400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-11400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-10000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-3900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>16100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-12000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-1000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-13100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-5800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-14500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>-13800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>-700</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>-7200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>-4000</v>
       </c>
-      <c r="W21" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="Y21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1610,73 +1690,85 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="F23" s="3">
         <v>3700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-12900</v>
       </c>
-      <c r="F23" s="3">
-        <v>-9400</v>
-      </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="I23" s="3">
         <v>-10800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-9000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-12000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-8200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-4100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>15900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-12200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-1100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-13600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-6000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-14600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-13800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-7300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-4000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>-3600</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1740,8 +1832,14 @@
       <c r="W24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1805,138 +1903,156 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="F26" s="3">
         <v>3700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-12900</v>
       </c>
-      <c r="F26" s="3">
-        <v>-9400</v>
-      </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="I26" s="3">
         <v>-10800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-9000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-12000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-8200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-4100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>15900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-12200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-1100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-13600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-6000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-14600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-13800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-7300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-4000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>-3600</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="F27" s="3">
         <v>3700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-12900</v>
       </c>
-      <c r="F27" s="3">
-        <v>-9400</v>
-      </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="I27" s="3">
         <v>-10800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-9000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-12000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-8200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-4100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>15900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-12200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-1400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-13600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-6000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-14600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-13800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-7300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-4000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>-3600</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2000,8 +2116,14 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2065,8 +2187,14 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2130,8 +2258,14 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2195,8 +2329,14 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2204,129 +2344,141 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>300</v>
+      </c>
+      <c r="F32" s="3">
+        <v>100</v>
+      </c>
+      <c r="G32" s="3">
         <v>2100</v>
       </c>
-      <c r="F32" s="3">
-        <v>1100</v>
-      </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I32" s="3">
         <v>-200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>3100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>1400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>7500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-5000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>3300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>8500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-2300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>5400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>-1000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>-1500</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>400</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="F33" s="3">
         <v>3700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-12900</v>
       </c>
-      <c r="F33" s="3">
-        <v>-9400</v>
-      </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="I33" s="3">
         <v>-10800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-9000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-12000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-8200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-4100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>15900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-12200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-1400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-13600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-6000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-14600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-13800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-7300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-4000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>-3600</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2390,143 +2542,161 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="F35" s="3">
         <v>3700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-12900</v>
       </c>
-      <c r="F35" s="3">
-        <v>-9400</v>
-      </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="I35" s="3">
         <v>-10800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-9000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-12000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-8200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-4100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>15900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-12200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-1400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-13600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-6000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-14600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-13800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-7300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-4000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>-3600</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2550,8 +2720,10 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2575,73 +2747,81 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>7500</v>
+      </c>
+      <c r="E41" s="3">
+        <v>10800</v>
+      </c>
+      <c r="F41" s="3">
         <v>29400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>39500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>48900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>54000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>34700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>39900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>48600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>2700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>7100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>11300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>13100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>23000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>23200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>10500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>17300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>22800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>15100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>10600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>15900</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>20800</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2705,73 +2885,85 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3">
+      <c r="D43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F43" s="3">
         <v>700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>1000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>1400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>2600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>200</v>
-      </c>
-      <c r="P43" s="3">
-        <v>600</v>
-      </c>
-      <c r="Q43" s="3">
-        <v>400</v>
       </c>
       <c r="R43" s="3">
         <v>600</v>
       </c>
       <c r="S43" s="3">
+        <v>400</v>
+      </c>
+      <c r="T43" s="3">
+        <v>600</v>
+      </c>
+      <c r="U43" s="3">
         <v>300</v>
-      </c>
-      <c r="T43" s="3">
-        <v>800</v>
-      </c>
-      <c r="U43" s="3">
-        <v>1200</v>
       </c>
       <c r="V43" s="3">
         <v>800</v>
       </c>
       <c r="W43" s="3">
+        <v>1200</v>
+      </c>
+      <c r="X43" s="3">
+        <v>800</v>
+      </c>
+      <c r="Y43" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2835,31 +3027,37 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E45" s="3">
-        <v>0</v>
-      </c>
-      <c r="F45" s="3">
-        <v>0</v>
-      </c>
-      <c r="G45" s="3">
-        <v>0</v>
-      </c>
-      <c r="H45" s="3">
-        <v>0</v>
-      </c>
-      <c r="I45" s="3">
-        <v>0</v>
-      </c>
-      <c r="J45" s="3">
-        <v>0</v>
+        <v>200</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K45" s="3">
         <v>0</v>
@@ -2900,73 +3098,85 @@
       <c r="W45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E46" s="3">
+        <v>11000</v>
+      </c>
+      <c r="F46" s="3">
         <v>30200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>40100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>49500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>55000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>36100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>42500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>49100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>3100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>8000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>12000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>13500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>23200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>23800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>10900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>17900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>23100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>15900</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>11700</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>16700</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>22000</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3030,73 +3240,85 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>12100</v>
+      </c>
+      <c r="E48" s="3">
+        <v>12200</v>
+      </c>
+      <c r="F48" s="3">
         <v>43600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>44500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>45100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>44100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>44500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>45100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>45200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>13200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>13300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>12700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>13200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>13300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>12800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>12400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>11800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>8500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>6900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>5400</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>3600</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3160,8 +3382,14 @@
       <c r="W49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3225,8 +3453,14 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3290,25 +3524,31 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
+      <c r="D52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F52" s="3">
         <v>1000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>1000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>900</v>
-      </c>
-      <c r="G52" s="3">
-        <v>400</v>
-      </c>
-      <c r="H52" s="3">
-        <v>400</v>
       </c>
       <c r="I52" s="3">
         <v>400</v>
@@ -3317,22 +3557,22 @@
         <v>400</v>
       </c>
       <c r="K52" s="3">
+        <v>400</v>
+      </c>
+      <c r="L52" s="3">
+        <v>400</v>
+      </c>
+      <c r="M52" s="3">
         <v>100</v>
-      </c>
-      <c r="L52" s="3">
-        <v>300</v>
-      </c>
-      <c r="M52" s="3">
-        <v>300</v>
       </c>
       <c r="N52" s="3">
         <v>300</v>
       </c>
       <c r="O52" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="P52" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Q52" s="3">
         <v>200</v>
@@ -3344,10 +3584,10 @@
         <v>200</v>
       </c>
       <c r="T52" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="U52" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="V52" s="3">
         <v>300</v>
@@ -3355,8 +3595,14 @@
       <c r="W52" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3">
+        <v>300</v>
+      </c>
+      <c r="Y52" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3420,73 +3666,85 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>19900</v>
+      </c>
+      <c r="E54" s="3">
+        <v>23300</v>
+      </c>
+      <c r="F54" s="3">
         <v>74700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>85600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>95500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>99600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>81000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>88000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>94700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>16400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>21600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>24900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>27000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>36700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>36800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>23400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>29900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>31800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>23000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>17300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>20500</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>23800</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3510,8 +3768,10 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3535,105 +3795,113 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>700</v>
+      </c>
+      <c r="E57" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F57" s="3">
         <v>3200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>4000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>7700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>6400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>5000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>4400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>3700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>3000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>1700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>1300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>5800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>2900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>5000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>6600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>800</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>600</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>2600</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
+      <c r="D58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F58" s="3">
         <v>900</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>18700</v>
       </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
       <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
         <v>64500</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>64200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>62300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>17600</v>
-      </c>
-      <c r="L58" s="3">
-        <v>200</v>
-      </c>
-      <c r="M58" s="3">
-        <v>200</v>
       </c>
       <c r="N58" s="3">
         <v>200</v>
@@ -3650,11 +3918,11 @@
       <c r="R58" s="3">
         <v>200</v>
       </c>
-      <c r="S58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T58" s="3" t="s">
-        <v>4</v>
+      <c r="S58" s="3">
+        <v>200</v>
+      </c>
+      <c r="T58" s="3">
+        <v>200</v>
       </c>
       <c r="U58" s="3" t="s">
         <v>4</v>
@@ -3665,22 +3933,28 @@
       <c r="W58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E59" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F59" s="3">
         <v>1100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>900</v>
-      </c>
-      <c r="F59" s="3">
-        <v>800</v>
-      </c>
-      <c r="G59" s="3">
-        <v>800</v>
       </c>
       <c r="H59" s="3">
         <v>800</v>
@@ -3689,14 +3963,14 @@
         <v>800</v>
       </c>
       <c r="J59" s="3">
+        <v>800</v>
+      </c>
+      <c r="K59" s="3">
+        <v>800</v>
+      </c>
+      <c r="L59" s="3">
         <v>600</v>
       </c>
-      <c r="K59" s="3">
-        <v>0</v>
-      </c>
-      <c r="L59" s="3">
-        <v>0</v>
-      </c>
       <c r="M59" s="3">
         <v>0</v>
       </c>
@@ -3730,146 +4004,164 @@
       <c r="W59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E60" s="3">
+        <v>2600</v>
+      </c>
+      <c r="F60" s="3">
         <v>5200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>23500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>8500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>7200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>70300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>69400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>66700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>18500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>3200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>1800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>1500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>6000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>3100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>5200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>6600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>2600</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>23300</v>
+      </c>
+      <c r="E61" s="3">
+        <v>21900</v>
+      </c>
+      <c r="F61" s="3">
         <v>60000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>57500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>70800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>69000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>5900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>6000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>6000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>1800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>18900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>37300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>38300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>41400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>35500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>36400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>28900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>28400</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>12200</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>5900</v>
       </c>
-      <c r="V61" s="3">
-        <v>0</v>
-      </c>
-      <c r="W61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>100</v>
+        <v>1800</v>
       </c>
       <c r="E62" s="3">
-        <v>100</v>
+        <v>3700</v>
       </c>
       <c r="F62" s="3">
         <v>100</v>
@@ -3878,55 +4170,61 @@
         <v>100</v>
       </c>
       <c r="H62" s="3">
+        <v>100</v>
+      </c>
+      <c r="I62" s="3">
+        <v>100</v>
+      </c>
+      <c r="J62" s="3">
         <v>700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>1200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>1200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>400</v>
       </c>
-      <c r="L62" s="3">
-        <v>0</v>
-      </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+      <c r="O62" s="3">
         <v>3700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>6100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>9900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>6600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>6200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>5000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>6300</v>
-      </c>
-      <c r="T62" s="3">
-        <v>5900</v>
-      </c>
-      <c r="U62" s="3">
-        <v>6100</v>
       </c>
       <c r="V62" s="3">
         <v>5900</v>
       </c>
       <c r="W62" s="3">
+        <v>6100</v>
+      </c>
+      <c r="X62" s="3">
+        <v>5900</v>
+      </c>
+      <c r="Y62" s="3">
         <v>5400</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3990,8 +4288,14 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4055,8 +4359,14 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4120,73 +4430,85 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>27000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>28100</v>
+      </c>
+      <c r="F66" s="3">
         <v>65400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>81100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>79400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>76300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>76800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>76700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>73900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>20600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>22100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>42900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>45900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>57300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>43000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>45800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>39100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>41200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>18900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>12600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>8500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>7400</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4210,8 +4532,10 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4275,8 +4599,14 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4340,8 +4670,14 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4405,8 +4741,14 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4470,73 +4812,85 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-123100</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-119400</v>
+      </c>
+      <c r="F72" s="3">
         <v>-383300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-387000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-374200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-364800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-354000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-345000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-333000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-93500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-89500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-106400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-99700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-101500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-85400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-79600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-63300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-63500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-47100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-46500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-39200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-36000</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4600,8 +4954,14 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4665,8 +5025,14 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4730,73 +5096,85 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="F76" s="3">
         <v>9400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>4500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>16200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>23300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>4200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>11400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>20800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-4200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-18000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-18900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-20600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-6300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-22400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>-9200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>-9400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>4100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>4800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>12000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>16400</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4860,143 +5238,161 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="F81" s="3">
         <v>3700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-12900</v>
       </c>
-      <c r="F81" s="3">
-        <v>-9400</v>
-      </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="I81" s="3">
         <v>-10800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-9000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-12000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-8200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-4100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>15900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-12200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-1400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-13600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-6000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-14600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-13800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-7300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-4000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>-3600</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5020,37 +5416,39 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E83" s="3" t="s">
-        <v>4</v>
+      <c r="E83" s="3">
+        <v>100</v>
       </c>
       <c r="F83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G83" s="3">
+      <c r="G83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H83" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="I83" s="3">
         <v>2400</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>600</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>-1800</v>
-      </c>
-      <c r="K83" s="3">
-        <v>200</v>
-      </c>
-      <c r="L83" s="3">
-        <v>200</v>
       </c>
       <c r="M83" s="3">
         <v>200</v>
@@ -5059,34 +5457,40 @@
         <v>200</v>
       </c>
       <c r="O83" s="3">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="P83" s="3">
         <v>200</v>
       </c>
       <c r="Q83" s="3">
+        <v>500</v>
+      </c>
+      <c r="R83" s="3">
+        <v>200</v>
+      </c>
+      <c r="S83" s="3">
         <v>100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>100</v>
       </c>
-      <c r="S83" s="3">
-        <v>0</v>
-      </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+      <c r="V83" s="3">
         <v>-100</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>100</v>
       </c>
-      <c r="V83" s="3">
-        <v>0</v>
-      </c>
-      <c r="W83" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5150,8 +5554,14 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5215,8 +5625,14 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5280,8 +5696,14 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5345,8 +5767,14 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5410,73 +5838,85 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E89" s="3" t="s">
-        <v>4</v>
+      <c r="E89" s="3">
+        <v>-3100</v>
       </c>
       <c r="F89" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G89" s="3">
+      <c r="G89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H89" s="3">
+        <v>23400</v>
+      </c>
+      <c r="I89" s="3">
         <v>-24500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-6200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-7900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>68700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-4600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-3000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-3400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-10600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-24400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-7700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-6700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-4000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-1900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>-900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>-11000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>-2600</v>
       </c>
-      <c r="W89" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="Y89" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5500,20 +5940,22 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F91" s="3">
         <v>-100</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
       <c r="G91" s="3">
         <v>0</v>
       </c>
@@ -5521,52 +5963,58 @@
         <v>0</v>
       </c>
       <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
         <v>-1000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-400</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
         <v>-1000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-2400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-1000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-1200</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-1700</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-1900</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-2000</v>
       </c>
-      <c r="W91" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5630,8 +6078,14 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5695,73 +6149,85 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E94" s="3" t="s">
-        <v>4</v>
+      <c r="E94" s="3">
+        <v>0</v>
       </c>
       <c r="F94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G94" s="3">
+      <c r="G94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I94" s="3">
         <v>-400</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>-100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>6000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-1000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-2300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-1000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-1200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-1700</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-1900</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-2000</v>
       </c>
-      <c r="W94" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5785,8 +6251,10 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5850,8 +6318,14 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5915,8 +6389,14 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5980,8 +6460,14 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6045,117 +6531,129 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E100" s="3" t="s">
-        <v>4</v>
+      <c r="E100" s="3">
+        <v>0</v>
       </c>
       <c r="F100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G100" s="3">
+      <c r="G100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H100" s="3">
+        <v>-67800</v>
+      </c>
+      <c r="I100" s="3">
         <v>67800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-1000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>28100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-100</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>2900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>1300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>27000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>21600</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
         <v>-100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>10100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>7200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>7200</v>
       </c>
-      <c r="V100" s="3">
-        <v>0</v>
-      </c>
-      <c r="W100" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E101" s="3" t="s">
-        <v>4</v>
+      <c r="E101" s="3">
+        <v>-200</v>
       </c>
       <c r="F101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G101" s="3">
+      <c r="G101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H101" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="I101" s="3">
         <v>1700</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>2000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>-400</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>-500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>-100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>-200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>600</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>-1400</v>
-      </c>
-      <c r="P101" s="3">
-        <v>-500</v>
-      </c>
-      <c r="Q101" s="3">
-        <v>-200</v>
       </c>
       <c r="R101" s="3">
         <v>-500</v>
@@ -6164,80 +6662,92 @@
         <v>-200</v>
       </c>
       <c r="T101" s="3">
+        <v>-500</v>
+      </c>
+      <c r="U101" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V101" s="3">
         <v>-100</v>
       </c>
-      <c r="U101" s="3">
+      <c r="W101" s="3">
         <v>400</v>
       </c>
-      <c r="V101" s="3">
+      <c r="X101" s="3">
         <v>100</v>
       </c>
-      <c r="W101" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E102" s="3" t="s">
-        <v>4</v>
+      <c r="E102" s="3">
+        <v>-3300</v>
       </c>
       <c r="F102" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G102" s="3">
+      <c r="G102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H102" s="3">
+        <v>-46600</v>
+      </c>
+      <c r="I102" s="3">
         <v>44600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-5200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-8700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>102200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-4400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-4000</v>
-      </c>
-      <c r="M102" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="N102" s="3">
-        <v>-9200</v>
       </c>
       <c r="O102" s="3">
         <v>-1100</v>
       </c>
       <c r="P102" s="3">
+        <v>-9200</v>
+      </c>
+      <c r="Q102" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="R102" s="3">
         <v>12700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-7200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-5600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>6900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>4500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>-5300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>-4500</v>
       </c>
-      <c r="W102" s="3" t="s">
+      <c r="Y102" s="3" t="s">
         <v>4</v>
       </c>
     </row>
